--- a/location/location_data.xlsx
+++ b/location/location_data.xlsx
@@ -668,12 +668,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>bener meriah,aceh timur</t>
+          <t>aceh timur,bener meriah</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>wih pesam,idi rayeuk</t>
+          <t>idi rayeuk,wih pesam</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>singkil utara,pulau banyak</t>
+          <t>pulau banyak,singkil utara</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>nagran raya,aceh barat daya</t>
+          <t>aceh barat daya,nagran raya</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>beutong,blangpidie,susoh</t>
+          <t>susoh,beutong,blangpidie</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>susut,bangli</t>
+          <t>bangli,susut</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>selat,semseman,bebandem,manggis</t>
+          <t>bebandem,selat,manggis,semseman</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>halong,awayan,paringin selatan</t>
+          <t>paringin selatan,halong,awayan</t>
         </is>
       </c>
     </row>
@@ -1808,12 +1808,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>bantul,yogyakarta</t>
+          <t>yogyakarta,bantul</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>bantul,gondokusuman</t>
+          <t>gondokusuman,bantul</t>
         </is>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>bantul,yogyakarta</t>
+          <t>yogyakarta,bantul</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>kota bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>tanah abang,senen,menteng</t>
+          <t>tanah abang,menteng,senen</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>kabupaten semarang</t>
+          <t>semarang</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>kabupaten tegal</t>
+          <t>tegal</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>bantul,yogyakarta</t>
+          <t>yogyakarta,bantul</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>paliyan,karangmojo,playen,wonosari</t>
+          <t>playen,karangmojo,paliyan,wonosari</t>
         </is>
       </c>
     </row>
@@ -3053,12 +3053,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>bantul,sleman,yogyakarta</t>
+          <t>sleman,yogyakarta,bantul</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>sleman,kalasan,minggir,depok,tempel,berbah,seyegan,cangkringan,prambanan</t>
+          <t>seyegan,berbah,sleman,cangkringan,prambanan,depok,tempel,minggir,kalasan</t>
         </is>
       </c>
     </row>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>karangnongko,trucuk,wonosari</t>
+          <t>trucuk,karangnongko,wonosari</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3292,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>kotawaringin barat</t>
+          <t>waringin barat</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>mantangi,dadahup,kapuas murung</t>
+          <t>kapuas murung,dadahup,mantangi</t>
         </is>
       </c>
     </row>
@@ -3342,7 +3342,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>kotawaringin barat</t>
+          <t>waringin barat</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>kotawaringin barat</t>
+          <t>waringin barat</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -3396,7 +3396,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>kotawaringin barat</t>
+          <t>waringin barat</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -3477,7 +3477,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>kota bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -3502,11 +3502,7 @@
           <t>sumatera utara</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
     </row>
     <row r="118">
@@ -3658,7 +3654,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -3821,7 +3817,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>gandusari,pogalan,trenggalek</t>
+          <t>gandusari,trenggalek,pogalan</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4213,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>kota bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -4318,7 +4314,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>diwek,ngoro,mojoagung,gudo,wonosalam,bareng,mojowarno</t>
+          <t>ngoro,mojoagung,diwek,gudo,mojowarno,wonosalam,bareng</t>
         </is>
       </c>
     </row>
@@ -4368,7 +4364,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>garawangi,sindang agung</t>
+          <t>sindang agung,garawangi</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4625,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>kabupaten bogor,kota bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -5512,7 +5508,7 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>panca rijang,kulo,watang pulu,maritengngae,pitu riase,dua pitue,panca lautang,wattang sidenreng,tellu limpoe,pitu riawa</t>
+          <t>panca lautang,kulo,dua pitue,pitu riase,watang pulu,wattang sidenreng,tellu limpoe,pitu riawa,panca rijang,maritengngae</t>
         </is>
       </c>
     </row>
@@ -5701,7 +5697,7 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>kontunaga,watopute</t>
+          <t>watopute,kontunaga</t>
         </is>
       </c>
     </row>
@@ -5728,7 +5724,7 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>lasolo,oheo,langgikima,landawe</t>
+          <t>lasolo,oheo,landawe,langgikima</t>
         </is>
       </c>
     </row>
@@ -5804,7 +5800,7 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>padang,pesisir selatan</t>
+          <t>pesisir selatan,padang</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
@@ -5971,7 +5967,7 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>tanjung raya,iv koto,tanjung mutiara,lubuk basung,matur</t>
+          <t>tanjung mutiara,lubuk basung,tanjung raya,matur,iv koto</t>
         </is>
       </c>
     </row>
@@ -6255,7 +6251,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>kabupaten kupang</t>
+          <t>kupang</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -6548,12 +6544,12 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>surabaya,sidoarjo</t>
+          <t>sidoarjo,surabaya</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>lakarsantri,krian,rungkut,gunung anyar,gubeng,sukolilo</t>
+          <t>gubeng,gunung anyar,lakarsantri,sukolilo,rungkut,krian</t>
         </is>
       </c>
     </row>
@@ -6580,7 +6576,7 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>gumukmas,kaliwates,sumberjambe</t>
+          <t>sumberjambe,kaliwates,gumukmas</t>
         </is>
       </c>
     </row>
@@ -6652,7 +6648,7 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>kabupaten blitar</t>
+          <t>blitar</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
@@ -6679,7 +6675,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>kabupaten bangkalan</t>
+          <t>bangkalan</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
@@ -6755,12 +6751,12 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat</t>
+          <t>jawa barat,jakarta</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>bogor,bekasi,tangerang,depok</t>
+          <t>tangerang,bekasi,depok,bogor</t>
         </is>
       </c>
       <c r="E241" t="inlineStr"/>
@@ -6842,7 +6838,7 @@
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>manggeng,blangpidie,susoh,lembah sabil</t>
+          <t>susoh,manggeng,blangpidie,lembah sabil</t>
         </is>
       </c>
     </row>
@@ -6941,7 +6937,7 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>aceh jaya,aceh barat,nagan raya</t>
+          <t>aceh jaya,nagan raya,aceh barat</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -6964,12 +6960,12 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>aceh selatan,aceh barat daya</t>
+          <t>aceh barat daya,aceh selatan</t>
         </is>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>kuala batee,blangpidie</t>
+          <t>blangpidie,kuala batee</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6992,7 @@
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>kluet timur,labuhan haji</t>
+          <t>labuhan haji,kluet timur</t>
         </is>
       </c>
     </row>
@@ -7018,12 +7014,12 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>bireuen,aceh utara,aceh singkil</t>
+          <t>aceh singkil,aceh utara,bireuen</t>
         </is>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>kuala,jangka,langkahan,dewantara,cot girek,tanah pasir,syamtalira aron,nisam,tanah luas,seunuddon,pirak timu,makmur,peusangan,lapang,baktiya,gandapura,singkil,kuta makmur,tanah jambo aye,muara batu,lhoksukon,baktiya barat</t>
+          <t>peusangan,langkahan,singkil,pirak timu,nisam,gandapura,tanah luas,dewantara,jangka,seunuddon,cot girek,kuta makmur,tanah jambo aye,baktiya barat,tanah pasir,kuala,makmur,lapang,syamtalira aron,baktiya,muara batu,lhoksukon</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7073,7 @@
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>meureudu,meurah dua,ulim</t>
+          <t>ulim,meureudu,meurah dua</t>
         </is>
       </c>
     </row>
@@ -7126,12 +7122,12 @@
       </c>
       <c r="D255" t="inlineStr">
         <is>
-          <t>bireuen,aceh selatan,bieruen,pidie jaya,aceh utara</t>
+          <t>pidie jaya,aceh utara,bieruen,aceh selatan,bireuen</t>
         </is>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>pandrah,meurahdua,samalanga,jeunieb,ulim,pirak timu,jangkabuya,trumon,matangkuli,bandardua</t>
+          <t>meurahdua,pandrah,trumon,pirak timu,ulim,jeunieb,bandardua,samalanga,matangkuli,jangkabuya</t>
         </is>
       </c>
     </row>
@@ -7217,12 +7213,12 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat,banten</t>
+          <t>jawa barat,banten,jakarta</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
         <is>
-          <t>tangerang selatan,depok,bekasi,bogor,tangerang</t>
+          <t>bogor,bekasi,depok,tangerang,tangerang selatan</t>
         </is>
       </c>
       <c r="E259" t="inlineStr"/>
@@ -7240,12 +7236,12 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat,banten</t>
+          <t>jawa barat,banten,jakarta</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>tangerang selatan,depok,bekasi,bogor,tangerang</t>
+          <t>bogor,bekasi,depok,tangerang,tangerang selatan</t>
         </is>
       </c>
       <c r="E260" t="inlineStr"/>
@@ -7386,17 +7382,17 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat,banten</t>
+          <t>jawa barat,banten,jakarta</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>tangerang kota,tangerang selatan,depok,bekasi,jakarta timur,jakarta barat,kabupaten bogor,kota bogor,jakarta pusat</t>
+          <t>jakarta barat,bekasi,bogor,depok,tangerang,jakarta timur,tangerang selatan,jakarta pusat</t>
         </is>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>cinere,rawa lumbu,palmerah barat,tanah sereal,bojonggede,ciputat,batu ceper,kramat jati,kemayoran</t>
+          <t>palmerah barat,tanah sereal,kramat jati,batu ceper,rawa lumbu,kemayoran,bojonggede,ciputat,cinere</t>
         </is>
       </c>
     </row>
@@ -7413,17 +7409,17 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>jakarta selatan,jakarta timur,jakarta pusat,bekasi,jakarta barat,jakarta,jakarta utara</t>
+          <t>jakarta barat,bekasi,jakarta,jakarta selatan,jakarta timur,jakarta pusat,jakarta utara</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>cempaka putih,makasar,jakarta timur,penjaringan,pondok gede,jatinegara,cengkareng,null,pasar rebo,pesanggrahan,kelapa gading,cengkarang</t>
+          <t>pasar rebo,cengkareng,pondok gede,kelapa gading,jatinegara,pesanggrahan,makasar,cengkarang,cempaka putih,penjaringan,jakarta timur</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>perumahan setneg,manggarai selatan,halim,kelurahan gedong,tol jatinegara,jln. daan mogot,cawang,rorotan,komplek ikpn,jl. perintis kemerdekaan,kampung melayu,kalibata,pinang ranti,kramat jati,bambu kuning,kampus borobudur,komopleks duta harapan indah,rawa buaya</t>
+          <t>rorotan,pinang ranti,kramat jati,komopleks duta harapan indah,kampus borobudur,kelurahan gedong,jln. daan mogot,komplek ikpn,jl. perintis kemerdekaan,manggarai selatan,halim,bambu kuning,kampung melayu,kalibata,cawang,rawa buaya,perumahan setneg,tol jatinegara</t>
         </is>
       </c>
     </row>
@@ -7541,7 +7537,7 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>kotabaru</t>
+          <t>baru</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
@@ -7627,7 +7623,7 @@
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>cipanas,sajira</t>
+          <t>sajira,cipanas</t>
         </is>
       </c>
     </row>
@@ -7681,7 +7677,7 @@
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>lebakwangi,cikande,kibin,binuang,ciruas,carenang,kragilan,tirtayasa,pontang</t>
+          <t>tirtayasa,carenang,cikande,binuang,lebakwangi,pontang,ciruas,kragilan,kibin</t>
         </is>
       </c>
     </row>
@@ -7708,7 +7704,7 @@
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>cibadak,rangkasbitung</t>
+          <t>rangkasbitung,cibadak</t>
         </is>
       </c>
     </row>
@@ -7735,7 +7731,7 @@
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>pinang,sajira,karangtengah</t>
+          <t>pinang,karangtengah,sajira</t>
         </is>
       </c>
     </row>
@@ -7826,7 +7822,7 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>pangkajene kepulauan,soppeng,jeneponto,maros,barru,gowa,takalar,bantaeng,wajo,selayar,makassar</t>
+          <t>gowa,jeneponto,bantaeng,selayar,barru,maros,makassar,soppeng,pangkajene kepulauan,wajo,takalar</t>
         </is>
       </c>
       <c r="E283" t="inlineStr"/>
@@ -7849,7 +7845,7 @@
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>kota tangerang</t>
+          <t>tangerang</t>
         </is>
       </c>
       <c r="E284" t="inlineStr"/>
@@ -7967,12 +7963,12 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat,banten</t>
+          <t>jawa barat,banten,jakarta</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>jakarta selatan,kota bekasi,tangerang selatan,jakarta timur,kabupaten bogor,kota tangerang,bandung barat,kabupaten bekasi</t>
+          <t>bekasi,bogor,jakarta selatan,tangerang,bandung barat,jakarta timur,tangerang selatan</t>
         </is>
       </c>
       <c r="E289" t="inlineStr">
@@ -7999,7 +7995,7 @@
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>kota bengkulu,rejang lebong,bengkulu utara,kepahian,bengkulu selaetan,bengkulu tengah,lebong,bengkulu selatan,kaur</t>
+          <t>bengkulu selatan,bengkulu,rejang lebong,kaur,lebong,bengkulu selaetan,bengkulu utara,kepahian,bengkulu tengah</t>
         </is>
       </c>
       <c r="E290" t="inlineStr"/>
@@ -8054,7 +8050,7 @@
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>garut kota,tarogong kidul</t>
+          <t>tarogong kidul,garut kota</t>
         </is>
       </c>
     </row>
@@ -8103,12 +8099,12 @@
       </c>
       <c r="D294" t="inlineStr">
         <is>
-          <t>bangka barat,bangka tengah</t>
+          <t>bangka tengah,bangka barat</t>
         </is>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>mentok,koba</t>
+          <t>koba,mentok</t>
         </is>
       </c>
     </row>
@@ -8180,7 +8176,7 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>kota bengkulu</t>
+          <t>bengkulu</t>
         </is>
       </c>
       <c r="E297" t="inlineStr"/>
@@ -8203,7 +8199,7 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>bengkulu tengah,kota bengkulu</t>
+          <t>bengkulu,bengkulu tengah</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
@@ -8235,7 +8231,7 @@
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>maje,tetap</t>
+          <t>tetap,maje</t>
         </is>
       </c>
     </row>
@@ -8257,7 +8253,7 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>kota bengkulu</t>
+          <t>bengkulu</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
@@ -8284,7 +8280,7 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>jakarta selatan,jakarta barat</t>
+          <t>jakarta barat,jakarta selatan</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
@@ -8465,7 +8461,7 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>kota bengkulu</t>
+          <t>bengkulu</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
@@ -8492,7 +8488,7 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
@@ -8542,7 +8538,7 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
@@ -8650,7 +8646,7 @@
       </c>
       <c r="D315" t="inlineStr">
         <is>
-          <t>kabupaten gorontalo,bone bolango,boalemo,pohuwato,kota gorontalo</t>
+          <t>pohuwato,bone bolango,gorontalo,boalemo</t>
         </is>
       </c>
       <c r="E315" t="inlineStr"/>
@@ -8727,12 +8723,12 @@
       </c>
       <c r="D318" t="inlineStr">
         <is>
-          <t>kota gorontalo</t>
+          <t>gorontalo</t>
         </is>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>hulonthalangi,kota timur,dumbo raya,dungingi,sipatana,kota barat,kota selatan</t>
+          <t>kota barat,sipatana,hulonthalangi,kota selatan,dumbo raya,kota timur,dungingi</t>
         </is>
       </c>
     </row>
@@ -8759,7 +8755,7 @@
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>wonosari,paguyaman</t>
+          <t>paguyaman,wonosari</t>
         </is>
       </c>
     </row>
@@ -8885,7 +8881,7 @@
       </c>
       <c r="D324" t="inlineStr">
         <is>
-          <t>kota tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E324" t="inlineStr"/>
@@ -8953,7 +8949,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat</t>
+          <t>jawa barat,jakarta</t>
         </is>
       </c>
       <c r="D327" t="inlineStr"/>
@@ -8977,12 +8973,12 @@
       </c>
       <c r="D328" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E328" t="inlineStr">
         <is>
-          <t>baleendah,dayeuhkolot</t>
+          <t>dayeuhkolot,baleendah</t>
         </is>
       </c>
     </row>
@@ -9004,12 +9000,12 @@
       </c>
       <c r="D329" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>ciemas,jampang tengah,cisolok,waluran</t>
+          <t>waluran,ciemas,cisolok,jampang tengah</t>
         </is>
       </c>
     </row>
@@ -9031,7 +9027,7 @@
       </c>
       <c r="D330" t="inlineStr">
         <is>
-          <t>kabupaten tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E330" t="inlineStr">
@@ -9072,12 +9068,12 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat</t>
+          <t>jawa barat,jakarta</t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
         <is>
-          <t>kota bekasi,jakarta timur</t>
+          <t>jakarta timur,bekasi</t>
         </is>
       </c>
       <c r="E332" t="inlineStr">
@@ -9104,7 +9100,7 @@
       </c>
       <c r="D333" t="inlineStr">
         <is>
-          <t>kota bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E333" t="inlineStr"/>
@@ -9146,7 +9142,7 @@
       </c>
       <c r="D335" t="inlineStr">
         <is>
-          <t>kabupaten sumedang</t>
+          <t>sumedang</t>
         </is>
       </c>
       <c r="E335" t="inlineStr">
@@ -9173,7 +9169,7 @@
       </c>
       <c r="D336" t="inlineStr">
         <is>
-          <t>kota bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E336" t="inlineStr">
@@ -9200,7 +9196,7 @@
       </c>
       <c r="D337" t="inlineStr">
         <is>
-          <t>jakarta selatan,jakarta timur</t>
+          <t>jakarta timur,jakarta selatan</t>
         </is>
       </c>
       <c r="E337" t="inlineStr">
@@ -9254,12 +9250,12 @@
       </c>
       <c r="D339" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>ciparay,dayeuhkolot,banjaran,baleendah,bojongsoang</t>
+          <t>dayeuhkolot,banjaran,baleendah,bojongsoang,ciparay</t>
         </is>
       </c>
     </row>
@@ -9276,12 +9272,12 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat</t>
+          <t>jawa barat,jakarta</t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
         <is>
-          <t>bogor,tangerang,bekasi,depok</t>
+          <t>tangerang,bekasi,depok,bogor</t>
         </is>
       </c>
       <c r="E340" t="inlineStr"/>
@@ -9304,7 +9300,7 @@
       </c>
       <c r="D341" t="inlineStr">
         <is>
-          <t>kabupaten tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E341" t="inlineStr">
@@ -9358,12 +9354,12 @@
       </c>
       <c r="D343" t="inlineStr">
         <is>
-          <t>kabupaten bandung,kota bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>baleendah,andir</t>
+          <t>andir,baleendah</t>
         </is>
       </c>
     </row>
@@ -9407,12 +9403,12 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat,banten</t>
+          <t>jawa barat,banten,jakarta</t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
         <is>
-          <t>lebak,kabupaten bogor</t>
+          <t>lebak,bogor</t>
         </is>
       </c>
       <c r="E345" t="inlineStr"/>
@@ -9435,12 +9431,12 @@
       </c>
       <c r="D346" t="inlineStr">
         <is>
-          <t>kabupaten tangerang</t>
+          <t>tangerang</t>
         </is>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>pagedangan,legok,kelapa dua</t>
+          <t>pagedangan,kelapa dua,legok</t>
         </is>
       </c>
     </row>
@@ -9516,7 +9512,7 @@
       </c>
       <c r="D349" t="inlineStr">
         <is>
-          <t>kota tangerang</t>
+          <t>tangerang</t>
         </is>
       </c>
       <c r="E349" t="inlineStr"/>
@@ -9585,7 +9581,7 @@
       </c>
       <c r="D352" t="inlineStr">
         <is>
-          <t>jakarta selatan,jakarta pusat,jakarta barat,jakarta timur</t>
+          <t>jakarta barat,jakarta timur,jakarta selatan,jakarta pusat</t>
         </is>
       </c>
       <c r="E352" t="inlineStr"/>
@@ -9662,7 +9658,7 @@
       </c>
       <c r="D355" t="inlineStr">
         <is>
-          <t>kota tangerang</t>
+          <t>tangerang</t>
         </is>
       </c>
       <c r="E355" t="inlineStr">
@@ -9721,7 +9717,7 @@
       </c>
       <c r="E357" t="inlineStr">
         <is>
-          <t>grogol,cengkareng,jatinegara</t>
+          <t>jatinegara,cengkareng,grogol</t>
         </is>
       </c>
     </row>
@@ -9847,12 +9843,12 @@
       </c>
       <c r="D362" t="inlineStr">
         <is>
-          <t>jakarta utara,jakarta pusat,jakarta timur</t>
+          <t>jakarta timur,jakarta pusat,jakarta utara</t>
         </is>
       </c>
       <c r="E362" t="inlineStr">
         <is>
-          <t>tanjung priok,pulo gadung,cakung,jatinegara,kemayoran,kelapa gading</t>
+          <t>kelapa gading,jatinegara,kemayoran,pulo gadung,cakung,tanjung priok</t>
         </is>
       </c>
     </row>
@@ -9896,7 +9892,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat,banten</t>
+          <t>jawa barat,banten,jakarta</t>
         </is>
       </c>
       <c r="D364" t="inlineStr"/>
@@ -9947,7 +9943,7 @@
       </c>
       <c r="D366" t="inlineStr">
         <is>
-          <t>kota semarang</t>
+          <t>semarang</t>
         </is>
       </c>
       <c r="E366" t="inlineStr">
@@ -9974,7 +9970,7 @@
       </c>
       <c r="D367" t="inlineStr">
         <is>
-          <t>kota semarang</t>
+          <t>semarang</t>
         </is>
       </c>
       <c r="E367" t="inlineStr"/>
@@ -9997,7 +9993,7 @@
       </c>
       <c r="D368" t="inlineStr">
         <is>
-          <t>kabupaten garut</t>
+          <t>garut</t>
         </is>
       </c>
       <c r="E368" t="inlineStr"/>
@@ -10020,7 +10016,7 @@
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>kabupaten pemalang</t>
+          <t>pemalang</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">
@@ -10074,7 +10070,7 @@
       </c>
       <c r="D371" t="inlineStr">
         <is>
-          <t>kabupaten kediri</t>
+          <t>kediri</t>
         </is>
       </c>
       <c r="E371" t="inlineStr">
@@ -10133,7 +10129,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>panjatan,galur,lendah</t>
+          <t>lendah,panjatan,galur</t>
         </is>
       </c>
     </row>
@@ -10182,7 +10178,7 @@
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>kulon progo,bantul,sleman,yogyakarta</t>
+          <t>sleman,kulon progo,yogyakarta,bantul</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
@@ -10291,7 +10287,7 @@
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>nglipar,ngawen,gedangsari</t>
+          <t>ngawen,nglipar,gedangsari</t>
         </is>
       </c>
     </row>
@@ -10416,12 +10412,12 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>jawa timur,bengkulu,jawa tengah,jawa barat,jakarta</t>
+          <t>bengkulu,jawa barat,jakarta,jawa timur,jawa tengah</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>jakarta selatan,wonogiri,sukabumi,kota bandung,jakarta timur,kabupaten bandung,karawang,jakarta barat,klaten,sampang,trenggalek,lebong,sumedang,gresik</t>
+          <t>jakarta barat,klaten,sukabumi,gresik,sampang,jakarta selatan,karawang,trenggalek,bandung,lebong,sumedang,jakarta timur,wonogiri</t>
         </is>
       </c>
       <c r="E384" t="inlineStr"/>
@@ -10449,7 +10445,7 @@
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>nanga pinoh,pinoh utara,ella hilir,menukung</t>
+          <t>pinoh utara,ella hilir,nanga pinoh,menukung</t>
         </is>
       </c>
     </row>
@@ -10476,7 +10472,7 @@
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>tanah pinoh,sayan,sokan,menukung</t>
+          <t>sayan,tanah pinoh,menukung,sokan</t>
         </is>
       </c>
     </row>
@@ -10575,12 +10571,12 @@
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>kotawaringin timur</t>
+          <t>waringin timur</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>tualan hulu,parenggean,bukit santuai,kota besi,mentaya hulu</t>
+          <t>bukit santuai,parenggean,tualan hulu,mentaya hulu,kota besi</t>
         </is>
       </c>
     </row>
@@ -10634,7 +10630,7 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>pasak telawang,kapuas tengah,mandau telawang</t>
+          <t>pasak telawang,mandau telawang,kapuas tengah</t>
         </is>
       </c>
     </row>
@@ -10764,7 +10760,7 @@
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>kotawaringin timur</t>
+          <t>waringin timur</t>
         </is>
       </c>
       <c r="E397" t="inlineStr"/>
@@ -10809,12 +10805,12 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat,banten</t>
+          <t>jawa barat,banten,jakarta</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>depok,bekasi,bogor,lebak,tangerang</t>
+          <t>bekasi,bogor,lebak,depok,tangerang</t>
         </is>
       </c>
       <c r="E399" t="inlineStr"/>
@@ -11208,7 +11204,7 @@
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>sambutan,samarinda utara</t>
+          <t>samarinda utara,sambutan</t>
         </is>
       </c>
     </row>
@@ -11230,7 +11226,7 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>kabupaten jayapura</t>
+          <t>jayapura</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
@@ -11262,7 +11258,7 @@
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>lumbis ogong,sembakung atulai,lumbis,sembakung</t>
+          <t>sembakung atulai,sembakung,lumbis,lumbis ogong</t>
         </is>
       </c>
     </row>
@@ -11306,12 +11302,12 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat</t>
+          <t>jawa barat,jakarta</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>bekasi,bogor</t>
+          <t>bogor,bekasi</t>
         </is>
       </c>
       <c r="E418" t="inlineStr"/>
@@ -11334,7 +11330,7 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>kabupaten kupang</t>
+          <t>kupang</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
@@ -11388,7 +11384,7 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>jakarta selatan,jakarta barat</t>
+          <t>jakarta barat,jakarta selatan</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
@@ -11523,7 +11519,7 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>kabupaten mojokerto</t>
+          <t>mojokerto</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
@@ -11550,12 +11546,12 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>kediri,lamongan,bojonegoro,kabupaten madiun,kabupaten ngawi,kabupaten nganjuk,probolinggo,blitar,pacitan,kabupaten magetan,ponorogo,trenggalek,gresik,kabupaten sidoarjo,tuban</t>
+          <t>gresik,nganjuk,ponorogo,probolinggo,kediri,pacitan,trenggalek,sidoarjo,bojonegoro,tuban,blitar,lamongan,magetan,madiun,ngawi</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>berbek,parengan,gurah,arjosari,tonggas,balong,kedamean,kartoharjo</t>
+          <t>arjosari,kedamean,kartoharjo,tonggas,balong,berbek,parengan,gurah</t>
         </is>
       </c>
     </row>
@@ -11599,12 +11595,12 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat,banten</t>
+          <t>jawa barat,banten,jakarta</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>kota bekasi,jakarta timur,depok,jakarta barat,kabupaten bogor,kota tangerang,kota bogor,jakarta pusat,kabupaten bekasi</t>
+          <t>jakarta barat,bekasi,bogor,depok,tangerang,jakarta timur,jakarta pusat</t>
         </is>
       </c>
       <c r="E429" t="inlineStr"/>
@@ -11627,7 +11623,7 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>kabupaten bangka</t>
+          <t>bangka</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
@@ -11654,7 +11650,7 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>kota ambon</t>
+          <t>ambon</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
@@ -11681,7 +11677,7 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>kabupaten pulau morotai</t>
+          <t>pulau morotai</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
@@ -11727,7 +11723,7 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>kabupaten pulau morotai</t>
+          <t>pulau morotai</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
@@ -11754,7 +11750,7 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>kabupaten pulau morotai</t>
+          <t>pulau morotai</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
@@ -11935,7 +11931,7 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>limapuluh kota</t>
+          <t>limapuluh</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
@@ -12039,12 +12035,12 @@
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>kabupaten gresik</t>
+          <t>gresik</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>dukun,manyar,bungah</t>
+          <t>manyar,dukun,bungah</t>
         </is>
       </c>
     </row>
@@ -12071,7 +12067,7 @@
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>samarinda ulu,samarinda utara,sungai pinang,samarinda ilir</t>
+          <t>samarinda ulu,samarinda ilir,samarinda utara,sungai pinang</t>
         </is>
       </c>
     </row>
@@ -12093,7 +12089,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>kabupaten jayapura</t>
+          <t>jayapura</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -12162,7 +12158,7 @@
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>kabupaten tapanuli</t>
+          <t>tapanuli</t>
         </is>
       </c>
       <c r="E451" t="inlineStr"/>
@@ -12212,7 +12208,7 @@
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>kabupaten polewali mandar</t>
+          <t>polewali mandar</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
@@ -12239,7 +12235,7 @@
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>kabupaten lahat</t>
+          <t>lahat</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
@@ -12261,17 +12257,17 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat,banten</t>
+          <t>jawa barat,banten,jakarta</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>purwakarta,tangerang selatan,jakarta timur,bekasi,karawang,jakarta barat,kabupaten bogor,kabupaten tangerang,jakarta utara</t>
+          <t>jakarta barat,purwakarta,bekasi,bogor,karawang,tangerang,jakarta timur,tangerang selatan,jakarta utara</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>cikupa,pulo gadung,gunung putri,pondok gede,kebon jeruk,cengkareng,kramat jati,null,teluknaga</t>
+          <t>gunung putri,cengkareng,kramat jati,kebon jeruk,pondok gede,cikupa,teluknaga,pulo gadung</t>
         </is>
       </c>
     </row>
@@ -12293,12 +12289,12 @@
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>lombok tengah,lombok barat</t>
+          <t>lombok barat,lombok tengah</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>sekotong,praya timur,pujut</t>
+          <t>pujut,sekotong,praya timur</t>
         </is>
       </c>
     </row>
@@ -12348,7 +12344,7 @@
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>monta,langgudu</t>
+          <t>langgudu,monta</t>
         </is>
       </c>
     </row>
@@ -12370,12 +12366,12 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>kabupaten lahat</t>
+          <t>lahat</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>gumay talang,pulau pinang,lahat,pagar gunung,kikim timur</t>
+          <t>pagar gunung,pulau pinang,lahat,gumay talang,kikim timur</t>
         </is>
       </c>
     </row>
@@ -12474,7 +12470,7 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>kabupaten jayapura</t>
+          <t>jayapura</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
@@ -12528,7 +12524,7 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>kabupaten jayapura</t>
+          <t>jayapura</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
@@ -12555,7 +12551,7 @@
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>kabupaten jayapura</t>
+          <t>jayapura</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
@@ -12582,7 +12578,7 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>kabupaten jayapura</t>
+          <t>jayapura</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
@@ -12609,7 +12605,7 @@
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>kabupaten jayapura</t>
+          <t>jayapura</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
@@ -12636,7 +12632,7 @@
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>kabupaten jayapura</t>
+          <t>jayapura</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
@@ -12663,7 +12659,7 @@
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>kabupaten manokwari</t>
+          <t>manokwari</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
@@ -12690,7 +12686,7 @@
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>kota sorong</t>
+          <t>sorong</t>
         </is>
       </c>
       <c r="E471" t="inlineStr"/>
@@ -12713,7 +12709,7 @@
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>kabupaten teluk bintuni</t>
+          <t>teluk bintuni</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
@@ -12740,7 +12736,7 @@
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>kabupaten manokwari</t>
+          <t>manokwari</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
@@ -12848,12 +12844,12 @@
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>kabupaten kapuas hulu</t>
+          <t>kapuas hulu</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>bunut hilir,bika,selimbau,silat hilir,suhaid,kalis,embaloh hulu,semitau,embaloh hilir,jongkong</t>
+          <t>embaloh hulu,semitau,bunut hilir,selimbau,jongkong,silat hilir,embaloh hilir,suhaid,bika,kalis</t>
         </is>
       </c>
     </row>
@@ -12875,7 +12871,7 @@
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>kabupaten landak</t>
+          <t>landak</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
@@ -12902,7 +12898,7 @@
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>kabupaten kapuas hulu</t>
+          <t>kapuas hulu</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
@@ -12929,7 +12925,7 @@
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>kabupaten kayong utara</t>
+          <t>kayong utara</t>
         </is>
       </c>
       <c r="E480" t="inlineStr"/>
@@ -12998,7 +12994,7 @@
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>kabupaten landak</t>
+          <t>landak</t>
         </is>
       </c>
       <c r="E483" t="inlineStr"/>
@@ -13021,12 +13017,12 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>kabupaten maros</t>
+          <t>maros</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>simbang,maros baru,moncongloe,mallawa,lau,marusu,turikale,bontoa,bantimurung,camba</t>
+          <t>lau,moncongloe,mallawa,camba,marusu,maros baru,bantimurung,bontoa,simbang,turikale</t>
         </is>
       </c>
     </row>
@@ -13098,12 +13094,12 @@
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>bondowoso,kabupaten jember</t>
+          <t>bondowoso,jember</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>ijen,sukorambi</t>
+          <t>sukorambi,ijen</t>
         </is>
       </c>
     </row>
@@ -13125,7 +13121,7 @@
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>kota makassar,soppeng,pangkajene dan kepulauan,jeneponto,sidenreng rappang,sinjai,maros,barru,gowa,takalar,bantaeng,wajo</t>
+          <t>gowa,jeneponto,pangkajene dan kepulauan,bantaeng,sinjai,barru,maros,makassar,sidenreng rappang,soppeng,wajo,takalar</t>
         </is>
       </c>
       <c r="E488" t="inlineStr"/>
@@ -13175,7 +13171,7 @@
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>kabupaten mamasa</t>
+          <t>mamasa</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
@@ -13202,7 +13198,7 @@
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>kota mamuju</t>
+          <t>mamuju</t>
         </is>
       </c>
       <c r="E491" t="inlineStr"/>
@@ -13225,7 +13221,7 @@
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>kabupaten mamuju</t>
+          <t>mamuju</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
@@ -13252,7 +13248,7 @@
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>kabupaten mamuju</t>
+          <t>mamuju</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
@@ -13279,7 +13275,7 @@
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>kabupaten mamuju</t>
+          <t>mamuju</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
@@ -13306,7 +13302,7 @@
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>kabupaten mamuju</t>
+          <t>mamuju</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
@@ -13333,7 +13329,7 @@
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>kabupaten mateng</t>
+          <t>mateng</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
@@ -13387,12 +13383,12 @@
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>kabupaten gowa</t>
+          <t>gowa</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>pattallasang,barombong,bontomarannu,pallangga</t>
+          <t>barombong,bontomarannu,pattallasang,pallangga</t>
         </is>
       </c>
     </row>
@@ -13414,7 +13410,7 @@
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>kota parepare</t>
+          <t>parepare</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
@@ -13441,7 +13437,7 @@
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>soppeng,sidenreng rappang,parepare,barru,pinrang</t>
+          <t>barru,sidenreng rappang,soppeng,pinrang,parepare</t>
         </is>
       </c>
       <c r="E500" t="inlineStr"/>
@@ -13487,7 +13483,7 @@
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>kabupaten kepulauan sangihe</t>
+          <t>kepulauan sangihe</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
@@ -13514,7 +13510,7 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>jakarta utara,jakarta selatan,jakarta barat,jakarta timur</t>
+          <t>jakarta barat,jakarta timur,jakarta selatan,jakarta utara</t>
         </is>
       </c>
       <c r="E503" t="inlineStr"/>
@@ -13596,7 +13592,7 @@
       </c>
       <c r="E506" t="inlineStr">
         <is>
-          <t>bungku utara,mamosalato</t>
+          <t>mamosalato,bungku utara</t>
         </is>
       </c>
     </row>
@@ -13645,7 +13641,7 @@
       </c>
       <c r="D508" t="inlineStr">
         <is>
-          <t>konawe utara,konawe</t>
+          <t>konawe,konawe utara</t>
         </is>
       </c>
       <c r="E508" t="inlineStr"/>
@@ -13749,7 +13745,7 @@
       </c>
       <c r="D512" t="inlineStr">
         <is>
-          <t>kabupaten sigi</t>
+          <t>sigi</t>
         </is>
       </c>
       <c r="E512" t="inlineStr">
@@ -13781,7 +13777,7 @@
       </c>
       <c r="E513" t="inlineStr">
         <is>
-          <t>galang,baolan</t>
+          <t>baolan,galang</t>
         </is>
       </c>
     </row>
@@ -13830,7 +13826,7 @@
       </c>
       <c r="D515" t="inlineStr">
         <is>
-          <t>kota kendari</t>
+          <t>kendari</t>
         </is>
       </c>
       <c r="E515" t="inlineStr">
@@ -13889,7 +13885,7 @@
       </c>
       <c r="E517" t="inlineStr">
         <is>
-          <t>anggalomoare,morosi,amonggedo,sampara</t>
+          <t>sampara,amonggedo,morosi,anggalomoare</t>
         </is>
       </c>
     </row>
@@ -13916,7 +13912,7 @@
       </c>
       <c r="E518" t="inlineStr">
         <is>
-          <t>dangia,poli-polia,ladongi,lambandia</t>
+          <t>dangia,lambandia,poli-polia,ladongi</t>
         </is>
       </c>
     </row>
@@ -14061,7 +14057,7 @@
       </c>
       <c r="D524" t="inlineStr">
         <is>
-          <t>dharmasraya,solok selatan</t>
+          <t>solok selatan,dharmasraya</t>
         </is>
       </c>
       <c r="E524" t="inlineStr"/>
@@ -14089,7 +14085,7 @@
       </c>
       <c r="E525" t="inlineStr">
         <is>
-          <t>padang selatan,kota tangah</t>
+          <t>kota tangah,padang selatan</t>
         </is>
       </c>
     </row>
@@ -14111,12 +14107,12 @@
       </c>
       <c r="D526" t="inlineStr">
         <is>
-          <t>lima puluh kota</t>
+          <t>lima puluh</t>
         </is>
       </c>
       <c r="E526" t="inlineStr">
         <is>
-          <t>guguak,mungka,pangkalan koto baru,arau</t>
+          <t>pangkalan koto baru,mungka,arau,guguak</t>
         </is>
       </c>
     </row>
@@ -14143,7 +14139,7 @@
       </c>
       <c r="E527" t="inlineStr">
         <is>
-          <t>pauah duo,sungai pagu,sangir batanghari,sangir jujuan</t>
+          <t>sangir jujuan,sungai pagu,pauah duo,sangir batanghari</t>
         </is>
       </c>
     </row>
@@ -14224,7 +14220,7 @@
       </c>
       <c r="E530" t="inlineStr">
         <is>
-          <t>tanjung gadang,kamang baru</t>
+          <t>kamang baru,tanjung gadang</t>
         </is>
       </c>
     </row>
@@ -14251,7 +14247,7 @@
       </c>
       <c r="E531" t="inlineStr">
         <is>
-          <t>koto parik gadang,sangir batang hari,sungai pagu</t>
+          <t>sangir batang hari,sungai pagu,koto parik gadang</t>
         </is>
       </c>
     </row>
@@ -14273,7 +14269,7 @@
       </c>
       <c r="D532" t="inlineStr">
         <is>
-          <t>dharmasraya   timpeh,dharmasraya   koto besar,dharmasraya   pulau punjung</t>
+          <t>dharmasraya   pulau punjung,dharmasraya   koto besar,dharmasraya   timpeh</t>
         </is>
       </c>
       <c r="E532" t="inlineStr"/>
@@ -14373,7 +14369,7 @@
       </c>
       <c r="D536" t="inlineStr">
         <is>
-          <t>kabupaten solok</t>
+          <t>solok</t>
         </is>
       </c>
       <c r="E536" t="inlineStr">
@@ -14400,7 +14396,7 @@
       </c>
       <c r="D537" t="inlineStr">
         <is>
-          <t>limapuluh kota</t>
+          <t>limapuluh</t>
         </is>
       </c>
       <c r="E537" t="inlineStr">
@@ -14427,12 +14423,12 @@
       </c>
       <c r="D538" t="inlineStr">
         <is>
-          <t>kota solok,solok selatan,limapuluh kota,kabupaten solok,agam</t>
+          <t>solok,solok selatan,limapuluh,agam</t>
         </is>
       </c>
       <c r="E538" t="inlineStr">
         <is>
-          <t>pauh duo,tanjung harapan kelurahan koto panjang,sungai pagu,sangir</t>
+          <t>sangir,tanjung harapan kelurahan koto panjang,pauh duo,sungai pagu</t>
         </is>
       </c>
     </row>
@@ -14476,17 +14472,17 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t>jakarta,jawa barat,banten</t>
+          <t>jawa barat,banten,jakarta</t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
         <is>
-          <t>kota bekasi,jakarta timur,kota tangerang selatan,jakarta barat,kabupaten bogor,kota depok,kota tangerang,kota bogor,jakarta pusat</t>
+          <t>jakarta barat,bekasi,bogor,depok,tangerang,jakarta timur,tangerang selatan,jakarta pusat</t>
         </is>
       </c>
       <c r="E540" t="inlineStr">
         <is>
-          <t>cinere,duren sawit,rawa lumbu,tanah sereal,kramat jati,palmerah,kemayoran</t>
+          <t>palmerah,tanah sereal,duren sawit,kramat jati,rawa lumbu,kemayoran,cinere</t>
         </is>
       </c>
     </row>
@@ -14562,7 +14558,7 @@
       </c>
       <c r="D543" t="inlineStr">
         <is>
-          <t>limapuluh kota</t>
+          <t>limapuluh</t>
         </is>
       </c>
       <c r="E543" t="inlineStr">
@@ -14589,7 +14585,7 @@
       </c>
       <c r="D544" t="inlineStr">
         <is>
-          <t>kabupaten jayapura</t>
+          <t>jayapura</t>
         </is>
       </c>
       <c r="E544" t="inlineStr">
@@ -14643,7 +14639,7 @@
       </c>
       <c r="D546" t="inlineStr">
         <is>
-          <t>kabupaten lahat</t>
+          <t>lahat</t>
         </is>
       </c>
       <c r="E546" t="inlineStr">
@@ -14693,7 +14689,7 @@
       </c>
       <c r="D548" t="inlineStr">
         <is>
-          <t>kota palembang</t>
+          <t>palembang</t>
         </is>
       </c>
       <c r="E548" t="inlineStr">
@@ -14720,12 +14716,12 @@
       </c>
       <c r="D549" t="inlineStr">
         <is>
-          <t>kabupaten lebak</t>
+          <t>lebak</t>
         </is>
       </c>
       <c r="E549" t="inlineStr">
         <is>
-          <t>cipanas,muncang</t>
+          <t>muncang,cipanas</t>
         </is>
       </c>
     </row>
@@ -14747,7 +14743,7 @@
       </c>
       <c r="D550" t="inlineStr">
         <is>
-          <t>kabupaten mojokerto,kota mojokerto</t>
+          <t>mojokerto</t>
         </is>
       </c>
       <c r="E550" t="inlineStr">
@@ -14774,7 +14770,7 @@
       </c>
       <c r="D551" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E551" t="inlineStr">
@@ -14855,7 +14851,7 @@
       </c>
       <c r="D554" t="inlineStr">
         <is>
-          <t>kabupaten situbondo</t>
+          <t>situbondo</t>
         </is>
       </c>
       <c r="E554" t="inlineStr">
@@ -14933,7 +14929,7 @@
       </c>
       <c r="E557" t="inlineStr">
         <is>
-          <t>bangil,kraton</t>
+          <t>kraton,bangil</t>
         </is>
       </c>
     </row>
@@ -14955,12 +14951,12 @@
       </c>
       <c r="D558" t="inlineStr">
         <is>
-          <t>kabupaten mojokerto</t>
+          <t>mojokerto</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>ngoro,bangsal,pungging,mojoanyar,gondang,kutorejo,pacet,trawas</t>
+          <t>gondang,kutorejo,ngoro,trawas,mojoanyar,bangsal,pungging,pacet</t>
         </is>
       </c>
     </row>
@@ -15009,12 +15005,12 @@
       </c>
       <c r="D560" t="inlineStr">
         <is>
-          <t>simeulue,aceh selatan,aceh tenggara</t>
+          <t>simeulue,aceh tenggara,aceh selatan</t>
         </is>
       </c>
       <c r="E560" t="inlineStr">
         <is>
-          <t>trumon tengah,trumon timur,bakongan,trumon induk</t>
+          <t>trumon induk,trumon tengah,bakongan,trumon timur</t>
         </is>
       </c>
     </row>
@@ -15090,12 +15086,12 @@
       </c>
       <c r="D563" t="inlineStr">
         <is>
-          <t>kabupaten magelang</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="E563" t="inlineStr">
         <is>
-          <t>mungkid,sawangan,tempuran,borobudur,muntilan,salaman</t>
+          <t>mungkid,borobudur,muntilan,tempuran,salaman,sawangan</t>
         </is>
       </c>
     </row>
@@ -15214,7 +15210,7 @@
       </c>
       <c r="E568" t="inlineStr">
         <is>
-          <t>melaya,pakutatan,jembrana,mendoyo</t>
+          <t>jembrana,pakutatan,mendoyo,melaya</t>
         </is>
       </c>
     </row>
@@ -15263,12 +15259,12 @@
       </c>
       <c r="D570" t="inlineStr">
         <is>
-          <t>klungkung,denpasar,badung</t>
+          <t>badung,klungkung,denpasar</t>
         </is>
       </c>
       <c r="E570" t="inlineStr">
         <is>
-          <t>klungkung,kuta utara</t>
+          <t>kuta utara,klungkung</t>
         </is>
       </c>
     </row>
@@ -15344,7 +15340,7 @@
       </c>
       <c r="D573" t="inlineStr">
         <is>
-          <t>klungkung,denpasar,badung,tabanan,karangasem,gianyar</t>
+          <t>badung,karangasem,denpasar,tabanan,klungkung,gianyar</t>
         </is>
       </c>
       <c r="E573" t="inlineStr">
@@ -15370,11 +15366,7 @@
         </is>
       </c>
       <c r="D574" t="inlineStr"/>
-      <c r="E574" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E574" t="inlineStr"/>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
@@ -15394,7 +15386,7 @@
       </c>
       <c r="D575" t="inlineStr">
         <is>
-          <t>kabupaten kediri</t>
+          <t>kediri</t>
         </is>
       </c>
       <c r="E575" t="inlineStr"/>
@@ -15444,7 +15436,7 @@
       </c>
       <c r="D577" t="inlineStr">
         <is>
-          <t>kabupaten karo</t>
+          <t>karo</t>
         </is>
       </c>
       <c r="E577" t="inlineStr"/>
@@ -15640,7 +15632,7 @@
       </c>
       <c r="D585" t="inlineStr">
         <is>
-          <t>kabupaten karo</t>
+          <t>karo</t>
         </is>
       </c>
       <c r="E585" t="inlineStr"/>
@@ -15663,7 +15655,7 @@
       </c>
       <c r="D586" t="inlineStr">
         <is>
-          <t>sleman,klaten</t>
+          <t>klaten,sleman</t>
         </is>
       </c>
       <c r="E586" t="inlineStr">
@@ -15690,7 +15682,7 @@
       </c>
       <c r="D587" t="inlineStr">
         <is>
-          <t>klungkung,karangasem,buleleng,bangli</t>
+          <t>bangli,karangasem,klungkung,buleleng</t>
         </is>
       </c>
       <c r="E587" t="inlineStr"/>
@@ -15713,7 +15705,7 @@
       </c>
       <c r="D588" t="inlineStr">
         <is>
-          <t>denpasar,jembrana,badung,buleleng,tabanan,karangasem,gianyar,bangli</t>
+          <t>badung,karangasem,denpasar,bangli,jembrana,tabanan,gianyar,buleleng</t>
         </is>
       </c>
       <c r="E588" t="inlineStr"/>
@@ -15858,11 +15850,7 @@
           <t>solo</t>
         </is>
       </c>
-      <c r="E594" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E594" t="inlineStr"/>
     </row>
     <row r="595">
       <c r="A595" t="inlineStr">
@@ -15901,7 +15889,7 @@
       </c>
       <c r="D596" t="inlineStr">
         <is>
-          <t>kabupaten magelang</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="E596" t="inlineStr">
@@ -16063,7 +16051,7 @@
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>tiga nderket,simpang empat,naman teran,payung,munthe</t>
+          <t>munthe,simpang empat,payung,tiga nderket,naman teran</t>
         </is>
       </c>
     </row>
@@ -16085,7 +16073,7 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>kabupaten karo</t>
+          <t>karo</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
@@ -16246,12 +16234,12 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>klungkung,karangasem,buleleng,bangli</t>
+          <t>bangli,karangasem,klungkung,buleleng</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>klungkung,banjar,rendang,selat,besakih kedungdung,kintamani,bebandem</t>
+          <t>bebandem,selat,besakih kedungdung,klungkung,kintamani,banjar,rendang</t>
         </is>
       </c>
     </row>
@@ -16350,7 +16338,7 @@
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>boyolali,semarang,yogyakarta</t>
+          <t>yogyakarta,boyolali,semarang</t>
         </is>
       </c>
       <c r="E615" t="inlineStr"/>
@@ -16368,7 +16356,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>jawa timur,bali</t>
+          <t>bali,jawa timur</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -16396,12 +16384,12 @@
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>kabupaten magelang</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>kecamatan dukun,kecamatan sawangan</t>
+          <t>kecamatan sawangan,kecamatan dukun</t>
         </is>
       </c>
     </row>
@@ -16423,7 +16411,7 @@
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>kabupaten kerinci</t>
+          <t>kerinci</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -16473,12 +16461,12 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>magelang,sleman,yogyakarta</t>
+          <t>sleman,yogyakarta,magelang</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>turi,pakem,ngaglik,sleman,depok,godean,tempel,gamping,ngemplak,cangkringan</t>
+          <t>sleman,pakem,godean,cangkringan,turi,tempel,depok,ngemplak,ngaglik,gamping</t>
         </is>
       </c>
     </row>
@@ -16520,7 +16508,7 @@
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>pakem,cangkringan</t>
+          <t>cangkringan,pakem</t>
         </is>
       </c>
     </row>
@@ -16570,7 +16558,7 @@
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>pakem,cangkringan,null</t>
+          <t>cangkringan,pakem</t>
         </is>
       </c>
     </row>
@@ -16619,12 +16607,12 @@
       </c>
       <c r="D626" t="inlineStr">
         <is>
-          <t>boyolali,sleman,klaten</t>
+          <t>klaten,sleman,boyolali</t>
         </is>
       </c>
       <c r="E626" t="inlineStr">
         <is>
-          <t>pakem,cangkringan,kemalang,ngemplak</t>
+          <t>ngemplak,cangkringan,kemalang,pakem</t>
         </is>
       </c>
     </row>
@@ -16830,7 +16818,7 @@
       </c>
       <c r="D635" t="inlineStr">
         <is>
-          <t>kabupaten boyolali</t>
+          <t>boyolali</t>
         </is>
       </c>
       <c r="E635" t="inlineStr"/>
@@ -16853,7 +16841,7 @@
       </c>
       <c r="D636" t="inlineStr">
         <is>
-          <t>kabupaten bandung,bandung barat</t>
+          <t>bandung,bandung barat</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
@@ -16885,7 +16873,7 @@
       </c>
       <c r="E637" t="inlineStr">
         <is>
-          <t>selat,kubu,rendang,bebandem</t>
+          <t>bebandem,selat,rendang,kubu</t>
         </is>
       </c>
     </row>
@@ -16950,7 +16938,7 @@
       </c>
       <c r="E640" t="inlineStr">
         <is>
-          <t>belang,ratahan,silian,tombatu</t>
+          <t>tombatu,ratahan,belang,silian</t>
         </is>
       </c>
     </row>
@@ -16972,12 +16960,12 @@
       </c>
       <c r="D641" t="inlineStr">
         <is>
-          <t>asahan,karo</t>
+          <t>karo,asahan</t>
         </is>
       </c>
       <c r="E641" t="inlineStr">
         <is>
-          <t>tiga nderket,simpang empat,naman teran,payung,munthe</t>
+          <t>munthe,simpang empat,payung,tiga nderket,naman teran</t>
         </is>
       </c>
     </row>
@@ -17061,7 +17049,7 @@
       </c>
       <c r="E645" t="inlineStr">
         <is>
-          <t>sempol,tlogosari</t>
+          <t>tlogosari,sempol</t>
         </is>
       </c>
     </row>
@@ -17083,7 +17071,7 @@
       </c>
       <c r="D646" t="inlineStr">
         <is>
-          <t>kabupaten malang</t>
+          <t>malang</t>
         </is>
       </c>
       <c r="E646" t="inlineStr">
@@ -17110,7 +17098,7 @@
       </c>
       <c r="D647" t="inlineStr">
         <is>
-          <t>kabupaten malang</t>
+          <t>malang</t>
         </is>
       </c>
       <c r="E647" t="inlineStr">
@@ -17183,7 +17171,7 @@
       </c>
       <c r="D650" t="inlineStr">
         <is>
-          <t>manggarai,sabu raijua,kabupaten bima,sumba timur,manggarai barat,sumba tengah</t>
+          <t>sumba timur,sumba tengah,sabu raijua,bima,manggarai,manggarai barat</t>
         </is>
       </c>
       <c r="E650" t="inlineStr"/>
@@ -17228,11 +17216,7 @@
         </is>
       </c>
       <c r="D652" t="inlineStr"/>
-      <c r="E652" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E652" t="inlineStr"/>
     </row>
     <row r="653">
       <c r="A653" t="inlineStr">
@@ -17275,7 +17259,7 @@
       </c>
       <c r="D654" t="inlineStr">
         <is>
-          <t>kabupaten kediri</t>
+          <t>kediri</t>
         </is>
       </c>
       <c r="E654" t="inlineStr"/>
@@ -17321,7 +17305,7 @@
       </c>
       <c r="D656" t="inlineStr">
         <is>
-          <t>kabupaten karo</t>
+          <t>karo</t>
         </is>
       </c>
       <c r="E656" t="inlineStr"/>
@@ -17367,14 +17351,10 @@
       </c>
       <c r="D658" t="inlineStr">
         <is>
-          <t>kabupaten karo</t>
-        </is>
-      </c>
-      <c r="E658" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+          <t>karo</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr"/>
     </row>
     <row r="659">
       <c r="A659" t="inlineStr">
@@ -17463,12 +17443,12 @@
       </c>
       <c r="D662" t="inlineStr">
         <is>
-          <t>boyolali,magelang</t>
+          <t>magelang,boyolali</t>
         </is>
       </c>
       <c r="E662" t="inlineStr">
         <is>
-          <t>mungkid,sawangan,salam,srumbung,muntilan,dukun</t>
+          <t>mungkid,dukun,srumbung,muntilan,sawangan,salam</t>
         </is>
       </c>
     </row>
@@ -17490,7 +17470,7 @@
       </c>
       <c r="D663" t="inlineStr">
         <is>
-          <t>kabupaten magelang</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="E663" t="inlineStr">
@@ -17517,7 +17497,7 @@
       </c>
       <c r="D664" t="inlineStr">
         <is>
-          <t>kabupaten karo</t>
+          <t>karo</t>
         </is>
       </c>
       <c r="E664" t="inlineStr">
@@ -17539,7 +17519,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t>jawa timur,bali</t>
+          <t>bali,jawa timur</t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
@@ -17655,7 +17635,7 @@
       </c>
       <c r="D670" t="inlineStr">
         <is>
-          <t>klungkung,karangasem,gianyar</t>
+          <t>gianyar,karangasem,klungkung</t>
         </is>
       </c>
       <c r="E670" t="inlineStr"/>
@@ -17812,7 +17792,7 @@
       </c>
       <c r="D677" t="inlineStr">
         <is>
-          <t>kabupaten magelang</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="E677" t="inlineStr">
@@ -17844,7 +17824,7 @@
       </c>
       <c r="E678" t="inlineStr">
         <is>
-          <t>selat,kubu,rendang,bebandem</t>
+          <t>selat,bebandem,rendang,kubu</t>
         </is>
       </c>
     </row>
@@ -17866,7 +17846,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>kabupaten banjernegara</t>
+          <t>banjernegara</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -17893,7 +17873,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>kabupaten malang</t>
+          <t>malang</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
@@ -17971,7 +17951,7 @@
       </c>
       <c r="E683" t="inlineStr">
         <is>
-          <t>pulau ternate,ternate barat</t>
+          <t>ternate barat,pulau ternate</t>
         </is>
       </c>
     </row>
@@ -18205,7 +18185,7 @@
       </c>
       <c r="E693" t="inlineStr">
         <is>
-          <t>null,simpang empat</t>
+          <t>simpang empat</t>
         </is>
       </c>
     </row>
@@ -18222,17 +18202,17 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>jawa timur,bali</t>
+          <t>bali,jawa timur</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>kabupaten banyuwangi,null,kabupaten null</t>
+          <t>banyuwangi</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
         <is>
-          <t>genteng,kalipuro,glenmore,sempu,bandara blimbingsari,singojuruh,pesanggrahan,songgon</t>
+          <t>genteng,songgon,glenmore,singojuruh,sempu,kalipuro,pesanggrahan</t>
         </is>
       </c>
     </row>
@@ -18400,7 +18380,7 @@
       </c>
       <c r="D701" t="inlineStr">
         <is>
-          <t>klungkung,denpasar,jembrana,badung,buleleng,tabanan,karangasem,gianyar,bangli</t>
+          <t>badung,karangasem,denpasar,bangli,jembrana,tabanan,klungkung,gianyar,buleleng</t>
         </is>
       </c>
       <c r="E701" t="inlineStr"/>
@@ -18516,7 +18496,7 @@
       </c>
       <c r="E706" t="inlineStr">
         <is>
-          <t>teluk dalam,teupah tengah,teupah barat,teupah selatan,simeulue timur</t>
+          <t>simeulue timur,teupah selatan,teupah tengah,teupah barat,teluk dalam</t>
         </is>
       </c>
     </row>
@@ -18615,7 +18595,7 @@
       </c>
       <c r="D710" t="inlineStr">
         <is>
-          <t>kabupaten donggala,kabupaten parigi moutong,kabupaten sigi,kota palu</t>
+          <t>donggala,parigi moutong,sigi,palu</t>
         </is>
       </c>
       <c r="E710" t="inlineStr"/>
@@ -18638,7 +18618,7 @@
       </c>
       <c r="D711" t="inlineStr">
         <is>
-          <t>sumbawa barat,sumbawa besar,lombok timur,lombok barat,lombok utara</t>
+          <t>lombok timur,sumbawa barat,lombok barat,sumbawa besar,lombok utara</t>
         </is>
       </c>
       <c r="E711" t="inlineStr"/>
@@ -18661,7 +18641,7 @@
       </c>
       <c r="D712" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E712" t="inlineStr"/>
@@ -18684,12 +18664,12 @@
       </c>
       <c r="D713" t="inlineStr">
         <is>
-          <t>bireuen,pidie jaya</t>
+          <t>pidie jaya,bireuen</t>
         </is>
       </c>
       <c r="E713" t="inlineStr">
         <is>
-          <t>samalanga,meureudu</t>
+          <t>meureudu,samalanga</t>
         </is>
       </c>
     </row>
@@ -18734,7 +18714,7 @@
       </c>
       <c r="D715" t="inlineStr">
         <is>
-          <t>bireuen,pidie jaya,sigli</t>
+          <t>pidie jaya,sigli,bireuen</t>
         </is>
       </c>
       <c r="E715" t="inlineStr"/>
@@ -18781,7 +18761,7 @@
       <c r="D717" t="inlineStr"/>
       <c r="E717" t="inlineStr">
         <is>
-          <t>meuraksa barat,paru keude,meunasah balek,meunasah jurong</t>
+          <t>meunasah balek,meunasah jurong,paru keude,meuraksa barat</t>
         </is>
       </c>
     </row>
@@ -18853,12 +18833,12 @@
       </c>
       <c r="D720" t="inlineStr">
         <is>
-          <t>deliserdang,karo</t>
+          <t>karo,deliserdang</t>
         </is>
       </c>
       <c r="E720" t="inlineStr">
         <is>
-          <t>sibolangit,namanteran,merdeka,payung</t>
+          <t>payung,merdeka,sibolangit,namanteran</t>
         </is>
       </c>
     </row>
@@ -18880,7 +18860,7 @@
       </c>
       <c r="D721" t="inlineStr">
         <is>
-          <t>aceh barat,banda aceh</t>
+          <t>banda aceh,aceh barat</t>
         </is>
       </c>
       <c r="E721" t="inlineStr"/>
@@ -18903,7 +18883,7 @@
       </c>
       <c r="D722" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E722" t="inlineStr"/>
@@ -18926,7 +18906,7 @@
       </c>
       <c r="D723" t="inlineStr">
         <is>
-          <t>bireuen,pidie jaya,pidie</t>
+          <t>pidie jaya,pidie,bireuen</t>
         </is>
       </c>
       <c r="E723" t="inlineStr"/>
@@ -18954,7 +18934,7 @@
       </c>
       <c r="E724" t="inlineStr">
         <is>
-          <t>meureudu,trieng gadeng,bandabaru,ulee glee</t>
+          <t>trieng gadeng,meureudu,bandabaru,ulee glee</t>
         </is>
       </c>
     </row>
@@ -19035,7 +19015,7 @@
       </c>
       <c r="E727" t="inlineStr">
         <is>
-          <t>gerokgak,seririt</t>
+          <t>seririt,gerokgak</t>
         </is>
       </c>
     </row>
@@ -19062,7 +19042,7 @@
       </c>
       <c r="E728" t="inlineStr">
         <is>
-          <t>gerokgak,seririt,busungbiu</t>
+          <t>seririt,gerokgak,busungbiu</t>
         </is>
       </c>
     </row>
@@ -19084,7 +19064,7 @@
       </c>
       <c r="D729" t="inlineStr">
         <is>
-          <t>seram bagian barat,ambon</t>
+          <t>ambon,seram bagian barat</t>
         </is>
       </c>
       <c r="E729" t="inlineStr"/>
@@ -19107,7 +19087,7 @@
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>kabupaten tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E730" t="inlineStr"/>
@@ -19135,7 +19115,7 @@
       </c>
       <c r="E731" t="inlineStr">
         <is>
-          <t>trienggadeng,glumpang tiga</t>
+          <t>glumpang tiga,trienggadeng</t>
         </is>
       </c>
     </row>
@@ -19180,7 +19160,7 @@
       </c>
       <c r="D733" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E733" t="inlineStr"/>
@@ -19230,7 +19210,7 @@
       </c>
       <c r="D735" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E735" t="inlineStr"/>
@@ -19253,7 +19233,7 @@
       </c>
       <c r="D736" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E736" t="inlineStr"/>
@@ -19299,12 +19279,12 @@
       </c>
       <c r="D738" t="inlineStr">
         <is>
-          <t>sumbawa barat,lombok timur</t>
+          <t>lombok timur,sumbawa barat</t>
         </is>
       </c>
       <c r="E738" t="inlineStr">
         <is>
-          <t>poto tano,wanasaba,sembalun</t>
+          <t>sembalun,wanasaba,poto tano</t>
         </is>
       </c>
     </row>
@@ -19354,7 +19334,7 @@
       </c>
       <c r="E740" t="inlineStr">
         <is>
-          <t>wanasalam,muncang,bayah,malingping,cikulur,rangkasbitung,lebakgedong</t>
+          <t>bayah,rangkasbitung,cikulur,wanasalam,lebakgedong,muncang,malingping</t>
         </is>
       </c>
     </row>
@@ -19422,12 +19402,12 @@
       </c>
       <c r="D743" t="inlineStr">
         <is>
-          <t>seram bagian barat,maluku tengah</t>
+          <t>maluku tengah,seram bagian barat</t>
         </is>
       </c>
       <c r="E743" t="inlineStr">
         <is>
-          <t>batu kuda tial,desa liang,lembah agro,desa waai,desa waisamu</t>
+          <t>desa waisamu,lembah agro,desa liang,desa waai,batu kuda tial</t>
         </is>
       </c>
     </row>
@@ -19491,7 +19471,7 @@
       </c>
       <c r="D746" t="inlineStr">
         <is>
-          <t>klungkung,denpasar,lombok timur,buleleng,tabanan,lombok utara,mataram,karangasem,gianyar,bangli</t>
+          <t>lombok timur,karangasem,denpasar,mataram,bangli,tabanan,klungkung,gianyar,lombok utara,buleleng</t>
         </is>
       </c>
       <c r="E746" t="inlineStr"/>
@@ -19560,7 +19540,7 @@
       </c>
       <c r="D749" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E749" t="inlineStr"/>
@@ -19625,12 +19605,12 @@
       </c>
       <c r="D752" t="inlineStr">
         <is>
-          <t>kebumen kalipucang,kebumen padaherang</t>
+          <t>kebumen padaherang,kebumen kalipucang</t>
         </is>
       </c>
       <c r="E752" t="inlineStr">
         <is>
-          <t>desa maruyungsari,desa kalipucang</t>
+          <t>desa kalipucang,desa maruyungsari</t>
         </is>
       </c>
     </row>
@@ -19675,7 +19655,7 @@
       </c>
       <c r="D754" t="inlineStr">
         <is>
-          <t>kabupaten sigi</t>
+          <t>sigi</t>
         </is>
       </c>
       <c r="E754" t="inlineStr">
@@ -19702,7 +19682,7 @@
       </c>
       <c r="D755" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E755" t="inlineStr"/>
@@ -19744,7 +19724,7 @@
       </c>
       <c r="D757" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E757" t="inlineStr"/>
@@ -19767,7 +19747,7 @@
       </c>
       <c r="D758" t="inlineStr">
         <is>
-          <t>mamuju,palu,donggala,sigi</t>
+          <t>donggala,sigi,mamuju,palu</t>
         </is>
       </c>
       <c r="E758" t="inlineStr"/>
@@ -19809,7 +19789,7 @@
       </c>
       <c r="D760" t="inlineStr">
         <is>
-          <t>mamuju,palu,donggala,sigi</t>
+          <t>donggala,sigi,mamuju,palu</t>
         </is>
       </c>
       <c r="E760" t="inlineStr"/>
@@ -19859,7 +19839,7 @@
       </c>
       <c r="D762" t="inlineStr">
         <is>
-          <t>sumbawa barat,sumbawa besar,lombok tengah,lombok timur,lombok barat,lombok utara,mataram</t>
+          <t>lombok timur,sumbawa barat,mataram,lombok tengah,lombok barat,sumbawa besar,lombok utara</t>
         </is>
       </c>
       <c r="E762" t="inlineStr"/>
@@ -19989,7 +19969,7 @@
       </c>
       <c r="D768" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E768" t="inlineStr"/>
@@ -20012,7 +19992,7 @@
       </c>
       <c r="D769" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E769" t="inlineStr"/>
@@ -20035,7 +20015,7 @@
       </c>
       <c r="D770" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E770" t="inlineStr"/>
@@ -20058,7 +20038,7 @@
       </c>
       <c r="D771" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E771" t="inlineStr"/>
@@ -20081,7 +20061,7 @@
       </c>
       <c r="D772" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E772" t="inlineStr"/>
@@ -20104,12 +20084,12 @@
       </c>
       <c r="D773" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E773" t="inlineStr">
         <is>
-          <t>parakansalak,kalapanunggal,cikidang</t>
+          <t>kalapanunggal,cikidang,parakansalak</t>
         </is>
       </c>
     </row>
@@ -20131,7 +20111,7 @@
       </c>
       <c r="D774" t="inlineStr">
         <is>
-          <t>kabupaten tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E774" t="inlineStr">
@@ -20158,7 +20138,7 @@
       </c>
       <c r="D775" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E775" t="inlineStr"/>
@@ -20181,7 +20161,7 @@
       </c>
       <c r="D776" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E776" t="inlineStr">
@@ -20208,12 +20188,12 @@
       </c>
       <c r="D777" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E777" t="inlineStr">
         <is>
-          <t>parakansalah,kabandungan,kalapanunggal,cidahu</t>
+          <t>cidahu,kalapanunggal,parakansalah,kabandungan</t>
         </is>
       </c>
     </row>
@@ -20235,7 +20215,7 @@
       </c>
       <c r="D778" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E778" t="inlineStr">
@@ -20262,7 +20242,7 @@
       </c>
       <c r="D779" t="inlineStr">
         <is>
-          <t>kabupaten garut,tasikmalaya</t>
+          <t>garut,tasikmalaya</t>
         </is>
       </c>
       <c r="E779" t="inlineStr">
@@ -20289,7 +20269,7 @@
       </c>
       <c r="D780" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E780" t="inlineStr">
@@ -20316,7 +20296,7 @@
       </c>
       <c r="D781" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E781" t="inlineStr">
@@ -20343,7 +20323,7 @@
       </c>
       <c r="D782" t="inlineStr">
         <is>
-          <t>kabupaten ciamis</t>
+          <t>ciamis</t>
         </is>
       </c>
       <c r="E782" t="inlineStr">
@@ -20370,7 +20350,7 @@
       </c>
       <c r="D783" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E783" t="inlineStr"/>
@@ -20393,7 +20373,7 @@
       </c>
       <c r="D784" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E784" t="inlineStr"/>
@@ -20416,7 +20396,7 @@
       </c>
       <c r="D785" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi,parigi moutong</t>
+          <t>donggala,parigi moutong,sigi,palu</t>
         </is>
       </c>
       <c r="E785" t="inlineStr">
@@ -20443,7 +20423,7 @@
       </c>
       <c r="D786" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi,parigi moutong</t>
+          <t>donggala,parigi moutong,sigi,palu</t>
         </is>
       </c>
       <c r="E786" t="inlineStr"/>
@@ -20485,7 +20465,7 @@
       </c>
       <c r="D788" t="inlineStr">
         <is>
-          <t>kota denpasar,lombok tengah,lombok timur,lombok barat,lombok utara,kota mataram</t>
+          <t>lombok timur,denpasar,mataram,lombok tengah,lombok barat,lombok utara</t>
         </is>
       </c>
       <c r="E788" t="inlineStr"/>
@@ -20542,7 +20522,7 @@
       </c>
       <c r="D791" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E791" t="inlineStr"/>
@@ -20665,7 +20645,7 @@
       </c>
       <c r="D796" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E796" t="inlineStr"/>
@@ -20788,7 +20768,7 @@
       </c>
       <c r="D801" t="inlineStr">
         <is>
-          <t>denpasar,lombok tengah,lombok barat,lombok utara,kota mataram</t>
+          <t>denpasar,mataram,lombok tengah,lombok barat,lombok utara</t>
         </is>
       </c>
       <c r="E801" t="inlineStr"/>
@@ -20834,7 +20814,7 @@
       </c>
       <c r="D803" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E803" t="inlineStr"/>
@@ -20857,7 +20837,7 @@
       </c>
       <c r="D804" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E804" t="inlineStr"/>
@@ -20972,12 +20952,12 @@
       </c>
       <c r="D809" t="inlineStr">
         <is>
-          <t>lombok tengah,lombok timur,lombok barat,lombok utara,kota mataram</t>
+          <t>lombok timur,mataram,lombok tengah,lombok barat,lombok utara</t>
         </is>
       </c>
       <c r="E809" t="inlineStr">
         <is>
-          <t>bayan,gangga,pemenang,tanjung,kayangan</t>
+          <t>tanjung,pemenang,gangga,kayangan,bayan</t>
         </is>
       </c>
     </row>
@@ -21026,7 +21006,7 @@
       </c>
       <c r="D811" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E811" t="inlineStr"/>
@@ -21049,7 +21029,7 @@
       </c>
       <c r="D812" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi,parigi moutong</t>
+          <t>donggala,parigi moutong,sigi,palu</t>
         </is>
       </c>
       <c r="E812" t="inlineStr"/>
@@ -21091,7 +21071,7 @@
       </c>
       <c r="D814" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E814" t="inlineStr"/>
@@ -21142,7 +21122,7 @@
       </c>
       <c r="E816" t="inlineStr">
         <is>
-          <t>bandar baru,penteraja,meureudu,kembang tanjong</t>
+          <t>meureudu,bandar baru,penteraja,kembang tanjong</t>
         </is>
       </c>
     </row>
@@ -21164,7 +21144,7 @@
       </c>
       <c r="D817" t="inlineStr">
         <is>
-          <t>palu,sigi</t>
+          <t>sigi,palu</t>
         </is>
       </c>
       <c r="E817" t="inlineStr"/>
@@ -21206,7 +21186,7 @@
       </c>
       <c r="D819" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E819" t="inlineStr"/>
@@ -21271,7 +21251,7 @@
       </c>
       <c r="D822" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E822" t="inlineStr"/>
@@ -21294,7 +21274,7 @@
       </c>
       <c r="D823" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E823" t="inlineStr"/>
@@ -21340,7 +21320,7 @@
       </c>
       <c r="D825" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E825" t="inlineStr"/>
@@ -21405,7 +21385,7 @@
       </c>
       <c r="D828" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E828" t="inlineStr"/>
@@ -21428,7 +21408,7 @@
       </c>
       <c r="D829" t="inlineStr">
         <is>
-          <t>bali,lombok tengah,lombok timur,lombok barat,lombok utara,kota mataram</t>
+          <t>lombok timur,mataram,lombok tengah,lombok barat,bali,lombok utara</t>
         </is>
       </c>
       <c r="E829" t="inlineStr"/>
@@ -21451,7 +21431,7 @@
       </c>
       <c r="D830" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E830" t="inlineStr"/>
@@ -21493,7 +21473,7 @@
       </c>
       <c r="D832" t="inlineStr">
         <is>
-          <t>palu,tolitoli,poso,donggala,parigi moutong</t>
+          <t>donggala,palu,parigi moutong,poso,tolitoli</t>
         </is>
       </c>
       <c r="E832" t="inlineStr"/>
@@ -21516,7 +21496,7 @@
       </c>
       <c r="D833" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E833" t="inlineStr"/>
@@ -21539,7 +21519,7 @@
       </c>
       <c r="D834" t="inlineStr">
         <is>
-          <t>palu,donggala,poso,parigi moutong</t>
+          <t>poso,donggala,parigi moutong,palu</t>
         </is>
       </c>
       <c r="E834" t="inlineStr"/>
@@ -21650,7 +21630,7 @@
       </c>
       <c r="D839" t="inlineStr">
         <is>
-          <t>denpasar,jembrana,badung</t>
+          <t>jembrana,badung,denpasar</t>
         </is>
       </c>
       <c r="E839" t="inlineStr">
@@ -21700,7 +21680,7 @@
       </c>
       <c r="D841" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E841" t="inlineStr"/>
@@ -21723,7 +21703,7 @@
       </c>
       <c r="D842" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E842" t="inlineStr"/>
@@ -21746,7 +21726,7 @@
       </c>
       <c r="D843" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E843" t="inlineStr"/>
@@ -21769,7 +21749,7 @@
       </c>
       <c r="D844" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E844" t="inlineStr"/>
@@ -21792,7 +21772,7 @@
       </c>
       <c r="D845" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E845" t="inlineStr"/>
@@ -21815,7 +21795,7 @@
       </c>
       <c r="D846" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E846" t="inlineStr"/>
@@ -21838,7 +21818,7 @@
       </c>
       <c r="D847" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E847" t="inlineStr"/>
@@ -21861,7 +21841,7 @@
       </c>
       <c r="D848" t="inlineStr">
         <is>
-          <t>ile ape,ile ape timur</t>
+          <t>ile ape timur,ile ape</t>
         </is>
       </c>
       <c r="E848" t="inlineStr"/>
@@ -21884,12 +21864,12 @@
       </c>
       <c r="D849" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi,lebak,pandeglang,lampung selatan</t>
+          <t>sukabumi,pandeglang,lebak,lampung selatan</t>
         </is>
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t>mandalawangi,waliuran,cisolok</t>
+          <t>waliuran,cisolok,mandalawangi</t>
         </is>
       </c>
     </row>
@@ -21911,7 +21891,7 @@
       </c>
       <c r="D850" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E850" t="inlineStr"/>
@@ -21934,12 +21914,12 @@
       </c>
       <c r="D851" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi,parigi moutong</t>
+          <t>donggala,parigi moutong,sigi,palu</t>
         </is>
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t>kulawi selatan,kulawi,gumbasa,lindu</t>
+          <t>kulawi,gumbasa,lindu,kulawi selatan</t>
         </is>
       </c>
     </row>
@@ -22112,7 +22092,7 @@
       </c>
       <c r="E858" t="inlineStr">
         <is>
-          <t>pemenang,tanjung null</t>
+          <t>pemenang</t>
         </is>
       </c>
     </row>
@@ -22156,7 +22136,7 @@
       </c>
       <c r="C860" t="inlineStr">
         <is>
-          <t>jawa timur,bali</t>
+          <t>bali,jawa timur</t>
         </is>
       </c>
       <c r="D860" t="inlineStr">
@@ -22166,7 +22146,7 @@
       </c>
       <c r="E860" t="inlineStr">
         <is>
-          <t>ambulu,ledokombo,silo,kencong</t>
+          <t>ambulu,silo,kencong,ledokombo</t>
         </is>
       </c>
     </row>
@@ -22212,7 +22192,7 @@
       </c>
       <c r="E862" t="inlineStr">
         <is>
-          <t>nonggunung,bluto,gayam,kalianget</t>
+          <t>kalianget,gayam,nonggunung,bluto</t>
         </is>
       </c>
     </row>
@@ -22234,7 +22214,7 @@
       </c>
       <c r="D863" t="inlineStr">
         <is>
-          <t>kabupaten malang</t>
+          <t>malang</t>
         </is>
       </c>
       <c r="E863" t="inlineStr">
@@ -22261,7 +22241,7 @@
       </c>
       <c r="D864" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E864" t="inlineStr"/>
@@ -22284,7 +22264,7 @@
       </c>
       <c r="D865" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E865" t="inlineStr"/>
@@ -22330,7 +22310,7 @@
       </c>
       <c r="D867" t="inlineStr">
         <is>
-          <t>seram bagian barat,ambon,maluku tengah</t>
+          <t>ambon,maluku tengah,seram bagian barat</t>
         </is>
       </c>
       <c r="E867" t="inlineStr">
@@ -22575,7 +22555,7 @@
       </c>
       <c r="C877" t="inlineStr">
         <is>
-          <t>maluku utara,bali</t>
+          <t>bali,maluku utara</t>
         </is>
       </c>
       <c r="D877" t="inlineStr"/>
@@ -22622,7 +22602,7 @@
       </c>
       <c r="D879" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E879" t="inlineStr"/>
@@ -22645,7 +22625,7 @@
       </c>
       <c r="D880" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E880" t="inlineStr"/>
@@ -22668,7 +22648,7 @@
       </c>
       <c r="D881" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi,bantaeng,parigi moutong</t>
+          <t>donggala,bantaeng,palu,parigi moutong,sigi</t>
         </is>
       </c>
       <c r="E881" t="inlineStr"/>
@@ -22696,7 +22676,7 @@
       </c>
       <c r="E882" t="inlineStr">
         <is>
-          <t>carita,mandalawangi,cigeulis,serang</t>
+          <t>cigeulis,serang,carita,mandalawangi</t>
         </is>
       </c>
     </row>
@@ -22718,7 +22698,7 @@
       </c>
       <c r="D883" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E883" t="inlineStr"/>
@@ -22741,7 +22721,7 @@
       </c>
       <c r="D884" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E884" t="inlineStr"/>
@@ -22783,12 +22763,12 @@
       </c>
       <c r="D886" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E886" t="inlineStr">
         <is>
-          <t>kulawi selatan,kulawi,balaesang tanjung,lindu,balaesang,sirenja,pipikoro</t>
+          <t>sirenja,pipikoro,kulawi,balaesang,balaesang tanjung,lindu,kulawi selatan</t>
         </is>
       </c>
     </row>
@@ -22810,7 +22790,7 @@
       </c>
       <c r="D887" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E887" t="inlineStr"/>
@@ -22833,7 +22813,7 @@
       </c>
       <c r="D888" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E888" t="inlineStr"/>
@@ -22883,7 +22863,7 @@
       </c>
       <c r="D890" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E890" t="inlineStr">
@@ -22937,7 +22917,7 @@
       </c>
       <c r="D892" t="inlineStr">
         <is>
-          <t>sigi,donggala,palu</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E892" t="inlineStr">
@@ -22991,7 +22971,7 @@
       </c>
       <c r="D894" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E894" t="inlineStr"/>
@@ -23019,7 +22999,7 @@
       </c>
       <c r="E895" t="inlineStr">
         <is>
-          <t>teupah barat,teupah tengah,teupah selatan</t>
+          <t>teupah selatan,teupah tengah,teupah barat</t>
         </is>
       </c>
     </row>
@@ -23095,7 +23075,7 @@
       </c>
       <c r="D898" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E898" t="inlineStr"/>
@@ -23118,7 +23098,7 @@
       </c>
       <c r="D899" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E899" t="inlineStr"/>
@@ -23141,7 +23121,7 @@
       </c>
       <c r="D900" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E900" t="inlineStr"/>
@@ -23191,7 +23171,7 @@
       </c>
       <c r="D902" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E902" t="inlineStr"/>
@@ -23214,12 +23194,12 @@
       </c>
       <c r="D903" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E903" t="inlineStr">
         <is>
-          <t>purabaya,ciracap,kebandungan,cisolok,sagaranten,kalibunder,bojonggenteng,kalapanunggal</t>
+          <t>purabaya,kalibunder,ciracap,sagaranten,kebandungan,bojonggenteng,cisolok,kalapanunggal</t>
         </is>
       </c>
     </row>
@@ -23241,7 +23221,7 @@
       </c>
       <c r="D904" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E904" t="inlineStr"/>
@@ -23287,7 +23267,7 @@
       </c>
       <c r="D906" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E906" t="inlineStr">
@@ -23333,7 +23313,7 @@
       </c>
       <c r="D908" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E908" t="inlineStr"/>
@@ -23356,7 +23336,7 @@
       </c>
       <c r="D909" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E909" t="inlineStr"/>
@@ -23406,7 +23386,7 @@
       </c>
       <c r="D911" t="inlineStr">
         <is>
-          <t>lombok tengah,lombok timur,lombok barat,lombok utara,kota mataram</t>
+          <t>lombok timur,mataram,lombok tengah,lombok barat,lombok utara</t>
         </is>
       </c>
       <c r="E911" t="inlineStr"/>
@@ -23456,7 +23436,7 @@
       </c>
       <c r="D913" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E913" t="inlineStr"/>
@@ -23525,7 +23505,7 @@
       </c>
       <c r="D916" t="inlineStr">
         <is>
-          <t>lombok utara,kota mataram</t>
+          <t>lombok utara,mataram</t>
         </is>
       </c>
       <c r="E916" t="inlineStr"/>
@@ -23648,7 +23628,7 @@
       </c>
       <c r="D921" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E921" t="inlineStr"/>
@@ -23671,12 +23651,12 @@
       </c>
       <c r="D922" t="inlineStr">
         <is>
-          <t>palu,donggala,pasangkayu</t>
+          <t>pasangkayu,donggala,palu</t>
         </is>
       </c>
       <c r="E922" t="inlineStr">
         <is>
-          <t>bambaira,pasangkayu</t>
+          <t>pasangkayu,bambaira</t>
         </is>
       </c>
     </row>
@@ -23698,7 +23678,7 @@
       </c>
       <c r="D923" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E923" t="inlineStr"/>
@@ -23744,7 +23724,7 @@
       </c>
       <c r="D925" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E925" t="inlineStr"/>
@@ -23767,7 +23747,7 @@
       </c>
       <c r="D926" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi,parigi moutong</t>
+          <t>donggala,parigi moutong,sigi,palu</t>
         </is>
       </c>
       <c r="E926" t="inlineStr"/>
@@ -23817,7 +23797,7 @@
       </c>
       <c r="D928" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E928" t="inlineStr"/>
@@ -23840,7 +23820,7 @@
       </c>
       <c r="D929" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E929" t="inlineStr"/>
@@ -23863,7 +23843,7 @@
       </c>
       <c r="D930" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E930" t="inlineStr"/>
@@ -23886,12 +23866,12 @@
       </c>
       <c r="D931" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E931" t="inlineStr">
         <is>
-          <t>labuan,balaesang tanjung,banawa selatan,sindue,palu timur,banawa,ulujadi,mantikulore,sindue tobata,palu selatan,sindue tombusabora,banawa tengah,palu barat</t>
+          <t>ulujadi,mantikulore,banawa tengah,palu selatan,sindue tobata,banawa,labuan,sindue tombusabora,balaesang tanjung,banawa selatan,palu timur,sindue,palu barat</t>
         </is>
       </c>
     </row>
@@ -23913,7 +23893,7 @@
       </c>
       <c r="D932" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E932" t="inlineStr"/>
@@ -23963,7 +23943,7 @@
       </c>
       <c r="D934" t="inlineStr">
         <is>
-          <t>sigi,donggala,palu</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E934" t="inlineStr"/>
@@ -23986,7 +23966,7 @@
       </c>
       <c r="D935" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E935" t="inlineStr"/>
@@ -24009,7 +23989,7 @@
       </c>
       <c r="D936" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E936" t="inlineStr"/>
@@ -24078,7 +24058,7 @@
       </c>
       <c r="D939" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E939" t="inlineStr"/>
@@ -24124,7 +24104,7 @@
       </c>
       <c r="D941" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E941" t="inlineStr"/>
@@ -24170,7 +24150,7 @@
       </c>
       <c r="D943" t="inlineStr">
         <is>
-          <t>lombok utara,lombok timur,lombok barat</t>
+          <t>lombok barat,lombok timur,lombok utara</t>
         </is>
       </c>
       <c r="E943" t="inlineStr"/>
@@ -24193,7 +24173,7 @@
       </c>
       <c r="D944" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E944" t="inlineStr"/>
@@ -24221,7 +24201,7 @@
       </c>
       <c r="E945" t="inlineStr">
         <is>
-          <t>ranah pesisir,iv jurai,linggo sari,lengayang,sutera</t>
+          <t>linggo sari,ranah pesisir,lengayang,iv jurai,sutera</t>
         </is>
       </c>
     </row>
@@ -24243,7 +24223,7 @@
       </c>
       <c r="D946" t="inlineStr">
         <is>
-          <t>palu,donggala,pasangkayu,sigi,parigi moutong</t>
+          <t>donggala,palu,parigi moutong,sigi,pasangkayu</t>
         </is>
       </c>
       <c r="E946" t="inlineStr"/>
@@ -24289,12 +24269,12 @@
       </c>
       <c r="D948" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E948" t="inlineStr">
         <is>
-          <t>parakansalak,kalapanunggal</t>
+          <t>kalapanunggal,parakansalak</t>
         </is>
       </c>
     </row>
@@ -24316,7 +24296,7 @@
       </c>
       <c r="D949" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E949" t="inlineStr">
@@ -24343,7 +24323,7 @@
       </c>
       <c r="D950" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E950" t="inlineStr"/>
@@ -24462,7 +24442,7 @@
       </c>
       <c r="D955" t="inlineStr">
         <is>
-          <t>kota mataram</t>
+          <t>mataram</t>
         </is>
       </c>
       <c r="E955" t="inlineStr"/>
@@ -24531,7 +24511,7 @@
       </c>
       <c r="D958" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E958" t="inlineStr"/>
@@ -24554,7 +24534,7 @@
       </c>
       <c r="D959" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E959" t="inlineStr"/>
@@ -24577,7 +24557,7 @@
       </c>
       <c r="D960" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E960" t="inlineStr"/>
@@ -24654,7 +24634,7 @@
       </c>
       <c r="D963" t="inlineStr">
         <is>
-          <t>aceh jaya,aceh barat,nagan raya</t>
+          <t>aceh jaya,nagan raya,aceh barat</t>
         </is>
       </c>
       <c r="E963" t="inlineStr"/>
@@ -24786,7 +24766,7 @@
       </c>
       <c r="E968" t="inlineStr">
         <is>
-          <t>johan pahwalan,meureubo,samatiga,arongan lambalek</t>
+          <t>meureubo,johan pahwalan,arongan lambalek,samatiga</t>
         </is>
       </c>
     </row>
@@ -24813,7 +24793,7 @@
       </c>
       <c r="E969" t="inlineStr">
         <is>
-          <t>woyla barat,samatiga,johan pahwalan,arongan lambalek,kaway xvi,meureubo</t>
+          <t>samatiga,woyla barat,meureubo,kaway xvi,johan pahwalan,arongan lambalek</t>
         </is>
       </c>
     </row>
@@ -24840,7 +24820,7 @@
       </c>
       <c r="E970" t="inlineStr">
         <is>
-          <t>woyla barat,bubon,meureubo,arongan lambalek,kaway xvi,johan pahwalan</t>
+          <t>meureubo,woyla barat,kaway xvi,bubon,johan pahwalan,arongan lambalek</t>
         </is>
       </c>
     </row>
@@ -24862,7 +24842,7 @@
       </c>
       <c r="D971" t="inlineStr">
         <is>
-          <t>bener meriah,aceh barat,nagan raya,aceh barat daya</t>
+          <t>nagan raya,aceh barat daya,bener meriah,aceh barat</t>
         </is>
       </c>
       <c r="E971" t="inlineStr"/>
@@ -24890,7 +24870,7 @@
       </c>
       <c r="E972" t="inlineStr">
         <is>
-          <t>muara tiga,mila,lembah seulawah</t>
+          <t>mila,muara tiga,lembah seulawah</t>
         </is>
       </c>
     </row>
@@ -25075,7 +25055,7 @@
       </c>
       <c r="E979" t="inlineStr">
         <is>
-          <t>tapak tuan,bakongan,kota bahagia</t>
+          <t>kota bahagia,bakongan,tapak tuan</t>
         </is>
       </c>
     </row>
@@ -25129,7 +25109,7 @@
       </c>
       <c r="E981" t="inlineStr">
         <is>
-          <t>kuala batee,babahrot</t>
+          <t>babahrot,kuala batee</t>
         </is>
       </c>
     </row>
@@ -25156,7 +25136,7 @@
       </c>
       <c r="E982" t="inlineStr">
         <is>
-          <t>johan pahwalan,samatiga</t>
+          <t>samatiga,johan pahwalan</t>
         </is>
       </c>
     </row>
@@ -25210,7 +25190,7 @@
       </c>
       <c r="E984" t="inlineStr">
         <is>
-          <t>pekutatan,mendoyo</t>
+          <t>mendoyo,pekutatan</t>
         </is>
       </c>
     </row>
@@ -25929,12 +25909,12 @@
       </c>
       <c r="D1012" t="inlineStr">
         <is>
-          <t>kampar,pelalawan,lima puluh kota,pekanbaru,rokan hilir</t>
+          <t>pekanbaru,kampar,pelalawan,lima puluh,rokan hilir</t>
         </is>
       </c>
       <c r="E1012" t="inlineStr">
         <is>
-          <t>pasir limau kapas,payung sekaki,kuala kampar,tapung,kerumutan</t>
+          <t>payung sekaki,tapung,pasir limau kapas,kerumutan,kuala kampar</t>
         </is>
       </c>
     </row>
@@ -25951,12 +25931,12 @@
       </c>
       <c r="C1013" t="inlineStr">
         <is>
-          <t>lampung,kepulauan bangka belitung,sumatera selatan,jambi,riau</t>
+          <t>lampung,riau,jambi,sumatera selatan,kepulauan bangka belitung</t>
         </is>
       </c>
       <c r="D1013" t="inlineStr">
         <is>
-          <t>pekan baru,kota dumai</t>
+          <t>pekan baru,dumai</t>
         </is>
       </c>
       <c r="E1013" t="inlineStr"/>
@@ -25984,7 +25964,7 @@
       </c>
       <c r="E1014" t="inlineStr">
         <is>
-          <t>candi laras selatan,bakarangan,candi laras utara,tapin tengah</t>
+          <t>tapin tengah,candi laras utara,candi laras selatan,bakarangan</t>
         </is>
       </c>
     </row>
@@ -26051,12 +26031,12 @@
       </c>
       <c r="C1017" t="inlineStr">
         <is>
-          <t>kalimantan tengah,riau,sumatera selatan</t>
+          <t>riau,sumatera selatan,kalimantan tengah</t>
         </is>
       </c>
       <c r="D1017" t="inlineStr">
         <is>
-          <t>palangkaraya,pekanbaru,palembang</t>
+          <t>pekanbaru,palembang,palangkaraya</t>
         </is>
       </c>
       <c r="E1017" t="inlineStr"/>
@@ -26074,7 +26054,7 @@
       </c>
       <c r="C1018" t="inlineStr">
         <is>
-          <t>kalimantan tengah,kalimantan barat,kalimantan selatan,jambi,riau,sumatra selatan</t>
+          <t>riau,sumatra selatan,kalimantan selatan,jambi,kalimantan tengah,kalimantan barat</t>
         </is>
       </c>
       <c r="D1018" t="inlineStr"/>
@@ -26098,7 +26078,7 @@
       </c>
       <c r="D1019" t="inlineStr">
         <is>
-          <t>rumbai,indragiri hulu,indragiri hilir,bengkalis,dumai,kampar,kepulauan meranti,pelalawan,rokan hilir</t>
+          <t>dumai,indragiri hilir,kampar,pelalawan,bengkalis,kepulauan meranti,indragiri hulu,rokan hilir,rumbai</t>
         </is>
       </c>
       <c r="E1019" t="inlineStr"/>
@@ -26116,7 +26096,7 @@
       </c>
       <c r="C1020" t="inlineStr">
         <is>
-          <t>riau,kalimantan barat,sulawesi selatan,jambi</t>
+          <t>sulawesi selatan,riau,jambi,kalimantan barat</t>
         </is>
       </c>
       <c r="D1020" t="inlineStr"/>
@@ -26154,7 +26134,7 @@
       </c>
       <c r="C1022" t="inlineStr">
         <is>
-          <t>kalimantan tengah,riau,kalimantan barat</t>
+          <t>riau,kalimantan barat,kalimantan tengah</t>
         </is>
       </c>
       <c r="D1022" t="inlineStr">
@@ -26223,7 +26203,7 @@
       </c>
       <c r="C1025" t="inlineStr">
         <is>
-          <t>kalimantan tengah,kalimantan barat,sumatera selatan,jambi,riau</t>
+          <t>riau,jambi,kalimantan tengah,sumatera selatan,kalimantan barat</t>
         </is>
       </c>
       <c r="D1025" t="inlineStr"/>
@@ -26242,7 +26222,7 @@
       </c>
       <c r="C1026" t="inlineStr">
         <is>
-          <t>kalimantan tengah,sumatera selatan,kalimantan selatan,jambi</t>
+          <t>jambi,sumatera selatan,kalimantan tengah,kalimantan selatan</t>
         </is>
       </c>
       <c r="D1026" t="inlineStr"/>
@@ -26261,7 +26241,7 @@
       </c>
       <c r="C1027" t="inlineStr">
         <is>
-          <t>kalimantan selatan,sumatra selatan</t>
+          <t>sumatra selatan,kalimantan selatan</t>
         </is>
       </c>
       <c r="D1027" t="inlineStr"/>
@@ -26285,7 +26265,7 @@
       </c>
       <c r="D1028" t="inlineStr">
         <is>
-          <t>pelalawan,pekanbaru,siak,bengkalis</t>
+          <t>pekanbaru,pelalawan,siak,bengkalis</t>
         </is>
       </c>
       <c r="E1028" t="inlineStr">
@@ -26349,7 +26329,7 @@
       </c>
       <c r="C1031" t="inlineStr">
         <is>
-          <t>kepulauan riau,riau,kalimantan barat</t>
+          <t>kepulauan riau,kalimantan barat,riau</t>
         </is>
       </c>
       <c r="D1031" t="inlineStr">
@@ -26395,12 +26375,12 @@
       </c>
       <c r="C1033" t="inlineStr">
         <is>
-          <t>bangka belitung,kalimantan tengah,kalimantan timur,kalimantan barat,kalimantan utara,sumatera selatan,kalimantan selatan,jambi,riau</t>
+          <t>riau,bangka belitung,kalimantan selatan,jambi,kalimantan utara,kalimantan timur,kalimantan tengah,sumatera selatan,kalimantan barat</t>
         </is>
       </c>
       <c r="D1033" t="inlineStr">
         <is>
-          <t>palangkaraya,pekanbaru,pontianak</t>
+          <t>pekanbaru,pontianak,palangkaraya</t>
         </is>
       </c>
       <c r="E1033" t="inlineStr"/>
@@ -26450,7 +26430,7 @@
       </c>
       <c r="D1035" t="inlineStr">
         <is>
-          <t>pekanbaru,kampar,siak</t>
+          <t>kampar,pekanbaru,siak</t>
         </is>
       </c>
       <c r="E1035" t="inlineStr"/>
@@ -26542,7 +26522,7 @@
       </c>
       <c r="D1039" t="inlineStr">
         <is>
-          <t>meranti,indragiri hulu,indragiri hilir,bengkalis,dumai,pelalawan,rokan hilir,siak,pekanbaru</t>
+          <t>pekanbaru,siak,indragiri hilir,dumai,pelalawan,bengkalis,indragiri hulu,rokan hilir,meranti</t>
         </is>
       </c>
       <c r="E1039" t="inlineStr"/>
@@ -26587,12 +26567,12 @@
       </c>
       <c r="C1041" t="inlineStr">
         <is>
-          <t>bangka belitung,lampung,kepulauan riau,sumatera utara,bengkulu,sumatera selatan,jambi,riau</t>
+          <t>riau,bengkulu,lampung,sumatera utara,bangka belitung,jambi,kepulauan riau,sumatera selatan</t>
         </is>
       </c>
       <c r="D1041" t="inlineStr">
         <is>
-          <t>indragiri hulu,bengkalis,dumai,kampar,rokan hulu,kepulauan meranti,rokan hilir,siak</t>
+          <t>siak,dumai,rokan hulu,kampar,bengkalis,indragiri hulu,kepulauan meranti,rokan hilir</t>
         </is>
       </c>
       <c r="E1041" t="inlineStr"/>
@@ -26660,7 +26640,7 @@
       </c>
       <c r="C1044" t="inlineStr">
         <is>
-          <t>kepulauan riau,kalimantan tengah,kalimantan barat,sumatera selatan,kalimantan selatan,jambi,riau</t>
+          <t>riau,kalimantan selatan,kepulauan riau,jambi,kalimantan tengah,sumatera selatan,kalimantan barat</t>
         </is>
       </c>
       <c r="D1044" t="inlineStr">
@@ -26812,7 +26792,7 @@
       </c>
       <c r="E1050" t="inlineStr">
         <is>
-          <t>bermani ulu raya,lebong utara,curup timur,padang ulak tanding</t>
+          <t>curup timur,padang ulak tanding,bermani ulu raya,lebong utara</t>
         </is>
       </c>
     </row>
@@ -26866,7 +26846,7 @@
       </c>
       <c r="E1052" t="inlineStr">
         <is>
-          <t>selupu rejang,curup selatan,bermani ulu</t>
+          <t>bermani ulu,selupu rejang,curup selatan</t>
         </is>
       </c>
     </row>
@@ -26883,12 +26863,12 @@
       </c>
       <c r="C1053" t="inlineStr">
         <is>
-          <t>sumatera selatan,bengkulu</t>
+          <t>bengkulu,sumatera selatan</t>
         </is>
       </c>
       <c r="D1053" t="inlineStr">
         <is>
-          <t>rejang lebong,bengkulu utara,bengkulu tengah,kepahiang,lebong</t>
+          <t>kepahiang,rejang lebong,lebong,bengkulu utara,bengkulu tengah</t>
         </is>
       </c>
       <c r="E1053" t="inlineStr"/>
@@ -26938,14 +26918,10 @@
       </c>
       <c r="D1055" t="inlineStr">
         <is>
-          <t>rejang lebong,bengkulu,kepahiang</t>
-        </is>
-      </c>
-      <c r="E1055" t="inlineStr">
-        <is>
-          <t>nulll</t>
-        </is>
-      </c>
+          <t>bengkulu,kepahiang,rejang lebong</t>
+        </is>
+      </c>
+      <c r="E1055" t="inlineStr"/>
     </row>
     <row r="1056">
       <c r="A1056" t="inlineStr">
@@ -27016,7 +26992,7 @@
       </c>
       <c r="E1058" t="inlineStr">
         <is>
-          <t>topols,lebong utara,pinang belapis</t>
+          <t>topols,pinang belapis,lebong utara</t>
         </is>
       </c>
     </row>
@@ -27033,12 +27009,12 @@
       </c>
       <c r="C1059" t="inlineStr">
         <is>
-          <t>kalimantan tengah,kalimantan barat,sumatera selatan,kalimantan selatan,sumatera barat,jambi,riau</t>
+          <t>riau,sumatera barat,kalimantan selatan,jambi,kalimantan tengah,sumatera selatan,kalimantan barat</t>
         </is>
       </c>
       <c r="D1059" t="inlineStr">
         <is>
-          <t>ketapang,palangkaraya,pekanbaru,palembang,jambi,padang,banjarmasin,pontianak,banjarbaru</t>
+          <t>pekanbaru,padang,palangkaraya,ketapang,jambi,palembang,pontianak,banjarbaru,banjarmasin</t>
         </is>
       </c>
       <c r="E1059" t="inlineStr"/>
@@ -27056,17 +27032,17 @@
       </c>
       <c r="C1060" t="inlineStr">
         <is>
-          <t>lampung,aceh,sumatera utara,bengkulu,sumatera barat,jambi,riau</t>
+          <t>lampung,bengkulu,riau,sumatera utara,aceh,sumatera barat,jambi</t>
         </is>
       </c>
       <c r="D1060" t="inlineStr">
         <is>
-          <t>indragiri hulu,kampar,rokan hulu,pelalawan,rokan hilir,kuantan singingi</t>
+          <t>kampar,rokan hulu,kuantan singingi,pelalawan,indragiri hulu,rokan hilir</t>
         </is>
       </c>
       <c r="E1060" t="inlineStr">
         <is>
-          <t>ukui,rokan iv koto,rengat,langgam</t>
+          <t>rokan iv koto,rengat,ukui,langgam</t>
         </is>
       </c>
     </row>
@@ -27088,7 +27064,7 @@
       </c>
       <c r="D1061" t="inlineStr">
         <is>
-          <t>bengkalis,dumai,kampar,rokan hulu,rokan hilir,riau</t>
+          <t>riau,dumai,kampar,rokan hulu,bengkalis,rokan hilir</t>
         </is>
       </c>
       <c r="E1061" t="inlineStr">
@@ -27323,7 +27299,7 @@
       </c>
       <c r="D1070" t="inlineStr">
         <is>
-          <t>kabupaten garut</t>
+          <t>garut</t>
         </is>
       </c>
       <c r="E1070" t="inlineStr">
@@ -27458,7 +27434,7 @@
       </c>
       <c r="D1075" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E1075" t="inlineStr">
@@ -27485,7 +27461,7 @@
       </c>
       <c r="D1076" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E1076" t="inlineStr">
@@ -27535,12 +27511,12 @@
       </c>
       <c r="D1078" t="inlineStr">
         <is>
-          <t>kabupaten purwakarta</t>
+          <t>purwakarta</t>
         </is>
       </c>
       <c r="E1078" t="inlineStr">
         <is>
-          <t>purwakarta kota,pondok salam,jatiluhur,maniis</t>
+          <t>jatiluhur,purwakarta kota,maniis,pondok salam</t>
         </is>
       </c>
     </row>
@@ -27581,7 +27557,7 @@
       </c>
       <c r="D1080" t="inlineStr">
         <is>
-          <t>kabupaten purwakarta</t>
+          <t>purwakarta</t>
         </is>
       </c>
       <c r="E1080" t="inlineStr">
@@ -27635,7 +27611,7 @@
       </c>
       <c r="D1082" t="inlineStr">
         <is>
-          <t>kabupaten garut</t>
+          <t>garut</t>
         </is>
       </c>
       <c r="E1082" t="inlineStr">
@@ -27662,7 +27638,7 @@
       </c>
       <c r="D1083" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E1083" t="inlineStr"/>
@@ -27685,7 +27661,7 @@
       </c>
       <c r="D1084" t="inlineStr">
         <is>
-          <t>ketapang,kayong utara,sanggau,bengkayang,sekadau,melawi,pontianak,kapuas hulu,singkawang,sambas</t>
+          <t>kayong utara,sekadau,ketapang,kapuas hulu,singkawang,sambas,bengkayang,pontianak,melawi,sanggau</t>
         </is>
       </c>
       <c r="E1084" t="inlineStr"/>
@@ -27722,12 +27698,12 @@
       </c>
       <c r="C1086" t="inlineStr">
         <is>
-          <t>kalimantan tengah,kalimantan timur,kalimantan barat,sumatera selatan,kalimantan selatan,riau</t>
+          <t>riau,kalimantan selatan,kalimantan timur,kalimantan tengah,sumatera selatan,kalimantan barat</t>
         </is>
       </c>
       <c r="D1086" t="inlineStr">
         <is>
-          <t>penajam paser utara,berau,pelalawan,banyuasin,kutai kertanegara</t>
+          <t>banyuasin,penajam paser utara,berau,pelalawan,kutai kertanegara</t>
         </is>
       </c>
       <c r="E1086" t="inlineStr">
@@ -27768,7 +27744,7 @@
       </c>
       <c r="C1088" t="inlineStr">
         <is>
-          <t>sumatera selatan,jambi</t>
+          <t>jambi,sumatera selatan</t>
         </is>
       </c>
       <c r="D1088" t="inlineStr">
@@ -27823,7 +27799,7 @@
       </c>
       <c r="D1090" t="inlineStr">
         <is>
-          <t>pelalawan,indragiri hulu,pekanbaru,dumai</t>
+          <t>pekanbaru,pelalawan,indragiri hulu,dumai</t>
         </is>
       </c>
       <c r="E1090" t="inlineStr"/>
@@ -27873,7 +27849,7 @@
       </c>
       <c r="D1092" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E1092" t="inlineStr">
@@ -27900,7 +27876,7 @@
       </c>
       <c r="D1093" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E1093" t="inlineStr">
@@ -27922,7 +27898,7 @@
       </c>
       <c r="C1094" t="inlineStr">
         <is>
-          <t>sumatera utara,riau,aceh</t>
+          <t>riau,sumatera utara,aceh</t>
         </is>
       </c>
       <c r="D1094" t="inlineStr"/>
@@ -27946,7 +27922,7 @@
       </c>
       <c r="D1095" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E1095" t="inlineStr">
@@ -27968,7 +27944,7 @@
       </c>
       <c r="C1096" t="inlineStr">
         <is>
-          <t>sumatera utara,aceh,bangka belitung</t>
+          <t>bangka belitung,sumatera utara,aceh</t>
         </is>
       </c>
       <c r="D1096" t="inlineStr"/>
@@ -28088,7 +28064,7 @@
       </c>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>pelalawan,indragiri hulu,dumai,indragiri hilir</t>
+          <t>indragiri hilir,pelalawan,indragiri hulu,dumai</t>
         </is>
       </c>
       <c r="E1101" t="inlineStr"/>
@@ -28138,7 +28114,7 @@
       </c>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>kota kubu raya,kota pontianak</t>
+          <t>kubu raya,pontianak</t>
         </is>
       </c>
       <c r="E1103" t="inlineStr"/>
@@ -28215,7 +28191,7 @@
       </c>
       <c r="D1106" t="inlineStr">
         <is>
-          <t>kabupaten karanganyar</t>
+          <t>karanganyar</t>
         </is>
       </c>
       <c r="E1106" t="inlineStr">
@@ -28269,12 +28245,12 @@
       </c>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>kabupaten magelang,kabupaten boyolali</t>
+          <t>magelang,boyolali</t>
         </is>
       </c>
       <c r="E1108" t="inlineStr">
         <is>
-          <t>sawangan,selo</t>
+          <t>selo,sawangan</t>
         </is>
       </c>
     </row>
@@ -28392,7 +28368,7 @@
       </c>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>kabupaten magelang</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="E1113" t="inlineStr">
@@ -28419,7 +28395,7 @@
       </c>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>kabupaten magelang</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="E1114" t="inlineStr">
@@ -28446,7 +28422,7 @@
       </c>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>pelalawan,pekanbaru,kampar,siak</t>
+          <t>kampar,pekanbaru,siak,pelalawan</t>
         </is>
       </c>
       <c r="E1115" t="inlineStr"/>
@@ -28469,7 +28445,7 @@
       </c>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>kota batu</t>
+          <t>batu</t>
         </is>
       </c>
       <c r="E1116" t="inlineStr">
@@ -28568,7 +28544,7 @@
       </c>
       <c r="C1120" t="inlineStr">
         <is>
-          <t>kalimantan tengah,kalimantan timur,kalimantan barat,sumatera selatan,kalimantan selatan</t>
+          <t>kalimantan selatan,kalimantan timur,kalimantan tengah,sumatera selatan,kalimantan barat</t>
         </is>
       </c>
       <c r="D1120" t="inlineStr"/>
@@ -28592,7 +28568,7 @@
       </c>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>musi banyuasin,ogan komering ilir</t>
+          <t>ogan komering ilir,musi banyuasin</t>
         </is>
       </c>
       <c r="E1121" t="inlineStr"/>
@@ -28615,7 +28591,7 @@
       </c>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>boyolali,kabupaten magelang</t>
+          <t>magelang,boyolali</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr">
@@ -28642,7 +28618,7 @@
       </c>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>kabupaten magelang</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="E1123" t="inlineStr">
@@ -28714,12 +28690,12 @@
       </c>
       <c r="C1126" t="inlineStr">
         <is>
-          <t>bangka belitung,kalimantan tengah,kalimantan timur,kalimantan barat,kalimantan utara,sumatera selatan,kalimantan selatan,jambi,riau</t>
+          <t>riau,bangka belitung,kalimantan selatan,jambi,kalimantan utara,kalimantan timur,kalimantan tengah,sumatera selatan,kalimantan barat</t>
         </is>
       </c>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>sintang,sanggau,memapawah,palangka raya,pekanbaru,bengkayang,pontianak,sambas</t>
+          <t>pekanbaru,memapawah,sintang,pontianak,bengkayang,sambas,palangka raya,sanggau</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr">
@@ -28989,12 +28965,12 @@
       </c>
       <c r="D1136" t="inlineStr">
         <is>
-          <t>kotawaringin timu,seruyan</t>
+          <t>waringin timu,seruyan</t>
         </is>
       </c>
       <c r="E1136" t="inlineStr">
         <is>
-          <t>mentaya hilir selatan,teluk sampit,entaya hilir utara,mentawa baru katapang</t>
+          <t>teluk sampit,mentaya hilir selatan,mentawa baru katapang,entaya hilir utara</t>
         </is>
       </c>
     </row>
@@ -29039,12 +29015,12 @@
       </c>
       <c r="D1138" t="inlineStr">
         <is>
-          <t>kotawaringin timur,kotawaringin barat</t>
+          <t>waringin timur,waringin barat</t>
         </is>
       </c>
       <c r="E1138" t="inlineStr">
         <is>
-          <t>teluk sampit,mentaya hilir utara</t>
+          <t>mentaya hilir utara,teluk sampit</t>
         </is>
       </c>
     </row>
@@ -29093,7 +29069,7 @@
       </c>
       <c r="D1140" t="inlineStr">
         <is>
-          <t>kotawaringin barat</t>
+          <t>waringin barat</t>
         </is>
       </c>
       <c r="E1140" t="inlineStr"/>
@@ -29138,7 +29114,7 @@
       </c>
       <c r="C1142" t="inlineStr">
         <is>
-          <t>kalimantan tengah,kalimantan selatan,kalimantan barat</t>
+          <t>kalimantan barat,kalimantan tengah,kalimantan selatan</t>
         </is>
       </c>
       <c r="D1142" t="inlineStr"/>
@@ -29194,7 +29170,7 @@
       </c>
       <c r="E1144" t="inlineStr">
         <is>
-          <t>bakarangan,tapin selatan</t>
+          <t>tapin selatan,bakarangan</t>
         </is>
       </c>
     </row>
@@ -29216,7 +29192,7 @@
       </c>
       <c r="D1145" t="inlineStr">
         <is>
-          <t>kotawaringin timur,palangkaraya</t>
+          <t>palangkaraya,waringin timur</t>
         </is>
       </c>
       <c r="E1145" t="inlineStr"/>
@@ -29398,7 +29374,7 @@
       </c>
       <c r="E1152" t="inlineStr">
         <is>
-          <t>tanah grogot,long ikis,batu sopang</t>
+          <t>batu sopang,tanah grogot,long ikis</t>
         </is>
       </c>
     </row>
@@ -29425,7 +29401,7 @@
       </c>
       <c r="E1153" t="inlineStr">
         <is>
-          <t>sepaku,penajam</t>
+          <t>penajam,sepaku</t>
         </is>
       </c>
     </row>
@@ -29479,7 +29455,7 @@
       </c>
       <c r="E1155" t="inlineStr">
         <is>
-          <t>sagah,kelay,sambaliung,pulau derawan,biatan</t>
+          <t>kelay,pulau derawan,sagah,sambaliung,biatan</t>
         </is>
       </c>
     </row>
@@ -29901,12 +29877,12 @@
       </c>
       <c r="D1172" t="inlineStr">
         <is>
-          <t>lampung tengah,tulang bawang,mesuji,lampung timur,way kanan</t>
+          <t>mesuji,tulang bawang,way kanan,lampung tengah,lampung timur</t>
         </is>
       </c>
       <c r="E1172" t="inlineStr">
         <is>
-          <t>bekri,gedung aji,sukadana,menggala,nyunyai,blampangan umpu,gedung meneng,simpang pematang,rawapitu</t>
+          <t>menggala,blampangan umpu,sukadana,nyunyai,rawapitu,simpang pematang,gedung meneng,bekri,gedung aji</t>
         </is>
       </c>
     </row>
@@ -29923,12 +29899,12 @@
       </c>
       <c r="C1173" t="inlineStr">
         <is>
-          <t>lampung,riau</t>
+          <t>riau,lampung</t>
         </is>
       </c>
       <c r="D1173" t="inlineStr">
         <is>
-          <t>rokan hulu,rokan hilir,siak,bengkalis</t>
+          <t>rokan hulu,siak,bengkalis,rokan hilir</t>
         </is>
       </c>
       <c r="E1173" t="inlineStr"/>
@@ -29946,12 +29922,12 @@
       </c>
       <c r="C1174" t="inlineStr">
         <is>
-          <t>lampung,sumatera utara,bengkulu,sumatera selatan,jambi,riau</t>
+          <t>riau,bengkulu,lampung,sumatera utara,jambi,sumatera selatan</t>
         </is>
       </c>
       <c r="D1174" t="inlineStr">
         <is>
-          <t>indragiri hulu,kuantang singigi,indragiri hilir,kampar,dumai,pekanbaru,pelawan</t>
+          <t>pekanbaru,indragiri hilir,dumai,kampar,kuantang singigi,indragiri hulu,pelawan</t>
         </is>
       </c>
       <c r="E1174" t="inlineStr">
@@ -29978,7 +29954,7 @@
       </c>
       <c r="D1175" t="inlineStr">
         <is>
-          <t>tulang bawang barat,bandar lampung,mesuji,lampung timur,way kanan</t>
+          <t>mesuji,way kanan,bandar lampung,tulang bawang barat,lampung timur</t>
         </is>
       </c>
       <c r="E1175" t="inlineStr">
@@ -30055,7 +30031,7 @@
       </c>
       <c r="D1178" t="inlineStr">
         <is>
-          <t>indragiri hulu,indragiri hilir,dumai,pelalawan,pekanbaru</t>
+          <t>pekanbaru,dumai,indragiri hilir,pelalawan,indragiri hulu</t>
         </is>
       </c>
       <c r="E1178" t="inlineStr"/>
@@ -30304,7 +30280,7 @@
       </c>
       <c r="D1189" t="inlineStr">
         <is>
-          <t>kota batu</t>
+          <t>batu</t>
         </is>
       </c>
       <c r="E1189" t="inlineStr"/>
@@ -30415,7 +30391,7 @@
       </c>
       <c r="D1194" t="inlineStr">
         <is>
-          <t>kabupaten malang</t>
+          <t>malang</t>
         </is>
       </c>
       <c r="E1194" t="inlineStr">
@@ -30634,7 +30610,7 @@
       </c>
       <c r="D1203" t="inlineStr">
         <is>
-          <t>kabupaten malang</t>
+          <t>malang</t>
         </is>
       </c>
       <c r="E1203" t="inlineStr">
@@ -30688,7 +30664,7 @@
       </c>
       <c r="D1205" t="inlineStr">
         <is>
-          <t>buru,seram bagian barat,seram bagian timur,maluku tengah</t>
+          <t>seram bagian timur,buru,maluku tengah,seram bagian barat</t>
         </is>
       </c>
       <c r="E1205" t="inlineStr">
@@ -30710,12 +30686,12 @@
       </c>
       <c r="C1206" t="inlineStr">
         <is>
-          <t>maluku,papua</t>
+          <t>papua,maluku</t>
         </is>
       </c>
       <c r="D1206" t="inlineStr">
         <is>
-          <t>kota ambon,maluku barat daya,merauke,buru</t>
+          <t>merauke,ambon,buru,maluku barat daya</t>
         </is>
       </c>
       <c r="E1206" t="inlineStr"/>
@@ -30761,7 +30737,7 @@
       </c>
       <c r="D1208" t="inlineStr">
         <is>
-          <t>buru,seram bagian barat,seram bagian timur,maluku tengah</t>
+          <t>seram bagian timur,buru,maluku tengah,seram bagian barat</t>
         </is>
       </c>
       <c r="E1208" t="inlineStr">
@@ -30788,7 +30764,7 @@
       </c>
       <c r="D1209" t="inlineStr">
         <is>
-          <t>seram bagian timur,maluku tengah,seram utara</t>
+          <t>seram utara,seram bagian timur,maluku tengah</t>
         </is>
       </c>
       <c r="E1209" t="inlineStr"/>
@@ -30806,12 +30782,12 @@
       </c>
       <c r="C1210" t="inlineStr">
         <is>
-          <t>maluku,papua</t>
+          <t>papua,maluku</t>
         </is>
       </c>
       <c r="D1210" t="inlineStr">
         <is>
-          <t>buru,maluku barat daya,ambon</t>
+          <t>ambon,buru,maluku barat daya</t>
         </is>
       </c>
       <c r="E1210" t="inlineStr"/>
@@ -30872,7 +30848,7 @@
       </c>
       <c r="D1213" t="inlineStr">
         <is>
-          <t>meranti,bengkalis,dumai,pekanbaru,rokan hilir,siak,kampir</t>
+          <t>pekanbaru,siak,dumai,bengkalis,rokan hilir,meranti,kampir</t>
         </is>
       </c>
       <c r="E1213" t="inlineStr"/>
@@ -30933,7 +30909,7 @@
       </c>
       <c r="D1216" t="inlineStr">
         <is>
-          <t>ketapang,pekanbaru</t>
+          <t>pekanbaru,ketapang</t>
         </is>
       </c>
       <c r="E1216" t="inlineStr">
@@ -30987,12 +30963,12 @@
       </c>
       <c r="D1218" t="inlineStr">
         <is>
-          <t>indragiri hilir,bengkalis,aceh barat,dumai,kampar,pelalawan,rokan hilir,siak,pekanbaru,kuantan singingi</t>
+          <t>pekanbaru,siak,indragiri hilir,dumai,kampar,kuantan singingi,bengkalis,pelalawan,aceh barat,rokan hilir</t>
         </is>
       </c>
       <c r="E1218" t="inlineStr">
         <is>
-          <t>bubon,langgam,pelawan</t>
+          <t>pelawan,langgam,bubon</t>
         </is>
       </c>
     </row>
@@ -31097,12 +31073,12 @@
       </c>
       <c r="C1223" t="inlineStr">
         <is>
-          <t>sumatera utara,riau</t>
+          <t>riau,sumatera utara</t>
         </is>
       </c>
       <c r="D1223" t="inlineStr">
         <is>
-          <t>labuhanbatu utara,deli serdang,tapanuli tengah,sedang berdagai,karo,mandailing natal,tapanuli utara,asahan</t>
+          <t>labuhanbatu utara,tapanuli tengah,asahan,deli serdang,tapanuli utara,karo,mandailing natal,sedang berdagai</t>
         </is>
       </c>
       <c r="E1223" t="inlineStr"/>
@@ -31125,7 +31101,7 @@
       </c>
       <c r="D1224" t="inlineStr">
         <is>
-          <t>ketapang,kayong utara,sintang,melawi,kubu raya</t>
+          <t>kubu raya,melawi,sintang,ketapang,kayong utara</t>
         </is>
       </c>
       <c r="E1224" t="inlineStr"/>
@@ -31221,7 +31197,7 @@
       </c>
       <c r="D1228" t="inlineStr">
         <is>
-          <t>barito timur,katingan,kapuas,kotawaringin timur,gunung mas,barito utara,murung raya,barito selatan,seruyan,pulau pisang</t>
+          <t>barito utara,pulau pisang,kapuas,barito timur,waringin timur,gunung mas,murung raya,katingan,seruyan,barito selatan</t>
         </is>
       </c>
       <c r="E1228" t="inlineStr"/>
@@ -31244,7 +31220,7 @@
       </c>
       <c r="D1229" t="inlineStr">
         <is>
-          <t>indragiri hulu,bengkalis,dumai,kepulauan meranti,pelalawan,pekanbaru</t>
+          <t>pekanbaru,dumai,bengkalis,pelalawan,indragiri hulu,kepulauan meranti</t>
         </is>
       </c>
       <c r="E1229" t="inlineStr">
@@ -31425,12 +31401,12 @@
       </c>
       <c r="D1236" t="inlineStr">
         <is>
-          <t>indragiri hulu,bengkalis,rokan hulur,dumai,kampar,kepulauan meranti,pelalawan,pekanbaru,siak,rokan hilir</t>
+          <t>pekanbaru,siak,dumai,kampar,bengkalis,pelalawan,indragiri hulu,kepulauan meranti,rokan hilir,rokan hulur</t>
         </is>
       </c>
       <c r="E1236" t="inlineStr">
         <is>
-          <t>bunga raya,sungai apit</t>
+          <t>sungai apit,bunga raya</t>
         </is>
       </c>
     </row>
@@ -31512,12 +31488,12 @@
       </c>
       <c r="C1240" t="inlineStr">
         <is>
-          <t>sumatera selatan,jambi</t>
+          <t>jambi,sumatera selatan</t>
         </is>
       </c>
       <c r="D1240" t="inlineStr">
         <is>
-          <t>musi banyuasin,jambi</t>
+          <t>jambi,musi banyuasin</t>
         </is>
       </c>
       <c r="E1240" t="inlineStr">
@@ -31544,7 +31520,7 @@
       </c>
       <c r="D1241" t="inlineStr">
         <is>
-          <t>kotawaringin barat</t>
+          <t>waringin barat</t>
         </is>
       </c>
       <c r="E1241" t="inlineStr">
@@ -31632,7 +31608,7 @@
       </c>
       <c r="D1245" t="inlineStr">
         <is>
-          <t>lombok utara,lombok timur,kabupaten bima,dompu</t>
+          <t>lombok timur,bima,lombok utara,dompu</t>
         </is>
       </c>
       <c r="E1245" t="inlineStr">
@@ -31756,7 +31732,7 @@
       </c>
       <c r="E1250" t="inlineStr">
         <is>
-          <t>pangkalan lampam,pampangan,pendamaran timur</t>
+          <t>pangkalan lampam,pendamaran timur,pampangan</t>
         </is>
       </c>
     </row>
@@ -31990,7 +31966,7 @@
       </c>
       <c r="D1259" t="inlineStr">
         <is>
-          <t>indragiri hilir,bengkalis,dumai,kampar,pelalawan,rokan hilir,siak</t>
+          <t>siak,dumai,indragiri hilir,kampar,pelalawan,bengkalis,rokan hilir</t>
         </is>
       </c>
       <c r="E1259" t="inlineStr"/>
@@ -32013,12 +31989,12 @@
       </c>
       <c r="D1260" t="inlineStr">
         <is>
-          <t>meranti,bengkalis,pelalawan,rokan hilir,siak</t>
+          <t>siak,pelalawan,bengkalis,rokan hilir,meranti</t>
         </is>
       </c>
       <c r="E1260" t="inlineStr">
         <is>
-          <t>bengkalis,tebing tinggi,bantan,rangsang,siak</t>
+          <t>siak,bengkalis,bantan,tebing tinggi,rangsang</t>
         </is>
       </c>
     </row>
@@ -32035,12 +32011,12 @@
       </c>
       <c r="C1261" t="inlineStr">
         <is>
-          <t>sumatera utara,riau</t>
+          <t>riau,sumatera utara</t>
         </is>
       </c>
       <c r="D1261" t="inlineStr">
         <is>
-          <t>labuhanbatu,labuhanbatu selatan,labuhanbatu utara</t>
+          <t>labuhanbatu utara,labuhanbatu,labuhanbatu selatan</t>
         </is>
       </c>
       <c r="E1261" t="inlineStr"/>
@@ -32063,7 +32039,7 @@
       </c>
       <c r="D1262" t="inlineStr">
         <is>
-          <t>asmat,merauke,boven digoel,mappi</t>
+          <t>merauke,mappi,asmat,boven digoel</t>
         </is>
       </c>
       <c r="E1262" t="inlineStr"/>
@@ -32263,7 +32239,7 @@
       </c>
       <c r="D1270" t="inlineStr">
         <is>
-          <t>kepulauan merau,kepulauan meranti</t>
+          <t>kepulauan meranti,kepulauan merau</t>
         </is>
       </c>
       <c r="E1270" t="inlineStr">
@@ -32371,7 +32347,7 @@
       </c>
       <c r="D1274" t="inlineStr">
         <is>
-          <t>kabupaten mempawah</t>
+          <t>mempawah</t>
         </is>
       </c>
       <c r="E1274" t="inlineStr">
@@ -32417,7 +32393,7 @@
       </c>
       <c r="D1276" t="inlineStr">
         <is>
-          <t>kabupaten sanggau</t>
+          <t>sanggau</t>
         </is>
       </c>
       <c r="E1276" t="inlineStr">
@@ -32525,7 +32501,7 @@
       </c>
       <c r="D1280" t="inlineStr">
         <is>
-          <t>paser,kutai timur,berau,kutai barat,kutai kertanegara</t>
+          <t>berau,kutai timur,kutai barat,paser,kutai kertanegara</t>
         </is>
       </c>
       <c r="E1280" t="inlineStr">
@@ -32547,12 +32523,12 @@
       </c>
       <c r="C1281" t="inlineStr">
         <is>
-          <t>kepulauan riau,riau,sumatera selatan</t>
+          <t>riau,kepulauan riau,sumatera selatan</t>
         </is>
       </c>
       <c r="D1281" t="inlineStr">
         <is>
-          <t>batam,rumbai,pekanbaru,dumai</t>
+          <t>rumbai,pekanbaru,batam,dumai</t>
         </is>
       </c>
       <c r="E1281" t="inlineStr"/>
@@ -32570,7 +32546,7 @@
       </c>
       <c r="C1282" t="inlineStr">
         <is>
-          <t>riau,sumatera barat,jambi</t>
+          <t>jambi,riau,sumatera barat</t>
         </is>
       </c>
       <c r="D1282" t="inlineStr">
@@ -32620,7 +32596,7 @@
       </c>
       <c r="C1284" t="inlineStr">
         <is>
-          <t>sumatera utara,riau</t>
+          <t>riau,sumatera utara</t>
         </is>
       </c>
       <c r="D1284" t="inlineStr">
@@ -32819,7 +32795,7 @@
       </c>
       <c r="E1291" t="inlineStr">
         <is>
-          <t>tapalang barat,simboro</t>
+          <t>simboro,tapalang barat</t>
         </is>
       </c>
     </row>
@@ -33162,7 +33138,7 @@
       </c>
       <c r="E1304" t="inlineStr">
         <is>
-          <t>bonai darussalam,tambang</t>
+          <t>tambang,bonai darussalam</t>
         </is>
       </c>
     </row>
@@ -33184,7 +33160,7 @@
       </c>
       <c r="D1305" t="inlineStr">
         <is>
-          <t>meranti,bengkalis,dumai,pelalawan,rokan hilir,siak</t>
+          <t>siak,dumai,pelalawan,bengkalis,rokan hilir,meranti</t>
         </is>
       </c>
       <c r="E1305" t="inlineStr"/>
@@ -33226,7 +33202,7 @@
       </c>
       <c r="D1307" t="inlineStr">
         <is>
-          <t>indragiri hulu,bengkalis,kampar,dumai,rokan hulu,pelalawan,rokan hilir,siak,pekanbaru</t>
+          <t>pekanbaru,siak,dumai,rokan hulu,kampar,bengkalis,pelalawan,indragiri hulu,rokan hilir</t>
         </is>
       </c>
       <c r="E1307" t="inlineStr">
@@ -33258,7 +33234,7 @@
       </c>
       <c r="E1308" t="inlineStr">
         <is>
-          <t>pariangan,lintau buo,lima kaum,sungai tarab,rambatan,padang gantiang,salimpaung,tanjung emas</t>
+          <t>lima kaum,rambatan,lintau buo,pariangan,salimpaung,tanjung emas,padang gantiang,sungai tarab</t>
         </is>
       </c>
     </row>
@@ -33371,12 +33347,12 @@
       </c>
       <c r="C1313" t="inlineStr">
         <is>
-          <t>kepulauan riau,riau</t>
+          <t>riau,kepulauan riau</t>
         </is>
       </c>
       <c r="D1313" t="inlineStr">
         <is>
-          <t>indragiri hulu,indragiri hilir,bengkalis,tanjung pinang,dumai,kampar,pelalawan,kepulauan meranti,pekanbaru,kuantan singingi</t>
+          <t>tanjung pinang,pekanbaru,dumai,indragiri hilir,kampar,kuantan singingi,pelalawan,bengkalis,indragiri hulu,kepulauan meranti</t>
         </is>
       </c>
       <c r="E1313" t="inlineStr">
@@ -33476,7 +33452,7 @@
       </c>
       <c r="D1317" t="inlineStr">
         <is>
-          <t>indragiri hulu,indragiri hilir,bengkalis,dumai,kampar,pelalawan,kepulauan meranti,pekanbaru,kuantan singingi</t>
+          <t>pekanbaru,dumai,indragiri hilir,kampar,kuantan singingi,pelalawan,bengkalis,indragiri hulu,kepulauan meranti</t>
         </is>
       </c>
       <c r="E1317" t="inlineStr">
@@ -33526,7 +33502,7 @@
       </c>
       <c r="D1319" t="inlineStr">
         <is>
-          <t>limapuluh kota</t>
+          <t>limapuluh</t>
         </is>
       </c>
       <c r="E1319" t="inlineStr"/>
@@ -33608,7 +33584,7 @@
       </c>
       <c r="E1322" t="inlineStr">
         <is>
-          <t>air sugihan,cengal,pedamaran,indralaya</t>
+          <t>indralaya,air sugihan,cengal,pedamaran</t>
         </is>
       </c>
     </row>
@@ -33671,12 +33647,12 @@
       </c>
       <c r="C1325" t="inlineStr">
         <is>
-          <t>sumatera selatan,sumatera barat,jambi</t>
+          <t>jambi,sumatera selatan,sumatera barat</t>
         </is>
       </c>
       <c r="D1325" t="inlineStr">
         <is>
-          <t>agam,bukittinggi</t>
+          <t>bukittinggi,agam</t>
         </is>
       </c>
       <c r="E1325" t="inlineStr"/>
@@ -33717,12 +33693,12 @@
       </c>
       <c r="C1327" t="inlineStr">
         <is>
-          <t>aceh,sumatera utara,bengkulu,sumatera barat,riau</t>
+          <t>riau,bengkulu,sumatera utara,aceh,sumatera barat</t>
         </is>
       </c>
       <c r="D1327" t="inlineStr">
         <is>
-          <t>indragiri hilir,bengkalis,kampar,pelalawan,siak</t>
+          <t>siak,indragiri hilir,kampar,pelalawan,bengkalis</t>
         </is>
       </c>
       <c r="E1327" t="inlineStr"/>
@@ -33745,7 +33721,7 @@
       </c>
       <c r="D1328" t="inlineStr">
         <is>
-          <t>limapuluh kota</t>
+          <t>limapuluh</t>
         </is>
       </c>
       <c r="E1328" t="inlineStr">
@@ -33814,7 +33790,7 @@
       </c>
       <c r="D1331" t="inlineStr">
         <is>
-          <t>musi banyuasin,ogan ilir,ogan komering ilir,muara enim</t>
+          <t>ogan ilir,ogan komering ilir,musi banyuasin,muara enim</t>
         </is>
       </c>
       <c r="E1331" t="inlineStr"/>
@@ -34101,7 +34077,7 @@
       </c>
       <c r="C1343" t="inlineStr">
         <is>
-          <t>lampung,kalimantan tengah,aceh,kalimantan barat,sumatera utara,sumatera selatan,kalimantan selatan,jambi,riau</t>
+          <t>riau,lampung,sumatera utara,aceh,kalimantan selatan,jambi,kalimantan tengah,sumatera selatan,kalimantan barat</t>
         </is>
       </c>
       <c r="D1343" t="inlineStr"/>
@@ -34120,17 +34096,17 @@
       </c>
       <c r="C1344" t="inlineStr">
         <is>
-          <t>lampung,aceh,sumatera utara,bengkulu,sumatera barat,jambi,riau</t>
+          <t>lampung,bengkulu,riau,sumatera utara,aceh,sumatera barat,jambi</t>
         </is>
       </c>
       <c r="D1344" t="inlineStr">
         <is>
-          <t>indragiri hulu,kuantang singingi,kampar,rokan hulu,pelalawan,rokan hilir</t>
+          <t>kuantang singingi,kampar,rokan hulu,pelalawan,indragiri hulu,rokan hilir</t>
         </is>
       </c>
       <c r="E1344" t="inlineStr">
         <is>
-          <t>ukui,rengat,rokan iv koto</t>
+          <t>rokan iv koto,rengat,ukui</t>
         </is>
       </c>
     </row>
@@ -34189,17 +34165,17 @@
       </c>
       <c r="C1347" t="inlineStr">
         <is>
-          <t>lampung,aceh,sumatera utara,bengkulu,sumatera selatan,sumatera barat,jambi,riau</t>
+          <t>bengkulu,riau,lampung,sumatera utara,sumatera barat,aceh,jambi,sumatera selatan</t>
         </is>
       </c>
       <c r="D1347" t="inlineStr">
         <is>
-          <t>indragiri hulu,dumai,kampar,pelalawan,pelalawn,rokan hilir,kuantan singingi</t>
+          <t>dumai,kampar,kuantan singingi,pelalawan,pelalawn,indragiri hulu,rokan hilir</t>
         </is>
       </c>
       <c r="E1347" t="inlineStr">
         <is>
-          <t>kerumutan,kuala kampar,pasir limau kapas</t>
+          <t>pasir limau kapas,kuala kampar,kerumutan</t>
         </is>
       </c>
     </row>
@@ -34259,12 +34235,12 @@
       </c>
       <c r="D1350" t="inlineStr">
         <is>
-          <t>kediri,lamongan,sidoarjo,situbondo</t>
+          <t>sidoarjo,lamongan,situbondo,kediri</t>
         </is>
       </c>
       <c r="E1350" t="inlineStr">
         <is>
-          <t>kendit,purwosari,arjasa,balongbendo,mantup,kali tengah</t>
+          <t>kendit,mantup,kali tengah,purwosari,arjasa,balongbendo</t>
         </is>
       </c>
     </row>
@@ -34649,7 +34625,7 @@
       </c>
       <c r="E1365" t="inlineStr">
         <is>
-          <t>wongsorejo,tegaldimo,bongorejo</t>
+          <t>bongorejo,wongsorejo,tegaldimo</t>
         </is>
       </c>
     </row>
@@ -34676,7 +34652,7 @@
       </c>
       <c r="E1366" t="inlineStr">
         <is>
-          <t>kediri,marga,tabanan</t>
+          <t>marga,tabanan,kediri</t>
         </is>
       </c>
     </row>
@@ -34703,7 +34679,7 @@
       </c>
       <c r="E1367" t="inlineStr">
         <is>
-          <t>sawan,buleleng,seririt,sukasada</t>
+          <t>seririt,sawan,sukasada,buleleng</t>
         </is>
       </c>
     </row>
@@ -34730,7 +34706,7 @@
       </c>
       <c r="E1368" t="inlineStr">
         <is>
-          <t>banjar,seririt</t>
+          <t>seririt,banjar</t>
         </is>
       </c>
     </row>
@@ -34757,7 +34733,7 @@
       </c>
       <c r="E1369" t="inlineStr">
         <is>
-          <t>desa juntal,desa gianyar</t>
+          <t>desa gianyar,desa juntal</t>
         </is>
       </c>
     </row>
@@ -34784,7 +34760,7 @@
       </c>
       <c r="E1370" t="inlineStr">
         <is>
-          <t>kediri,tabanan</t>
+          <t>tabanan,kediri</t>
         </is>
       </c>
     </row>
@@ -34838,7 +34814,7 @@
       </c>
       <c r="E1372" t="inlineStr">
         <is>
-          <t>banjar,seririt</t>
+          <t>seririt,banjar</t>
         </is>
       </c>
     </row>
@@ -34942,7 +34918,7 @@
       </c>
       <c r="E1376" t="inlineStr">
         <is>
-          <t>barambai,mekarsari,danau salak</t>
+          <t>danau salak,barambai,mekarsari</t>
         </is>
       </c>
     </row>
@@ -34969,7 +34945,7 @@
       </c>
       <c r="E1377" t="inlineStr">
         <is>
-          <t>tanara,cikande,kibin,binuang,carenang,pontang,bandung,tirtayasa</t>
+          <t>tirtayasa,carenang,cikande,binuang,bandung,pontang,tanara,kibin</t>
         </is>
       </c>
     </row>
@@ -34991,12 +34967,12 @@
       </c>
       <c r="D1378" t="inlineStr">
         <is>
-          <t>kabupaten tangerang</t>
+          <t>tangerang</t>
         </is>
       </c>
       <c r="E1378" t="inlineStr">
         <is>
-          <t>mauk,solear,panongan</t>
+          <t>solear,panongan,mauk</t>
         </is>
       </c>
     </row>
@@ -35050,7 +35026,7 @@
       </c>
       <c r="E1380" t="inlineStr">
         <is>
-          <t>tirtayasa,pontang</t>
+          <t>pontang,tirtayasa</t>
         </is>
       </c>
     </row>
@@ -35072,12 +35048,12 @@
       </c>
       <c r="D1381" t="inlineStr">
         <is>
-          <t>tangerang,lebak,pandeglang,serang</t>
+          <t>tangerang,pandeglang,lebak,serang</t>
         </is>
       </c>
       <c r="E1381" t="inlineStr">
         <is>
-          <t>cimanggu,cigeulis,cisat,sumur,parungpanjang,angsana,parungsari,cipedang,patia,sindangresmi,cibaliung,saketi,panimbang,bojong,mandalawangi,wanasalam,cibitung,sosbaang,picung,cisarap,cipeucang,sukaresmi,cikeusik,pagelaran,munjul,carita</t>
+          <t>cipeucang,panimbang,cisarap,sindangresmi,cimanggu,cibaliung,cisat,munjul,pagelaran,wanasalam,parungsari,picung,bojong,saketi,parungpanjang,sumur,cibitung,sukaresmi,angsana,patia,mandalawangi,cigeulis,cikeusik,cipedang,sosbaang,carita</t>
         </is>
       </c>
     </row>
@@ -35173,7 +35149,7 @@
       </c>
       <c r="E1385" t="inlineStr">
         <is>
-          <t>panimbang,bojong,sukaresmi,munjul,angsana,patia,picung,sidangresmi</t>
+          <t>panimbang,sukaresmi,sidangresmi,picung,bojong,munjul,angsana,patia</t>
         </is>
       </c>
     </row>
@@ -35244,7 +35220,7 @@
       </c>
       <c r="C1388" t="inlineStr">
         <is>
-          <t>bali,nusa tenggara timur,jawa tengah,jawa barat,nusa tenggara barat</t>
+          <t>jawa barat,nusa tenggara barat,nusa tenggara timur,bali,jawa tengah</t>
         </is>
       </c>
       <c r="D1388" t="inlineStr"/>
@@ -35268,7 +35244,7 @@
       </c>
       <c r="D1389" t="inlineStr">
         <is>
-          <t>pandeglang,kabupaten tangerang,serang</t>
+          <t>tangerang,pandeglang,serang</t>
         </is>
       </c>
       <c r="E1389" t="inlineStr"/>
@@ -35291,7 +35267,7 @@
       </c>
       <c r="D1390" t="inlineStr">
         <is>
-          <t>kota tangerang</t>
+          <t>tangerang</t>
         </is>
       </c>
       <c r="E1390" t="inlineStr">
@@ -35318,7 +35294,7 @@
       </c>
       <c r="D1391" t="inlineStr">
         <is>
-          <t>kabupaten tangerang</t>
+          <t>tangerang</t>
         </is>
       </c>
       <c r="E1391" t="inlineStr">
@@ -35423,7 +35399,7 @@
       </c>
       <c r="E1395" t="inlineStr">
         <is>
-          <t>pagedangan,kresek,mauk,curug,legok,panongan,teluknaga,tigaraksa,kosambi</t>
+          <t>kresek,mauk,panongan,legok,teluknaga,curug,pagedangan,kosambi,tigaraksa</t>
         </is>
       </c>
     </row>
@@ -35472,12 +35448,12 @@
       </c>
       <c r="D1397" t="inlineStr">
         <is>
-          <t>kabupaten tangerang</t>
+          <t>tangerang</t>
         </is>
       </c>
       <c r="E1397" t="inlineStr">
         <is>
-          <t>rajeg,kresek,mauk,curug,legok,panongan,jambe,teluknaga,tigaraksa,kosambi</t>
+          <t>kresek,mauk,rajeg,panongan,jambe,legok,teluknaga,curug,kosambi,tigaraksa</t>
         </is>
       </c>
     </row>
@@ -35504,7 +35480,7 @@
       </c>
       <c r="E1398" t="inlineStr">
         <is>
-          <t>patuk,purwosari,paliyan,semanu,tepus,ngawen,girisubo,ponjong,semin,rongkop</t>
+          <t>semin,patuk,paliyan,tepus,ngawen,ponjong,purwosari,semanu,girisubo,rongkop</t>
         </is>
       </c>
     </row>
@@ -35888,12 +35864,12 @@
       </c>
       <c r="D1413" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1413" t="inlineStr">
         <is>
-          <t>tenjo,citeureup,rancabungur,ciampea,sukajaya,klapanunggal</t>
+          <t>citeureup,klapanunggal,ciampea,sukajaya,rancabungur,tenjo</t>
         </is>
       </c>
     </row>
@@ -35942,7 +35918,7 @@
       </c>
       <c r="D1415" t="inlineStr">
         <is>
-          <t>kabupaten gorontalo</t>
+          <t>gorontalo</t>
         </is>
       </c>
       <c r="E1415" t="inlineStr">
@@ -35974,7 +35950,7 @@
       </c>
       <c r="E1416" t="inlineStr">
         <is>
-          <t>bulango timur,kabila bone,suawawa selatan,suwawa</t>
+          <t>bulango timur,suawawa selatan,suwawa,kabila bone</t>
         </is>
       </c>
     </row>
@@ -35996,7 +35972,7 @@
       </c>
       <c r="D1417" t="inlineStr">
         <is>
-          <t>boalemo,kabupaten gorontalo,bone bolango</t>
+          <t>bone bolango,gorontalo,boalemo</t>
         </is>
       </c>
       <c r="E1417" t="inlineStr"/>
@@ -36019,7 +35995,7 @@
       </c>
       <c r="D1418" t="inlineStr">
         <is>
-          <t>kota gorontalo</t>
+          <t>gorontalo</t>
         </is>
       </c>
       <c r="E1418" t="inlineStr">
@@ -36073,7 +36049,7 @@
       </c>
       <c r="D1420" t="inlineStr">
         <is>
-          <t>kabupaten tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E1420" t="inlineStr">
@@ -36100,7 +36076,7 @@
       </c>
       <c r="D1421" t="inlineStr">
         <is>
-          <t>kota tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E1421" t="inlineStr">
@@ -36127,7 +36103,7 @@
       </c>
       <c r="D1422" t="inlineStr">
         <is>
-          <t>kota tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E1422" t="inlineStr">
@@ -36154,12 +36130,12 @@
       </c>
       <c r="D1423" t="inlineStr">
         <is>
-          <t>kabupaten tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E1423" t="inlineStr">
         <is>
-          <t>bojongasih,cikatomas,cipatujah,cikalong,culamega,bojonggambir,puspahiang,parungponteng,karangnunggal,sodonghilir,cibalong,taraju</t>
+          <t>karangnunggal,parungponteng,bojonggambir,cikalong,bojongasih,cipatujah,sodonghilir,culamega,taraju,puspahiang,cibalong,cikatomas</t>
         </is>
       </c>
     </row>
@@ -36181,7 +36157,7 @@
       </c>
       <c r="D1424" t="inlineStr">
         <is>
-          <t>kabupaten tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E1424" t="inlineStr">
@@ -36208,7 +36184,7 @@
       </c>
       <c r="D1425" t="inlineStr">
         <is>
-          <t>kabupaten garut</t>
+          <t>garut</t>
         </is>
       </c>
       <c r="E1425" t="inlineStr">
@@ -36235,12 +36211,12 @@
       </c>
       <c r="D1426" t="inlineStr">
         <is>
-          <t>kota tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E1426" t="inlineStr">
         <is>
-          <t>indihiang,kawalu,purbaratu,tamansari</t>
+          <t>kawalu,purbaratu,tamansari,indihiang</t>
         </is>
       </c>
     </row>
@@ -36262,7 +36238,7 @@
       </c>
       <c r="D1427" t="inlineStr">
         <is>
-          <t>kabupaten tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E1427" t="inlineStr">
@@ -36389,7 +36365,7 @@
       </c>
       <c r="D1432" t="inlineStr">
         <is>
-          <t>kabupaten bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E1432" t="inlineStr">
@@ -36516,7 +36492,7 @@
       </c>
       <c r="D1437" t="inlineStr">
         <is>
-          <t>kabupaten tanggerang</t>
+          <t>tanggerang</t>
         </is>
       </c>
       <c r="E1437" t="inlineStr"/>
@@ -36620,12 +36596,12 @@
       </c>
       <c r="D1441" t="inlineStr">
         <is>
-          <t>kabupaten bekasi</t>
+          <t>bekasi</t>
         </is>
       </c>
       <c r="E1441" t="inlineStr">
         <is>
-          <t>bojongmangu,cikarang selatan,serang baru,cibarusah</t>
+          <t>serang baru,bojongmangu,cibarusah,cikarang selatan</t>
         </is>
       </c>
     </row>
@@ -36647,7 +36623,7 @@
       </c>
       <c r="D1442" t="inlineStr">
         <is>
-          <t>kabupaten bekasi</t>
+          <t>bekasi</t>
         </is>
       </c>
       <c r="E1442" t="inlineStr">
@@ -36701,7 +36677,7 @@
       </c>
       <c r="D1444" t="inlineStr">
         <is>
-          <t>kabupaten bekasi</t>
+          <t>bekasi</t>
         </is>
       </c>
       <c r="E1444" t="inlineStr">
@@ -36755,7 +36731,7 @@
       </c>
       <c r="D1446" t="inlineStr">
         <is>
-          <t>kabupaten tangerang</t>
+          <t>tangerang</t>
         </is>
       </c>
       <c r="E1446" t="inlineStr"/>
@@ -36859,12 +36835,12 @@
       </c>
       <c r="D1450" t="inlineStr">
         <is>
-          <t>kabupaten tegal</t>
+          <t>tegal</t>
         </is>
       </c>
       <c r="E1450" t="inlineStr">
         <is>
-          <t>suradadi,warureja</t>
+          <t>warureja,suradadi</t>
         </is>
       </c>
     </row>
@@ -36891,7 +36867,7 @@
       </c>
       <c r="E1451" t="inlineStr">
         <is>
-          <t>wonokerto,karanganyar,karangdadap,kedungwuni,paninggaran,sragi,doro,kandangserang,wonopringgo,kesesi,kajen</t>
+          <t>karangdadap,kedungwuni,karanganyar,wonokerto,wonopringgo,paninggaran,kandangserang,sragi,kajen,kesesi,doro</t>
         </is>
       </c>
     </row>
@@ -36963,7 +36939,7 @@
       </c>
       <c r="D1454" t="inlineStr">
         <is>
-          <t>kabupaten tegal</t>
+          <t>tegal</t>
         </is>
       </c>
       <c r="E1454" t="inlineStr">
@@ -36990,12 +36966,12 @@
       </c>
       <c r="D1455" t="inlineStr">
         <is>
-          <t>kabupaten tegal</t>
+          <t>tegal</t>
         </is>
       </c>
       <c r="E1455" t="inlineStr">
         <is>
-          <t>warureja,kramat,suradadi,jatinegara</t>
+          <t>warureja,jatinegara,suradadi,kramat</t>
         </is>
       </c>
     </row>
@@ -37076,7 +37052,7 @@
       </c>
       <c r="E1458" t="inlineStr">
         <is>
-          <t>kwanyar,geger,tanah merah,klampis,konang,modung,kokop,galis,arosbaya</t>
+          <t>tanah merah,klampis,modung,arosbaya,kwanyar,geger,konang,galis,kokop</t>
         </is>
       </c>
     </row>
@@ -37125,12 +37101,12 @@
       </c>
       <c r="D1460" t="inlineStr">
         <is>
-          <t>lombok timur,gunungkidul</t>
+          <t>gunungkidul,lombok timur</t>
         </is>
       </c>
       <c r="E1460" t="inlineStr">
         <is>
-          <t>rongkop,girisubo</t>
+          <t>girisubo,rongkop</t>
         </is>
       </c>
     </row>
@@ -37157,7 +37133,7 @@
       </c>
       <c r="E1461" t="inlineStr">
         <is>
-          <t>patuk,semanu,tepus,karangmojo,tanjungsari,ngawen,gedangsari,nglipar,semin,ponjong,rongkop</t>
+          <t>semin,patuk,karangmojo,ngawen,ponjong,nglipar,gedangsari,tepus,semanu,tanjungsari,rongkop</t>
         </is>
       </c>
     </row>
@@ -37238,7 +37214,7 @@
       </c>
       <c r="E1464" t="inlineStr">
         <is>
-          <t>panggang,purwosari,tepus,saptosari,tanjungsari,gendangsari,ngawen,girisubo,rongkop</t>
+          <t>saptosari,gendangsari,panggang,tepus,ngawen,purwosari,tanjungsari,girisubo,rongkop</t>
         </is>
       </c>
     </row>
@@ -37310,12 +37286,12 @@
       </c>
       <c r="D1467" t="inlineStr">
         <is>
-          <t>grobongan,gunungkidul</t>
+          <t>gunungkidul,grobongan</t>
         </is>
       </c>
       <c r="E1467" t="inlineStr">
         <is>
-          <t>gundih,sragen,panggang</t>
+          <t>gundih,panggang,sragen</t>
         </is>
       </c>
     </row>
@@ -37342,7 +37318,7 @@
       </c>
       <c r="E1468" t="inlineStr">
         <is>
-          <t>piyungan,imogiri,dlingo</t>
+          <t>dlingo,imogiri,piyungan</t>
         </is>
       </c>
     </row>
@@ -37369,7 +37345,7 @@
       </c>
       <c r="E1469" t="inlineStr">
         <is>
-          <t>panggang,purwosari,paliyan,tepus,tanjungsari,girisubo,rongkop</t>
+          <t>panggang,paliyan,tepus,purwosari,tanjungsari,girisubo,rongkop</t>
         </is>
       </c>
     </row>
@@ -37418,7 +37394,7 @@
       </c>
       <c r="D1471" t="inlineStr">
         <is>
-          <t>kabupaten magelang</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="E1471" t="inlineStr">
@@ -37445,7 +37421,7 @@
       </c>
       <c r="D1472" t="inlineStr">
         <is>
-          <t>banyuwangi,lumajang,probolinggo,bondowoso,jember,situbondo</t>
+          <t>situbondo,bondowoso,banyuwangi,jember,probolinggo,lumajang</t>
         </is>
       </c>
       <c r="E1472" t="inlineStr">
@@ -37472,12 +37448,12 @@
       </c>
       <c r="D1473" t="inlineStr">
         <is>
-          <t>kabupaten magelang</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="E1473" t="inlineStr">
         <is>
-          <t>tegalrejo,tempuran,bandongan,borobudur,grabag,salaman</t>
+          <t>grabag,tegalrejo,borobudur,tempuran,salaman,bandongan</t>
         </is>
       </c>
     </row>
@@ -37499,12 +37475,12 @@
       </c>
       <c r="D1474" t="inlineStr">
         <is>
-          <t>kulonprogo,gunung kidul</t>
+          <t>gunung kidul,kulonprogo</t>
         </is>
       </c>
       <c r="E1474" t="inlineStr">
         <is>
-          <t>girimulyo,samigaluh,purwosari,nanggulan,tepus,kalibawang,gendangsari,ngawen,sentolo</t>
+          <t>sentolo,girimulyo,nanggulan,gendangsari,tepus,ngawen,purwosari,samigaluh,kalibawang</t>
         </is>
       </c>
     </row>
@@ -37684,7 +37660,7 @@
       </c>
       <c r="D1481" t="inlineStr">
         <is>
-          <t>kotawaringin timur</t>
+          <t>waringin timur</t>
         </is>
       </c>
       <c r="E1481" t="inlineStr">
@@ -37711,7 +37687,7 @@
       </c>
       <c r="D1482" t="inlineStr">
         <is>
-          <t>kotawaringin timur</t>
+          <t>waringin timur</t>
         </is>
       </c>
       <c r="E1482" t="inlineStr">
@@ -37766,7 +37742,7 @@
       </c>
       <c r="E1484" t="inlineStr">
         <is>
-          <t>gunung tabur,teluk bayur</t>
+          <t>teluk bayur,gunung tabur</t>
         </is>
       </c>
     </row>
@@ -37847,7 +37823,7 @@
       </c>
       <c r="E1487" t="inlineStr">
         <is>
-          <t>wolowae,boawae,aesesa</t>
+          <t>boawae,aesesa,wolowae</t>
         </is>
       </c>
     </row>
@@ -37869,7 +37845,7 @@
       </c>
       <c r="D1488" t="inlineStr">
         <is>
-          <t>kabupaten kupang</t>
+          <t>kupang</t>
         </is>
       </c>
       <c r="E1488" t="inlineStr"/>
@@ -37920,7 +37896,7 @@
       </c>
       <c r="E1490" t="inlineStr">
         <is>
-          <t>pagelaran,pringseu,adiluwih,sukoharjo</t>
+          <t>adiluwih,pringseu,sukoharjo,pagelaran</t>
         </is>
       </c>
     </row>
@@ -37942,7 +37918,7 @@
       </c>
       <c r="D1491" t="inlineStr">
         <is>
-          <t>kota bekasi</t>
+          <t>bekasi</t>
         </is>
       </c>
       <c r="E1491" t="inlineStr">
@@ -37969,7 +37945,7 @@
       </c>
       <c r="D1492" t="inlineStr">
         <is>
-          <t>kabupaten bojonegoro</t>
+          <t>bojonegoro</t>
         </is>
       </c>
       <c r="E1492" t="inlineStr"/>
@@ -38019,7 +37995,7 @@
       </c>
       <c r="D1494" t="inlineStr">
         <is>
-          <t>ngawi,lamongan,sampang</t>
+          <t>lamongan,sampang,ngawi</t>
         </is>
       </c>
       <c r="E1494" t="inlineStr">
@@ -38046,7 +38022,7 @@
       </c>
       <c r="D1495" t="inlineStr">
         <is>
-          <t>kabupaten pamekasan</t>
+          <t>pamekasan</t>
         </is>
       </c>
       <c r="E1495" t="inlineStr"/>
@@ -38069,7 +38045,7 @@
       </c>
       <c r="D1496" t="inlineStr">
         <is>
-          <t>kabupaten malang</t>
+          <t>malang</t>
         </is>
       </c>
       <c r="E1496" t="inlineStr">
@@ -38128,7 +38104,7 @@
       </c>
       <c r="E1498" t="inlineStr">
         <is>
-          <t>pasean,kadur</t>
+          <t>kadur,pasean</t>
         </is>
       </c>
     </row>
@@ -38178,7 +38154,7 @@
       </c>
       <c r="E1500" t="inlineStr">
         <is>
-          <t>rabatal,kedungdung,tambelangan,sokobanah</t>
+          <t>tambelangan,kedungdung,rabatal,sokobanah</t>
         </is>
       </c>
     </row>
@@ -38227,7 +38203,7 @@
       </c>
       <c r="D1502" t="inlineStr">
         <is>
-          <t>kabupaten pamekasan</t>
+          <t>pamekasan</t>
         </is>
       </c>
       <c r="E1502" t="inlineStr"/>
@@ -38250,7 +38226,7 @@
       </c>
       <c r="D1503" t="inlineStr">
         <is>
-          <t>pasuruan,winongan,lumbang,gempol,lekok dan</t>
+          <t>pasuruan,winongan,lekok dan,gempol,lumbang</t>
         </is>
       </c>
       <c r="E1503" t="inlineStr">
@@ -38277,7 +38253,7 @@
       </c>
       <c r="D1504" t="inlineStr">
         <is>
-          <t>kabupaten malang</t>
+          <t>malang</t>
         </is>
       </c>
       <c r="E1504" t="inlineStr">
@@ -38309,7 +38285,7 @@
       </c>
       <c r="E1505" t="inlineStr">
         <is>
-          <t>campurdarat,bandung,pakel,basuki</t>
+          <t>campurdarat,basuki,bandung,pakel</t>
         </is>
       </c>
     </row>
@@ -38331,7 +38307,7 @@
       </c>
       <c r="D1506" t="inlineStr">
         <is>
-          <t>kota batu</t>
+          <t>batu</t>
         </is>
       </c>
       <c r="E1506" t="inlineStr">
@@ -38363,7 +38339,7 @@
       </c>
       <c r="E1507" t="inlineStr">
         <is>
-          <t>puspo,grati,kejayan,pasrepan,lekok,winongan,lumbang</t>
+          <t>pasrepan,winongan,grati,kejayan,lekok,puspo,lumbang</t>
         </is>
       </c>
     </row>
@@ -38385,7 +38361,7 @@
       </c>
       <c r="D1508" t="inlineStr">
         <is>
-          <t>lamongan,ngawi,pacitan,sampang,tuban</t>
+          <t>sampang,pacitan,tuban,lamongan,ngawi</t>
         </is>
       </c>
       <c r="E1508" t="inlineStr">
@@ -38439,7 +38415,7 @@
       </c>
       <c r="D1510" t="inlineStr">
         <is>
-          <t>kabupaten malang</t>
+          <t>malang</t>
         </is>
       </c>
       <c r="E1510" t="inlineStr">
@@ -38493,12 +38469,12 @@
       </c>
       <c r="D1512" t="inlineStr">
         <is>
-          <t>kota blitar</t>
+          <t>blitar</t>
         </is>
       </c>
       <c r="E1512" t="inlineStr">
         <is>
-          <t>sukorejo,kepanjengkidul,senandwetan</t>
+          <t>kepanjengkidul,sukorejo,senandwetan</t>
         </is>
       </c>
     </row>
@@ -38552,7 +38528,7 @@
       </c>
       <c r="E1514" t="inlineStr">
         <is>
-          <t>baguala,sirimau,teluk ambon,nusaniwe</t>
+          <t>teluk ambon,nusaniwe,sirimau,baguala</t>
         </is>
       </c>
     </row>
@@ -38579,7 +38555,7 @@
       </c>
       <c r="E1515" t="inlineStr">
         <is>
-          <t>baguala,sirimau,teluk ambon,nusaniwe</t>
+          <t>teluk ambon,nusaniwe,sirimau,baguala</t>
         </is>
       </c>
     </row>
@@ -38697,12 +38673,12 @@
       </c>
       <c r="D1520" t="inlineStr">
         <is>
-          <t>kota tomohon,boolang mongondow</t>
+          <t>boolang mongondow,tomohon</t>
         </is>
       </c>
       <c r="E1520" t="inlineStr">
         <is>
-          <t>sangtombolang,passi barat</t>
+          <t>passi barat,sangtombolang</t>
         </is>
       </c>
     </row>
@@ -38756,7 +38732,7 @@
       </c>
       <c r="E1522" t="inlineStr">
         <is>
-          <t>patuk,purwosari,paliyan,semanu,tepus,ngawen,girisubo,ponjong,semin,rongkop</t>
+          <t>semin,patuk,paliyan,tepus,ngawen,ponjong,purwosari,semanu,girisubo,rongkop</t>
         </is>
       </c>
     </row>
@@ -38783,7 +38759,7 @@
       </c>
       <c r="E1523" t="inlineStr">
         <is>
-          <t>patuk,panggang,purwosari,paliyan,semanu,tepus,gendangsari,ngawen,tanjungsari,girisubo,ponjong,semin,nglipar,rongkop</t>
+          <t>semin,patuk,panggang,paliyan,gendangsari,tepus,ngawen,ponjong,purwosari,semanu,nglipar,tanjungsari,girisubo,rongkop</t>
         </is>
       </c>
     </row>
@@ -38810,7 +38786,7 @@
       </c>
       <c r="E1524" t="inlineStr">
         <is>
-          <t>paliyan,rongkop,girisubo</t>
+          <t>girisubo,paliyan,rongkop</t>
         </is>
       </c>
     </row>
@@ -38891,7 +38867,7 @@
       </c>
       <c r="E1527" t="inlineStr">
         <is>
-          <t>cikakak,gunungguruh,waluran,parungkuda,kabandungan,cibadak,lekong,bantargadung,warungkiara</t>
+          <t>gunungguruh,bantargadung,warungkiara,parungkuda,cikakak,lekong,waluran,kabandungan,cibadak</t>
         </is>
       </c>
     </row>
@@ -38918,7 +38894,7 @@
       </c>
       <c r="E1528" t="inlineStr">
         <is>
-          <t>semanu,ngawen,gedangsari,girisubo,rongkop</t>
+          <t>ngawen,semanu,gedangsari,girisubo,rongkop</t>
         </is>
       </c>
     </row>
@@ -38940,12 +38916,12 @@
       </c>
       <c r="D1529" t="inlineStr">
         <is>
-          <t>kabupaten blitar</t>
+          <t>blitar</t>
         </is>
       </c>
       <c r="E1529" t="inlineStr">
         <is>
-          <t>wates,wonotirto,panggungrejo,binangun,bakung,kademangan</t>
+          <t>kademangan,wonotirto,binangun,bakung,panggungrejo,wates</t>
         </is>
       </c>
     </row>
@@ -39021,7 +38997,7 @@
       </c>
       <c r="D1532" t="inlineStr">
         <is>
-          <t>sumbawa barat,sumbawa,bima,kota bima,dompu,lombok tengah,lombok timur,lombok barat,lombok utara</t>
+          <t>lombok timur,sumbawa barat,dompu,lombok tengah,sumbawa,lombok barat,bima,lombok utara</t>
         </is>
       </c>
       <c r="E1532" t="inlineStr"/>
@@ -39076,7 +39052,7 @@
       </c>
       <c r="E1534" t="inlineStr">
         <is>
-          <t>jereweh,poto tano,taliwang,seteluk</t>
+          <t>jereweh,taliwang,seteluk,poto tano</t>
         </is>
       </c>
     </row>
@@ -39125,12 +39101,12 @@
       </c>
       <c r="D1536" t="inlineStr">
         <is>
-          <t>sumbawa barat,sumbawa,bima,dompa,lombok tengah,lombok barat</t>
+          <t>dompa,sumbawa barat,lombok tengah,bima,lombok barat,sumbawa</t>
         </is>
       </c>
       <c r="E1536" t="inlineStr">
         <is>
-          <t>praya tengah,seteluk</t>
+          <t>seteluk,praya tengah</t>
         </is>
       </c>
     </row>
@@ -39179,12 +39155,12 @@
       </c>
       <c r="D1538" t="inlineStr">
         <is>
-          <t>sumbawa barat,sumbawa,kota bima,dompu,lombok tengah,lombok timur,lombok barat,kabupaten bima,lombok utara</t>
+          <t>lombok timur,sumbawa barat,dompu,lombok tengah,sumbawa,lombok barat,bima,lombok utara</t>
         </is>
       </c>
       <c r="E1538" t="inlineStr">
         <is>
-          <t>praya barat daya,sakra barat,lombok haji,praya timur,sambalia,pujut,bayan,batu lanteh,kempo,praya barat,hu'u,sakra timur,kilo,poto tano,lenangguar,empang,kayangan,alas,praya tengah,lunyuk,janapria,lembar,maluk,jereweh,keruak,taliwang,plampang,lape,ambalawi,sape,sekotong,sakra,seteluk,utan,lopok</t>
+          <t>kayangan,praya barat daya,lembar,sakra timur,keruak,sakra barat,lape,sambalia,jereweh,lopok,praya barat,sape,utan,lunyuk,plampang,sekotong,kempo,taliwang,bayan,maluk,ambalawi,praya timur,lenangguar,janapria,pujut,sakra,alas,praya tengah,hu'u,poto tano,empang,lombok haji,seteluk,kilo,batu lanteh</t>
         </is>
       </c>
     </row>
@@ -39238,7 +39214,7 @@
       </c>
       <c r="E1540" t="inlineStr">
         <is>
-          <t>keruak,sakra barat,jerowaru</t>
+          <t>keruak,jerowaru,sakra barat</t>
         </is>
       </c>
     </row>
@@ -39287,12 +39263,12 @@
       </c>
       <c r="D1542" t="inlineStr">
         <is>
-          <t>kabupaten bima</t>
+          <t>bima</t>
         </is>
       </c>
       <c r="E1542" t="inlineStr">
         <is>
-          <t>soromandi,donggo,madapanga</t>
+          <t>donggo,madapanga,soromandi</t>
         </is>
       </c>
     </row>
@@ -39319,7 +39295,7 @@
       </c>
       <c r="E1543" t="inlineStr">
         <is>
-          <t>sekotong,lembar,kuripan</t>
+          <t>kuripan,sekotong,lembar</t>
         </is>
       </c>
     </row>
@@ -39341,7 +39317,7 @@
       </c>
       <c r="D1544" t="inlineStr">
         <is>
-          <t>sumbawa barat,sumbawa,bima,lombok tengah,lombok timur,lombok barat,kabupaten bima,lombok utara</t>
+          <t>lombok timur,sumbawa barat,lombok tengah,sumbawa,lombok barat,bima,lombok utara</t>
         </is>
       </c>
       <c r="E1544" t="inlineStr"/>
@@ -39491,7 +39467,7 @@
       </c>
       <c r="D1550" t="inlineStr">
         <is>
-          <t>flores timur,ende,sikka,lembata,negekeo,sumba timur,belu</t>
+          <t>negekeo,sumba timur,belu,ende,lembata,flores timur,sikka</t>
         </is>
       </c>
       <c r="E1550" t="inlineStr">
@@ -39518,7 +39494,7 @@
       </c>
       <c r="D1551" t="inlineStr">
         <is>
-          <t>lombok tengah,lombok timur,sumbawa</t>
+          <t>sumbawa,lombok timur,lombok tengah</t>
         </is>
       </c>
       <c r="E1551" t="inlineStr"/>
@@ -39627,7 +39603,7 @@
       </c>
       <c r="E1555" t="inlineStr">
         <is>
-          <t>wedung,guntur,karangawen,karanganyar,karangtengah,mijen,mranggen,kebonagung,dempet,bonang,demak kota,wonosolam,gajah</t>
+          <t>mijen,wonosolam,dempet,karanganyar,bonang,kebonagung,demak kota,karangawen,karangtengah,guntur,wedung,mranggen,gajah</t>
         </is>
       </c>
     </row>
@@ -39750,7 +39726,7 @@
       </c>
       <c r="E1560" t="inlineStr">
         <is>
-          <t>sumberlawang,jenar,sukodono</t>
+          <t>sukodono,sumberlawang,jenar</t>
         </is>
       </c>
     </row>
@@ -39777,7 +39753,7 @@
       </c>
       <c r="E1561" t="inlineStr">
         <is>
-          <t>andong,tamansari,selo,gladagsari,kemusu,musuk,juwangi,klego,boyolali,karanggede,wonosegoro,wonosamodro</t>
+          <t>klego,musuk,kemusu,wonosamodro,juwangi,wonosegoro,karanggede,tamansari,gladagsari,selo,andong,boyolali</t>
         </is>
       </c>
     </row>
@@ -40007,7 +39983,7 @@
       </c>
       <c r="D1570" t="inlineStr">
         <is>
-          <t>kota sawahlunto</t>
+          <t>sawahlunto</t>
         </is>
       </c>
       <c r="E1570" t="inlineStr">
@@ -40039,7 +40015,7 @@
       </c>
       <c r="E1571" t="inlineStr">
         <is>
-          <t>muncang,wanasalam,kalanganyar,bayah,cibadak,sobang,curugbitung,maja,warunggunung,cilograng,cimarga,leuwidamar</t>
+          <t>sobang,bayah,warunggunung,maja,leuwidamar,cimarga,wanasalam,cilograng,curugbitung,kalanganyar,muncang,cibadak</t>
         </is>
       </c>
     </row>
@@ -40197,7 +40173,7 @@
       </c>
       <c r="E1577" t="inlineStr">
         <is>
-          <t>simanindo,palipi</t>
+          <t>palipi,simanindo</t>
         </is>
       </c>
     </row>
@@ -40251,7 +40227,7 @@
       </c>
       <c r="E1579" t="inlineStr">
         <is>
-          <t>bakung,wonotirto,panggungrejo</t>
+          <t>wonotirto,bakung,panggungrejo</t>
         </is>
       </c>
     </row>
@@ -40355,7 +40331,7 @@
       </c>
       <c r="E1583" t="inlineStr">
         <is>
-          <t>cerme,menganti,sidayu,duduksampeyan,benjeng,balongpanggang,kedamean,dukun,bungah</t>
+          <t>dukun,menganti,benjeng,kedamean,cerme,duduksampeyan,bungah,balongpanggang,sidayu</t>
         </is>
       </c>
     </row>
@@ -40432,7 +40408,7 @@
       </c>
       <c r="E1586" t="inlineStr">
         <is>
-          <t>lamongan,modo,glagah,sarirejo,sambeng,mantup,kedungpring,brondong,karangbinangun,babat,bluluk,kembangbahu,sukorame,sukodadi,tikung,sugio</t>
+          <t>babat,karangbinangun,modo,kedungpring,sambeng,mantup,sugio,sarirejo,tikung,brondong,sukodadi,glagah,bluluk,lamongan,sukorame,kembangbahu</t>
         </is>
       </c>
     </row>
@@ -41117,7 +41093,7 @@
       </c>
       <c r="D1612" t="inlineStr">
         <is>
-          <t>kota bogor,depok</t>
+          <t>depok,bogor</t>
         </is>
       </c>
       <c r="E1612" t="inlineStr">
@@ -41225,7 +41201,7 @@
       </c>
       <c r="D1616" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1616" t="inlineStr">
@@ -41360,7 +41336,7 @@
       </c>
       <c r="D1621" t="inlineStr">
         <is>
-          <t>kota bengkulu,rejang lebong,bengkulu utara,seluma,bengkulu tengah,kepahiang,lebong,bengkulu selatan,kaur</t>
+          <t>bengkulu selatan,bengkulu,kepahiang,rejang lebong,seluma,kaur,lebong,bengkulu utara,bengkulu tengah</t>
         </is>
       </c>
       <c r="E1621" t="inlineStr"/>
@@ -41388,7 +41364,7 @@
       </c>
       <c r="E1622" t="inlineStr">
         <is>
-          <t>cipanas,lebak gedong,banjar</t>
+          <t>banjar,lebak gedong,cipanas</t>
         </is>
       </c>
     </row>
@@ -41410,7 +41386,7 @@
       </c>
       <c r="D1623" t="inlineStr">
         <is>
-          <t>kabupaten gowa,kabupaten pangkajene kepulauan,kota makassar,kabupaten jeneponto,kabupaten maros,kabupaten selayar,kabupaten takalar,kabupaten soppeng,kabupaten bantaeng,kabupaten wajo,kabupaten barru</t>
+          <t>gowa,jeneponto,bantaeng,selayar,barru,maros,makassar,soppeng,pangkajene kepulauan,wajo,takalar</t>
         </is>
       </c>
       <c r="E1623" t="inlineStr"/>
@@ -41529,7 +41505,7 @@
       </c>
       <c r="D1628" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E1628" t="inlineStr">
@@ -41583,7 +41559,7 @@
       </c>
       <c r="D1630" t="inlineStr">
         <is>
-          <t>kota cimahi</t>
+          <t>cimahi</t>
         </is>
       </c>
       <c r="E1630" t="inlineStr">
@@ -41613,11 +41589,7 @@
           <t>lingga</t>
         </is>
       </c>
-      <c r="E1631" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E1631" t="inlineStr"/>
     </row>
     <row r="1632">
       <c r="A1632" t="inlineStr">
@@ -41642,7 +41614,7 @@
       </c>
       <c r="E1632" t="inlineStr">
         <is>
-          <t>kubutambahan,kubu</t>
+          <t>kubu,kubutambahan</t>
         </is>
       </c>
     </row>
@@ -41912,7 +41884,7 @@
       </c>
       <c r="E1642" t="inlineStr">
         <is>
-          <t>uram jaya,lebong sakti</t>
+          <t>lebong sakti,uram jaya</t>
         </is>
       </c>
     </row>
@@ -42123,7 +42095,7 @@
       </c>
       <c r="D1650" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1650" t="inlineStr"/>
@@ -42146,7 +42118,7 @@
       </c>
       <c r="D1651" t="inlineStr">
         <is>
-          <t>kota bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1651" t="inlineStr">
@@ -42173,7 +42145,7 @@
       </c>
       <c r="D1652" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E1652" t="inlineStr">
@@ -42200,7 +42172,7 @@
       </c>
       <c r="D1653" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E1653" t="inlineStr">
@@ -42254,7 +42226,7 @@
       </c>
       <c r="D1655" t="inlineStr">
         <is>
-          <t>kabupaten garut</t>
+          <t>garut</t>
         </is>
       </c>
       <c r="E1655" t="inlineStr">
@@ -42281,7 +42253,7 @@
       </c>
       <c r="D1656" t="inlineStr">
         <is>
-          <t>kota bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1656" t="inlineStr">
@@ -42308,7 +42280,7 @@
       </c>
       <c r="D1657" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1657" t="inlineStr">
@@ -42362,7 +42334,7 @@
       </c>
       <c r="D1659" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1659" t="inlineStr">
@@ -42421,7 +42393,7 @@
       </c>
       <c r="E1661" t="inlineStr">
         <is>
-          <t>telaga,telaga biru</t>
+          <t>telaga biru,telaga</t>
         </is>
       </c>
     </row>
@@ -42502,7 +42474,7 @@
       </c>
       <c r="E1664" t="inlineStr">
         <is>
-          <t>sumalata,biau</t>
+          <t>biau,sumalata</t>
         </is>
       </c>
     </row>
@@ -42524,7 +42496,7 @@
       </c>
       <c r="D1665" t="inlineStr">
         <is>
-          <t>kabupaten tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E1665" t="inlineStr">
@@ -42551,7 +42523,7 @@
       </c>
       <c r="D1666" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1666" t="inlineStr">
@@ -42578,7 +42550,7 @@
       </c>
       <c r="D1667" t="inlineStr">
         <is>
-          <t>kabupaten sumedang</t>
+          <t>sumedang</t>
         </is>
       </c>
       <c r="E1667" t="inlineStr">
@@ -42605,7 +42577,7 @@
       </c>
       <c r="D1668" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1668" t="inlineStr"/>
@@ -42628,7 +42600,7 @@
       </c>
       <c r="D1669" t="inlineStr">
         <is>
-          <t>kabupaten tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E1669" t="inlineStr">
@@ -42655,7 +42627,7 @@
       </c>
       <c r="D1670" t="inlineStr">
         <is>
-          <t>kabupaten garut</t>
+          <t>garut</t>
         </is>
       </c>
       <c r="E1670" t="inlineStr">
@@ -42682,7 +42654,7 @@
       </c>
       <c r="D1671" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1671" t="inlineStr">
@@ -42768,7 +42740,7 @@
       </c>
       <c r="E1674" t="inlineStr">
         <is>
-          <t>sukaresik,sukahening</t>
+          <t>sukahening,sukaresik</t>
         </is>
       </c>
     </row>
@@ -42790,7 +42762,7 @@
       </c>
       <c r="D1675" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1675" t="inlineStr">
@@ -42817,7 +42789,7 @@
       </c>
       <c r="D1676" t="inlineStr">
         <is>
-          <t>kabupaten garut</t>
+          <t>garut</t>
         </is>
       </c>
       <c r="E1676" t="inlineStr"/>
@@ -42867,7 +42839,7 @@
       </c>
       <c r="D1678" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E1678" t="inlineStr">
@@ -42894,7 +42866,7 @@
       </c>
       <c r="D1679" t="inlineStr">
         <is>
-          <t>kabupaten garut</t>
+          <t>garut</t>
         </is>
       </c>
       <c r="E1679" t="inlineStr"/>
@@ -42917,7 +42889,7 @@
       </c>
       <c r="D1680" t="inlineStr">
         <is>
-          <t>kabupaten garut</t>
+          <t>garut</t>
         </is>
       </c>
       <c r="E1680" t="inlineStr"/>
@@ -42994,7 +42966,7 @@
       </c>
       <c r="D1683" t="inlineStr">
         <is>
-          <t>kota bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1683" t="inlineStr">
@@ -43021,7 +42993,7 @@
       </c>
       <c r="D1684" t="inlineStr">
         <is>
-          <t>kota bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E1684" t="inlineStr">
@@ -43048,7 +43020,7 @@
       </c>
       <c r="D1685" t="inlineStr">
         <is>
-          <t>kabupaten purwakarta</t>
+          <t>purwakarta</t>
         </is>
       </c>
       <c r="E1685" t="inlineStr">
@@ -43075,7 +43047,7 @@
       </c>
       <c r="D1686" t="inlineStr">
         <is>
-          <t>kota bandung</t>
+          <t>bandung</t>
         </is>
       </c>
       <c r="E1686" t="inlineStr">
@@ -43129,7 +43101,7 @@
       </c>
       <c r="D1688" t="inlineStr">
         <is>
-          <t>kabupaten garut</t>
+          <t>garut</t>
         </is>
       </c>
       <c r="E1688" t="inlineStr">
@@ -43237,7 +43209,7 @@
       </c>
       <c r="D1692" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1692" t="inlineStr">
@@ -43264,7 +43236,7 @@
       </c>
       <c r="D1693" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1693" t="inlineStr">
@@ -43291,7 +43263,7 @@
       </c>
       <c r="D1694" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E1694" t="inlineStr">
@@ -43372,7 +43344,7 @@
       </c>
       <c r="D1697" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1697" t="inlineStr">
@@ -43399,7 +43371,7 @@
       </c>
       <c r="D1698" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1698" t="inlineStr"/>
@@ -43522,7 +43494,7 @@
       </c>
       <c r="D1703" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1703" t="inlineStr">
@@ -43549,7 +43521,7 @@
       </c>
       <c r="D1704" t="inlineStr">
         <is>
-          <t>kota tangerang</t>
+          <t>tangerang</t>
         </is>
       </c>
       <c r="E1704" t="inlineStr"/>
@@ -43572,7 +43544,7 @@
       </c>
       <c r="D1705" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1705" t="inlineStr">
@@ -43626,7 +43598,7 @@
       </c>
       <c r="D1707" t="inlineStr">
         <is>
-          <t>kabupaten cianjur</t>
+          <t>cianjur</t>
         </is>
       </c>
       <c r="E1707" t="inlineStr">
@@ -43653,7 +43625,7 @@
       </c>
       <c r="D1708" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1708" t="inlineStr">
@@ -43835,7 +43807,7 @@
       </c>
       <c r="E1715" t="inlineStr">
         <is>
-          <t>dayeuhluhur,karangpucung</t>
+          <t>karangpucung,dayeuhluhur</t>
         </is>
       </c>
     </row>
@@ -43911,7 +43883,7 @@
       </c>
       <c r="D1718" t="inlineStr">
         <is>
-          <t>kabupaten semarang</t>
+          <t>semarang</t>
         </is>
       </c>
       <c r="E1718" t="inlineStr">
@@ -43938,7 +43910,7 @@
       </c>
       <c r="D1719" t="inlineStr">
         <is>
-          <t>kabupaten tangerang</t>
+          <t>tangerang</t>
         </is>
       </c>
       <c r="E1719" t="inlineStr"/>
@@ -44042,7 +44014,7 @@
       </c>
       <c r="D1723" t="inlineStr">
         <is>
-          <t>kabupaten kediri</t>
+          <t>kediri</t>
         </is>
       </c>
       <c r="E1723" t="inlineStr">
@@ -44597,7 +44569,7 @@
       </c>
       <c r="D1744" t="inlineStr">
         <is>
-          <t>kota bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1744" t="inlineStr">
@@ -44651,7 +44623,7 @@
       </c>
       <c r="D1746" t="inlineStr">
         <is>
-          <t>kabupaten tasikmalaya</t>
+          <t>tasikmalaya</t>
         </is>
       </c>
       <c r="E1746" t="inlineStr">
@@ -44678,7 +44650,7 @@
       </c>
       <c r="D1747" t="inlineStr">
         <is>
-          <t>kabupaten brebes</t>
+          <t>brebes</t>
         </is>
       </c>
       <c r="E1747" t="inlineStr">
@@ -44732,7 +44704,7 @@
       </c>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>kotawaringin barat</t>
+          <t>waringin barat</t>
         </is>
       </c>
       <c r="E1749" t="inlineStr">
@@ -44867,7 +44839,7 @@
       </c>
       <c r="D1754" t="inlineStr">
         <is>
-          <t>kota bogor,depok</t>
+          <t>depok,bogor</t>
         </is>
       </c>
       <c r="E1754" t="inlineStr">
@@ -45056,7 +45028,7 @@
       </c>
       <c r="D1761" t="inlineStr">
         <is>
-          <t>kota bogor,depok</t>
+          <t>depok,bogor</t>
         </is>
       </c>
       <c r="E1761" t="inlineStr">
@@ -45299,7 +45271,7 @@
       </c>
       <c r="D1770" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E1770" t="inlineStr">
@@ -45326,7 +45298,7 @@
       </c>
       <c r="D1771" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E1771" t="inlineStr">
@@ -45353,7 +45325,7 @@
       </c>
       <c r="D1772" t="inlineStr">
         <is>
-          <t>kota tarakan</t>
+          <t>tarakan</t>
         </is>
       </c>
       <c r="E1772" t="inlineStr">
@@ -45542,7 +45514,7 @@
       </c>
       <c r="D1779" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1779" t="inlineStr">
@@ -45966,7 +45938,7 @@
       </c>
       <c r="D1795" t="inlineStr">
         <is>
-          <t>kabupaten kediri</t>
+          <t>kediri</t>
         </is>
       </c>
       <c r="E1795" t="inlineStr">
@@ -45993,7 +45965,7 @@
       </c>
       <c r="D1796" t="inlineStr">
         <is>
-          <t>kota batu</t>
+          <t>batu</t>
         </is>
       </c>
       <c r="E1796" t="inlineStr">
@@ -46047,12 +46019,12 @@
       </c>
       <c r="D1798" t="inlineStr">
         <is>
-          <t>pasaman barat,kota pariaman</t>
+          <t>pasaman barat,pariaman</t>
         </is>
       </c>
       <c r="E1798" t="inlineStr">
         <is>
-          <t>pariaman utara,koto balingka</t>
+          <t>koto balingka,pariaman utara</t>
         </is>
       </c>
     </row>
@@ -46079,7 +46051,7 @@
       </c>
       <c r="E1799" t="inlineStr">
         <is>
-          <t>baguala,sirimau,nusaniwe,leitimur selatan</t>
+          <t>leitimur selatan,nusaniwe,sirimau,baguala</t>
         </is>
       </c>
     </row>
@@ -46475,7 +46447,7 @@
       </c>
       <c r="D1814" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E1814" t="inlineStr">
@@ -46637,7 +46609,7 @@
       </c>
       <c r="D1820" t="inlineStr">
         <is>
-          <t>kota lubuklinggau</t>
+          <t>lubuklinggau</t>
         </is>
       </c>
       <c r="E1820" t="inlineStr">
@@ -46852,11 +46824,7 @@
           <t>tangerang</t>
         </is>
       </c>
-      <c r="E1828" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E1828" t="inlineStr"/>
     </row>
     <row r="1829">
       <c r="A1829" t="inlineStr">
@@ -46903,7 +46871,7 @@
       </c>
       <c r="D1830" t="inlineStr">
         <is>
-          <t>kabupaten sukabumi</t>
+          <t>sukabumi</t>
         </is>
       </c>
       <c r="E1830" t="inlineStr">
@@ -46930,7 +46898,7 @@
       </c>
       <c r="D1831" t="inlineStr">
         <is>
-          <t>limapuluh kota</t>
+          <t>limapuluh</t>
         </is>
       </c>
       <c r="E1831" t="inlineStr">
@@ -47223,7 +47191,7 @@
       </c>
       <c r="D1842" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1842" t="inlineStr">
@@ -47444,7 +47412,7 @@
       </c>
       <c r="E1850" t="inlineStr">
         <is>
-          <t>nosu,sumamorong</t>
+          <t>sumamorong,nosu</t>
         </is>
       </c>
     </row>
@@ -47817,7 +47785,7 @@
       </c>
       <c r="D1864" t="inlineStr">
         <is>
-          <t>lima puluh kota</t>
+          <t>lima puluh</t>
         </is>
       </c>
       <c r="E1864" t="inlineStr">
@@ -47849,7 +47817,7 @@
       </c>
       <c r="E1865" t="inlineStr">
         <is>
-          <t>sijunjung,tanjung gadang</t>
+          <t>tanjung gadang,sijunjung</t>
         </is>
       </c>
     </row>
@@ -47930,7 +47898,7 @@
       </c>
       <c r="E1868" t="inlineStr">
         <is>
-          <t>linggo sari baganti,bayang</t>
+          <t>bayang,linggo sari baganti</t>
         </is>
       </c>
     </row>
@@ -48087,7 +48055,7 @@
       </c>
       <c r="D1874" t="inlineStr">
         <is>
-          <t>limapuluh kota</t>
+          <t>limapuluh</t>
         </is>
       </c>
       <c r="E1874" t="inlineStr">
@@ -48114,14 +48082,10 @@
       </c>
       <c r="D1875" t="inlineStr">
         <is>
-          <t>solok</t>
-        </is>
-      </c>
-      <c r="E1875" t="inlineStr">
-        <is>
-          <t>kabupaten solok,padang</t>
-        </is>
-      </c>
+          <t>solok,padang</t>
+        </is>
+      </c>
+      <c r="E1875" t="inlineStr"/>
     </row>
     <row r="1876">
       <c r="A1876" t="inlineStr">
@@ -48168,7 +48132,7 @@
       </c>
       <c r="D1877" t="inlineStr">
         <is>
-          <t>limapuluh kota</t>
+          <t>limapuluh</t>
         </is>
       </c>
       <c r="E1877" t="inlineStr">
@@ -48299,7 +48263,7 @@
       </c>
       <c r="D1882" t="inlineStr">
         <is>
-          <t>kabupaten bogor</t>
+          <t>bogor</t>
         </is>
       </c>
       <c r="E1882" t="inlineStr">
@@ -48353,7 +48317,7 @@
       </c>
       <c r="D1884" t="inlineStr">
         <is>
-          <t>kota bogor,depok</t>
+          <t>depok,bogor</t>
         </is>
       </c>
       <c r="E1884" t="inlineStr">
@@ -48407,12 +48371,12 @@
       </c>
       <c r="D1886" t="inlineStr">
         <is>
-          <t>kota lahat</t>
+          <t>lahat</t>
         </is>
       </c>
       <c r="E1886" t="inlineStr">
         <is>
-          <t>tanjung tebat,pulau pinang,mulak ulu,mulak sebingkai,pagar gunung,kota agung</t>
+          <t>mulak sebingkai,pagar gunung,pulau pinang,mulak ulu,kota agung,tanjung tebat</t>
         </is>
       </c>
     </row>
@@ -48569,7 +48533,7 @@
       </c>
       <c r="D1892" t="inlineStr">
         <is>
-          <t>kabupaten mandailing natal</t>
+          <t>mandailing natal</t>
         </is>
       </c>
       <c r="E1892" t="inlineStr">
@@ -48650,7 +48614,7 @@
       </c>
       <c r="D1895" t="inlineStr">
         <is>
-          <t>kabupateng malang</t>
+          <t>g malang</t>
         </is>
       </c>
       <c r="E1895" t="inlineStr">
@@ -48754,7 +48718,7 @@
       </c>
       <c r="D1899" t="inlineStr">
         <is>
-          <t>kabupaten jember</t>
+          <t>jember</t>
         </is>
       </c>
       <c r="E1899" t="inlineStr">
@@ -48823,7 +48787,7 @@
       </c>
       <c r="D1902" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1902" t="inlineStr"/>
@@ -48869,7 +48833,7 @@
       </c>
       <c r="D1904" t="inlineStr">
         <is>
-          <t>pasangkayu,palu,parigi moutong</t>
+          <t>pasangkayu,parigi moutong,palu</t>
         </is>
       </c>
       <c r="E1904" t="inlineStr"/>
@@ -48915,7 +48879,7 @@
       </c>
       <c r="D1906" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1906" t="inlineStr"/>
@@ -49010,11 +48974,7 @@
           <t>palu</t>
         </is>
       </c>
-      <c r="E1910" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
+      <c r="E1910" t="inlineStr"/>
     </row>
     <row r="1911">
       <c r="A1911" t="inlineStr">
@@ -49217,7 +49177,7 @@
       </c>
       <c r="D1920" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1920" t="inlineStr"/>
@@ -49435,7 +49395,7 @@
       </c>
       <c r="D1930" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1930" t="inlineStr">
@@ -49504,7 +49464,7 @@
       </c>
       <c r="D1933" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1933" t="inlineStr"/>
@@ -49653,7 +49613,7 @@
       </c>
       <c r="D1940" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1940" t="inlineStr">
@@ -49891,7 +49851,7 @@
       </c>
       <c r="D1950" t="inlineStr">
         <is>
-          <t>palu,donggala,mamuju</t>
+          <t>donggala,mamuju,palu</t>
         </is>
       </c>
       <c r="E1950" t="inlineStr"/>
@@ -49952,7 +49912,7 @@
       </c>
       <c r="D1953" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1953" t="inlineStr"/>
@@ -49975,7 +49935,7 @@
       </c>
       <c r="D1954" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1954" t="inlineStr"/>
@@ -49998,7 +49958,7 @@
       </c>
       <c r="D1955" t="inlineStr">
         <is>
-          <t>palu,donggala,mamuju</t>
+          <t>donggala,mamuju,palu</t>
         </is>
       </c>
       <c r="E1955" t="inlineStr"/>
@@ -50044,7 +50004,7 @@
       </c>
       <c r="D1957" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1957" t="inlineStr"/>
@@ -50067,7 +50027,7 @@
       </c>
       <c r="D1958" t="inlineStr">
         <is>
-          <t>palu,donggala,mamuju</t>
+          <t>donggala,mamuju,palu</t>
         </is>
       </c>
       <c r="E1958" t="inlineStr"/>
@@ -50090,7 +50050,7 @@
       </c>
       <c r="D1959" t="inlineStr">
         <is>
-          <t>serang,pesawaran,pandeglang,tanggamus,lampung selatan</t>
+          <t>pesawaran,tanggamus,pandeglang,lampung selatan,serang</t>
         </is>
       </c>
       <c r="E1959" t="inlineStr"/>
@@ -50327,7 +50287,7 @@
       </c>
       <c r="D1970" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1970" t="inlineStr"/>
@@ -50350,7 +50310,7 @@
       </c>
       <c r="D1971" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E1971" t="inlineStr"/>
@@ -50373,7 +50333,7 @@
       </c>
       <c r="D1972" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1972" t="inlineStr"/>
@@ -50396,7 +50356,7 @@
       </c>
       <c r="D1973" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E1973" t="inlineStr"/>
@@ -50419,7 +50379,7 @@
       </c>
       <c r="D1974" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E1974" t="inlineStr"/>
@@ -50442,7 +50402,7 @@
       </c>
       <c r="D1975" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E1975" t="inlineStr"/>
@@ -50465,7 +50425,7 @@
       </c>
       <c r="D1976" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1976" t="inlineStr"/>
@@ -50488,7 +50448,7 @@
       </c>
       <c r="D1977" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1977" t="inlineStr"/>
@@ -50511,7 +50471,7 @@
       </c>
       <c r="D1978" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1978" t="inlineStr"/>
@@ -50534,7 +50494,7 @@
       </c>
       <c r="D1979" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E1979" t="inlineStr"/>
@@ -50557,7 +50517,7 @@
       </c>
       <c r="D1980" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E1980" t="inlineStr"/>
@@ -50653,7 +50613,7 @@
       </c>
       <c r="D1984" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1984" t="inlineStr"/>
@@ -50676,7 +50636,7 @@
       </c>
       <c r="D1985" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1985" t="inlineStr"/>
@@ -50722,7 +50682,7 @@
       </c>
       <c r="D1987" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1987" t="inlineStr"/>
@@ -50745,7 +50705,7 @@
       </c>
       <c r="D1988" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1988" t="inlineStr"/>
@@ -50791,7 +50751,7 @@
       </c>
       <c r="D1990" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1990" t="inlineStr"/>
@@ -50814,7 +50774,7 @@
       </c>
       <c r="D1991" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E1991" t="inlineStr"/>
@@ -50944,7 +50904,7 @@
       </c>
       <c r="D1997" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1997" t="inlineStr"/>
@@ -50986,7 +50946,7 @@
       </c>
       <c r="D1999" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E1999" t="inlineStr"/>
@@ -51051,7 +51011,7 @@
       </c>
       <c r="D2002" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2002" t="inlineStr"/>
@@ -51074,7 +51034,7 @@
       </c>
       <c r="D2003" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2003" t="inlineStr"/>
@@ -51185,7 +51145,7 @@
       </c>
       <c r="D2008" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2008" t="inlineStr"/>
@@ -51231,7 +51191,7 @@
       </c>
       <c r="D2010" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2010" t="inlineStr"/>
@@ -51259,7 +51219,7 @@
       </c>
       <c r="E2011" t="inlineStr">
         <is>
-          <t>kalianda,rajabasa</t>
+          <t>rajabasa,kalianda</t>
         </is>
       </c>
     </row>
@@ -51304,7 +51264,7 @@
       </c>
       <c r="D2013" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2013" t="inlineStr"/>
@@ -51373,7 +51333,7 @@
       </c>
       <c r="D2016" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2016" t="inlineStr"/>
@@ -51396,7 +51356,7 @@
       </c>
       <c r="D2017" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2017" t="inlineStr"/>
@@ -51419,7 +51379,7 @@
       </c>
       <c r="D2018" t="inlineStr">
         <is>
-          <t>palu,donggala,pasangkayu,sigi,parigi moutong</t>
+          <t>donggala,palu,parigi moutong,sigi,pasangkayu</t>
         </is>
       </c>
       <c r="E2018" t="inlineStr"/>
@@ -51465,7 +51425,7 @@
       </c>
       <c r="D2020" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2020" t="inlineStr"/>
@@ -51488,7 +51448,7 @@
       </c>
       <c r="D2021" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2021" t="inlineStr"/>
@@ -51511,7 +51471,7 @@
       </c>
       <c r="D2022" t="inlineStr">
         <is>
-          <t>serang,pesawaran,pandeglang,tanggamus,lampung selatan</t>
+          <t>pesawaran,tanggamus,pandeglang,lampung selatan,serang</t>
         </is>
       </c>
       <c r="E2022" t="inlineStr"/>
@@ -51534,7 +51494,7 @@
       </c>
       <c r="D2023" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2023" t="inlineStr"/>
@@ -51580,12 +51540,12 @@
       </c>
       <c r="D2025" t="inlineStr">
         <is>
-          <t>tanggamus,pandeglang,lampung selatan,pesawaran</t>
+          <t>tanggamus,pesawaran,pandeglang,lampung selatan</t>
         </is>
       </c>
       <c r="E2025" t="inlineStr">
         <is>
-          <t>carita,sumur,panimbang</t>
+          <t>sumur,panimbang,carita</t>
         </is>
       </c>
     </row>
@@ -51687,7 +51647,7 @@
       </c>
       <c r="D2030" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2030" t="inlineStr"/>
@@ -51710,7 +51670,7 @@
       </c>
       <c r="D2031" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2031" t="inlineStr"/>
@@ -51771,7 +51731,7 @@
       </c>
       <c r="D2034" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2034" t="inlineStr"/>
@@ -51813,7 +51773,7 @@
       </c>
       <c r="D2036" t="inlineStr">
         <is>
-          <t>pandeglang,lampung selatan,serang</t>
+          <t>serang,pandeglang,lampung selatan</t>
         </is>
       </c>
       <c r="E2036" t="inlineStr"/>
@@ -51947,7 +51907,7 @@
       </c>
       <c r="D2042" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2042" t="inlineStr"/>
@@ -51970,7 +51930,7 @@
       </c>
       <c r="D2043" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2043" t="inlineStr"/>
@@ -52016,7 +51976,7 @@
       </c>
       <c r="D2045" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2045" t="inlineStr"/>
@@ -52104,7 +52064,7 @@
       </c>
       <c r="D2049" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2049" t="inlineStr"/>
@@ -52150,7 +52110,7 @@
       </c>
       <c r="D2051" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2051" t="inlineStr"/>
@@ -52192,7 +52152,7 @@
       </c>
       <c r="D2053" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2053" t="inlineStr"/>
@@ -52238,7 +52198,7 @@
       </c>
       <c r="D2055" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2055" t="inlineStr"/>
@@ -52261,7 +52221,7 @@
       </c>
       <c r="D2056" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2056" t="inlineStr"/>
@@ -52284,7 +52244,7 @@
       </c>
       <c r="D2057" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2057" t="inlineStr"/>
@@ -52330,7 +52290,7 @@
       </c>
       <c r="D2059" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2059" t="inlineStr"/>
@@ -52353,7 +52313,7 @@
       </c>
       <c r="D2060" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2060" t="inlineStr"/>
@@ -52376,7 +52336,7 @@
       </c>
       <c r="D2061" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2061" t="inlineStr"/>
@@ -52422,7 +52382,7 @@
       </c>
       <c r="D2063" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2063" t="inlineStr"/>
@@ -52487,7 +52447,7 @@
       </c>
       <c r="D2066" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2066" t="inlineStr"/>
@@ -52636,7 +52596,7 @@
       </c>
       <c r="D2073" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2073" t="inlineStr"/>
@@ -52659,7 +52619,7 @@
       </c>
       <c r="D2074" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2074" t="inlineStr"/>
@@ -52682,7 +52642,7 @@
       </c>
       <c r="D2075" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2075" t="inlineStr"/>
@@ -52705,7 +52665,7 @@
       </c>
       <c r="D2076" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2076" t="inlineStr"/>
@@ -52751,7 +52711,7 @@
       </c>
       <c r="D2078" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2078" t="inlineStr"/>
@@ -52797,7 +52757,7 @@
       </c>
       <c r="D2080" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2080" t="inlineStr"/>
@@ -52820,7 +52780,7 @@
       </c>
       <c r="D2081" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2081" t="inlineStr"/>
@@ -52870,12 +52830,12 @@
       </c>
       <c r="D2083" t="inlineStr">
         <is>
-          <t>pandeglang,lampung selatan,serang</t>
+          <t>serang,pandeglang,lampung selatan</t>
         </is>
       </c>
       <c r="E2083" t="inlineStr">
         <is>
-          <t>carita,sumur,panimbang</t>
+          <t>sumur,panimbang,carita</t>
         </is>
       </c>
     </row>
@@ -52902,7 +52862,7 @@
       </c>
       <c r="E2084" t="inlineStr">
         <is>
-          <t>kalianda,rajabasa</t>
+          <t>rajabasa,kalianda</t>
         </is>
       </c>
     </row>
@@ -53172,7 +53132,7 @@
       </c>
       <c r="D2097" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2097" t="inlineStr"/>
@@ -53237,7 +53197,7 @@
       </c>
       <c r="D2100" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2100" t="inlineStr"/>
@@ -53260,7 +53220,7 @@
       </c>
       <c r="D2101" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2101" t="inlineStr"/>
@@ -53283,7 +53243,7 @@
       </c>
       <c r="D2102" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2102" t="inlineStr"/>
@@ -53306,7 +53266,7 @@
       </c>
       <c r="D2103" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2103" t="inlineStr"/>
@@ -53352,7 +53312,7 @@
       </c>
       <c r="D2105" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2105" t="inlineStr"/>
@@ -53375,7 +53335,7 @@
       </c>
       <c r="D2106" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2106" t="inlineStr"/>
@@ -53398,7 +53358,7 @@
       </c>
       <c r="D2107" t="inlineStr">
         <is>
-          <t>palu,donggala,mamuju</t>
+          <t>donggala,mamuju,palu</t>
         </is>
       </c>
       <c r="E2107" t="inlineStr"/>
@@ -53421,7 +53381,7 @@
       </c>
       <c r="D2108" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2108" t="inlineStr"/>
@@ -53444,7 +53404,7 @@
       </c>
       <c r="D2109" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2109" t="inlineStr"/>
@@ -53486,7 +53446,7 @@
       </c>
       <c r="D2111" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2111" t="inlineStr"/>
@@ -53509,7 +53469,7 @@
       </c>
       <c r="D2112" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2112" t="inlineStr"/>
@@ -53532,7 +53492,7 @@
       </c>
       <c r="D2113" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2113" t="inlineStr"/>
@@ -53620,7 +53580,7 @@
       </c>
       <c r="D2117" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2117" t="inlineStr"/>
@@ -53689,7 +53649,7 @@
       </c>
       <c r="D2120" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2120" t="inlineStr"/>
@@ -53712,7 +53672,7 @@
       </c>
       <c r="D2121" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2121" t="inlineStr"/>
@@ -53763,7 +53723,7 @@
       </c>
       <c r="E2123" t="inlineStr">
         <is>
-          <t>carita,sumur,panimbang</t>
+          <t>sumur,panimbang,carita</t>
         </is>
       </c>
     </row>
@@ -53790,7 +53750,7 @@
       </c>
       <c r="E2124" t="inlineStr">
         <is>
-          <t>panimbang,sumur,carita</t>
+          <t>carita,panimbang,sumur</t>
         </is>
       </c>
     </row>
@@ -53812,7 +53772,7 @@
       </c>
       <c r="D2125" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2125" t="inlineStr"/>
@@ -53835,7 +53795,7 @@
       </c>
       <c r="D2126" t="inlineStr">
         <is>
-          <t>tanggamus,lampung selatan,bandar lampung</t>
+          <t>tanggamus,bandar lampung,lampung selatan</t>
         </is>
       </c>
       <c r="E2126" t="inlineStr"/>
@@ -53927,7 +53887,7 @@
       </c>
       <c r="D2130" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2130" t="inlineStr"/>
@@ -54005,7 +53965,7 @@
       </c>
       <c r="E2133" t="inlineStr">
         <is>
-          <t>kalianda,rajabasa</t>
+          <t>rajabasa,kalianda</t>
         </is>
       </c>
     </row>
@@ -54032,7 +53992,7 @@
       </c>
       <c r="E2134" t="inlineStr">
         <is>
-          <t>kalianda,rajabasa</t>
+          <t>rajabasa,kalianda</t>
         </is>
       </c>
     </row>
@@ -54054,7 +54014,7 @@
       </c>
       <c r="D2135" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2135" t="inlineStr"/>
@@ -54077,7 +54037,7 @@
       </c>
       <c r="D2136" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2136" t="inlineStr"/>
@@ -54192,7 +54152,7 @@
       </c>
       <c r="D2141" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2141" t="inlineStr"/>
@@ -54436,7 +54396,7 @@
       </c>
       <c r="D2153" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2153" t="inlineStr"/>
@@ -54558,7 +54518,7 @@
       </c>
       <c r="D2159" t="inlineStr">
         <is>
-          <t>palu,donggala,mamuju</t>
+          <t>donggala,mamuju,palu</t>
         </is>
       </c>
       <c r="E2159" t="inlineStr"/>
@@ -54581,7 +54541,7 @@
       </c>
       <c r="D2160" t="inlineStr">
         <is>
-          <t>palu,donggala,mamuju</t>
+          <t>donggala,mamuju,palu</t>
         </is>
       </c>
       <c r="E2160" t="inlineStr"/>
@@ -54650,7 +54610,7 @@
       </c>
       <c r="D2163" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2163" t="inlineStr"/>
@@ -54673,7 +54633,7 @@
       </c>
       <c r="D2164" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2164" t="inlineStr"/>
@@ -54696,7 +54656,7 @@
       </c>
       <c r="D2165" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2165" t="inlineStr"/>
@@ -54719,7 +54679,7 @@
       </c>
       <c r="D2166" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2166" t="inlineStr"/>
@@ -54742,7 +54702,7 @@
       </c>
       <c r="D2167" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2167" t="inlineStr"/>
@@ -54765,7 +54725,7 @@
       </c>
       <c r="D2168" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2168" t="inlineStr"/>
@@ -54788,7 +54748,7 @@
       </c>
       <c r="D2169" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2169" t="inlineStr"/>
@@ -54830,7 +54790,7 @@
       </c>
       <c r="D2171" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2171" t="inlineStr"/>
@@ -54853,7 +54813,7 @@
       </c>
       <c r="D2172" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2172" t="inlineStr"/>
@@ -54899,7 +54859,7 @@
       </c>
       <c r="D2174" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2174" t="inlineStr"/>
@@ -54922,7 +54882,7 @@
       </c>
       <c r="D2175" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2175" t="inlineStr"/>
@@ -54968,7 +54928,7 @@
       </c>
       <c r="D2177" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2177" t="inlineStr"/>
@@ -55019,7 +54979,7 @@
       </c>
       <c r="E2179" t="inlineStr">
         <is>
-          <t>carita,sumur,panimbang</t>
+          <t>sumur,panimbang,carita</t>
         </is>
       </c>
     </row>
@@ -55041,7 +55001,7 @@
       </c>
       <c r="D2180" t="inlineStr">
         <is>
-          <t>palu,donggala,sigi</t>
+          <t>donggala,sigi,palu</t>
         </is>
       </c>
       <c r="E2180" t="inlineStr"/>
@@ -55064,7 +55024,7 @@
       </c>
       <c r="D2181" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2181" t="inlineStr"/>
@@ -55087,7 +55047,7 @@
       </c>
       <c r="D2182" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2182" t="inlineStr"/>
@@ -55110,7 +55070,7 @@
       </c>
       <c r="D2183" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2183" t="inlineStr"/>
@@ -55382,7 +55342,7 @@
       </c>
       <c r="E2196" t="inlineStr">
         <is>
-          <t>carita,sumur,panimbang</t>
+          <t>sumur,panimbang,carita</t>
         </is>
       </c>
     </row>
@@ -55469,7 +55429,7 @@
       </c>
       <c r="D2200" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2200" t="inlineStr"/>
@@ -55492,7 +55452,7 @@
       </c>
       <c r="D2201" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2201" t="inlineStr"/>
@@ -55515,7 +55475,7 @@
       </c>
       <c r="D2202" t="inlineStr">
         <is>
-          <t>palu,donggala,mamuju</t>
+          <t>donggala,mamuju,palu</t>
         </is>
       </c>
       <c r="E2202" t="inlineStr"/>
@@ -55611,7 +55571,7 @@
       </c>
       <c r="D2206" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2206" t="inlineStr"/>
@@ -55657,7 +55617,7 @@
       </c>
       <c r="D2208" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2208" t="inlineStr"/>
@@ -55703,7 +55663,7 @@
       </c>
       <c r="D2210" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2210" t="inlineStr"/>
@@ -55726,7 +55686,7 @@
       </c>
       <c r="D2211" t="inlineStr">
         <is>
-          <t>palu,donggala</t>
+          <t>donggala,palu</t>
         </is>
       </c>
       <c r="E2211" t="inlineStr"/>
